--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,217 +665,242 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>106500</v>
+        <v>113600</v>
       </c>
       <c r="E8" s="3">
-        <v>99000</v>
+        <v>105800</v>
       </c>
       <c r="F8" s="3">
-        <v>94500</v>
+        <v>101500</v>
       </c>
       <c r="G8" s="3">
-        <v>92800</v>
+        <v>94300</v>
       </c>
       <c r="H8" s="3">
-        <v>85800</v>
+        <v>90000</v>
       </c>
       <c r="I8" s="3">
+        <v>88400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K8" s="3">
         <v>79500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>201800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>65200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>62000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>56100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>68100</v>
+        <v>65600</v>
       </c>
       <c r="E9" s="3">
-        <v>65500</v>
+        <v>96300</v>
       </c>
       <c r="F9" s="3">
-        <v>62200</v>
+        <v>64900</v>
       </c>
       <c r="G9" s="3">
-        <v>60000</v>
+        <v>62400</v>
       </c>
       <c r="H9" s="3">
-        <v>56800</v>
+        <v>59200</v>
       </c>
       <c r="I9" s="3">
+        <v>57200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K9" s="3">
         <v>51800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>136200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>44400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>42200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>38000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>38400</v>
+        <v>48000</v>
       </c>
       <c r="E10" s="3">
-        <v>33500</v>
+        <v>9500</v>
       </c>
       <c r="F10" s="3">
-        <v>32400</v>
+        <v>36600</v>
       </c>
       <c r="G10" s="3">
-        <v>32800</v>
+        <v>31900</v>
       </c>
       <c r="H10" s="3">
-        <v>29100</v>
+        <v>30800</v>
       </c>
       <c r="I10" s="3">
+        <v>31300</v>
+      </c>
+      <c r="J10" s="3">
         <v>27700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
+        <v>27700</v>
+      </c>
+      <c r="L10" s="3">
         <v>65600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>20900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>19700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>18100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +918,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,8 +967,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,19 +1020,25 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-2700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1007,52 +1046,58 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E15" s="3">
         <v>1800</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F15" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>1200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1060,11 +1105,11 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1081,8 +1126,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,102 +1148,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>87700</v>
+        <v>96200</v>
       </c>
       <c r="E17" s="3">
-        <v>87800</v>
+        <v>119900</v>
       </c>
       <c r="F17" s="3">
-        <v>84900</v>
+        <v>83500</v>
       </c>
       <c r="G17" s="3">
-        <v>81100</v>
+        <v>83700</v>
       </c>
       <c r="H17" s="3">
-        <v>75700</v>
+        <v>80900</v>
       </c>
       <c r="I17" s="3">
+        <v>77300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>72200</v>
+      </c>
+      <c r="K17" s="3">
         <v>71200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>177300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>57200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>52900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>47800</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>18900</v>
+        <v>17400</v>
       </c>
       <c r="E18" s="3">
-        <v>11200</v>
+        <v>-14100</v>
       </c>
       <c r="F18" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J18" s="3">
         <v>9600</v>
       </c>
-      <c r="G18" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>8400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>24500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>8000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>9000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>8200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,102 +1275,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3700</v>
+        <v>5200</v>
       </c>
       <c r="E20" s="3">
-        <v>2300</v>
+        <v>-7100</v>
       </c>
       <c r="F20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-6700</v>
-      </c>
       <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>27900</v>
+        <v>23000</v>
       </c>
       <c r="E21" s="3">
-        <v>13500</v>
+        <v>-20700</v>
       </c>
       <c r="F21" s="3">
-        <v>11300</v>
+        <v>26600</v>
       </c>
       <c r="G21" s="3">
-        <v>12200</v>
+        <v>12900</v>
       </c>
       <c r="H21" s="3">
-        <v>4500</v>
+        <v>10700</v>
       </c>
       <c r="I21" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K21" s="3">
         <v>11000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>29000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>7900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>9000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>8900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1351,93 +1430,105 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>22600</v>
+        <v>22500</v>
       </c>
       <c r="E23" s="3">
-        <v>13500</v>
+        <v>-21300</v>
       </c>
       <c r="F23" s="3">
-        <v>9800</v>
+        <v>21500</v>
       </c>
       <c r="G23" s="3">
-        <v>12200</v>
+        <v>12900</v>
       </c>
       <c r="H23" s="3">
-        <v>3400</v>
+        <v>9400</v>
       </c>
       <c r="I23" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K23" s="3">
         <v>8600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>23200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>7900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>8400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>7200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="E24" s="3">
-        <v>2900</v>
+        <v>-4200</v>
       </c>
       <c r="F24" s="3">
-        <v>1700</v>
+        <v>3600</v>
       </c>
       <c r="G24" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H24" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="I24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>700</v>
+      </c>
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1800</v>
       </c>
       <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1600</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1445,8 +1536,14 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,102 +1589,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="E26" s="3">
-        <v>10600</v>
+        <v>-17000</v>
       </c>
       <c r="F26" s="3">
-        <v>8200</v>
+        <v>17900</v>
       </c>
       <c r="G26" s="3">
-        <v>9600</v>
+        <v>10100</v>
       </c>
       <c r="H26" s="3">
-        <v>2600</v>
+        <v>7800</v>
       </c>
       <c r="I26" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K26" s="3">
         <v>6300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>18200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>5600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="E27" s="3">
-        <v>10600</v>
+        <v>-17000</v>
       </c>
       <c r="F27" s="3">
-        <v>8200</v>
+        <v>17900</v>
       </c>
       <c r="G27" s="3">
-        <v>9600</v>
+        <v>10100</v>
       </c>
       <c r="H27" s="3">
-        <v>2600</v>
+        <v>7800</v>
       </c>
       <c r="I27" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K27" s="3">
         <v>6300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>18200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>5600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1748,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1801,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1854,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,102 +1907,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3700</v>
+        <v>-5200</v>
       </c>
       <c r="E32" s="3">
-        <v>-2300</v>
+        <v>7100</v>
       </c>
       <c r="F32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>6700</v>
-      </c>
       <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="E33" s="3">
-        <v>10600</v>
+        <v>-17000</v>
       </c>
       <c r="F33" s="3">
-        <v>8200</v>
+        <v>17900</v>
       </c>
       <c r="G33" s="3">
-        <v>9600</v>
+        <v>10100</v>
       </c>
       <c r="H33" s="3">
-        <v>2600</v>
+        <v>7800</v>
       </c>
       <c r="I33" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K33" s="3">
         <v>6300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>18200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>5600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +2066,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="E35" s="3">
-        <v>10600</v>
+        <v>-17000</v>
       </c>
       <c r="F35" s="3">
-        <v>8200</v>
+        <v>17900</v>
       </c>
       <c r="G35" s="3">
-        <v>9600</v>
+        <v>10100</v>
       </c>
       <c r="H35" s="3">
-        <v>2600</v>
+        <v>7800</v>
       </c>
       <c r="I35" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K35" s="3">
         <v>6300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>18200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>5600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2202,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,44 +2223,46 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>108100</v>
+        <v>107300</v>
       </c>
       <c r="E41" s="3">
-        <v>90700</v>
+        <v>97300</v>
       </c>
       <c r="F41" s="3">
-        <v>76700</v>
+        <v>103000</v>
       </c>
       <c r="G41" s="3">
-        <v>66000</v>
+        <v>86400</v>
       </c>
       <c r="H41" s="3">
-        <v>54000</v>
+        <v>73100</v>
       </c>
       <c r="I41" s="3">
+        <v>62900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K41" s="3">
         <v>19500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>12200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>32700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>21700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,20 +2272,26 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>700</v>
+      </c>
+      <c r="F42" s="3">
         <v>800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,11 +2304,11 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2146,44 +2325,50 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>88800</v>
+        <v>100600</v>
       </c>
       <c r="E43" s="3">
-        <v>86200</v>
+        <v>96600</v>
       </c>
       <c r="F43" s="3">
-        <v>82300</v>
+        <v>84600</v>
       </c>
       <c r="G43" s="3">
-        <v>83100</v>
+        <v>82200</v>
       </c>
       <c r="H43" s="3">
-        <v>79100</v>
+        <v>78400</v>
       </c>
       <c r="I43" s="3">
+        <v>79200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>75400</v>
+      </c>
+      <c r="K43" s="3">
         <v>68600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>64900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>64400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>59300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2378,14 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2207,17 +2398,17 @@
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2225,11 +2416,11 @@
       <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>100</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
@@ -2240,8 +2431,14 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2287,44 +2484,50 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>197700</v>
+        <v>208600</v>
       </c>
       <c r="E46" s="3">
-        <v>177000</v>
+        <v>194600</v>
       </c>
       <c r="F46" s="3">
-        <v>159100</v>
+        <v>188400</v>
       </c>
       <c r="G46" s="3">
-        <v>149100</v>
+        <v>168600</v>
       </c>
       <c r="H46" s="3">
-        <v>133100</v>
+        <v>151500</v>
       </c>
       <c r="I46" s="3">
+        <v>142100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>126800</v>
+      </c>
+      <c r="K46" s="3">
         <v>88000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>77200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>97100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>81100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,19 +2537,25 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1400</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1300</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2354,17 +2563,17 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2381,44 +2590,50 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>62300</v>
+        <v>75400</v>
       </c>
       <c r="E48" s="3">
-        <v>13700</v>
+        <v>75000</v>
       </c>
       <c r="F48" s="3">
-        <v>12100</v>
+        <v>59400</v>
       </c>
       <c r="G48" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="H48" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="I48" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K48" s="3">
         <v>11100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>11400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>10400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,44 +2643,50 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>84400</v>
+        <v>117900</v>
       </c>
       <c r="E49" s="3">
-        <v>84900</v>
+        <v>112000</v>
       </c>
       <c r="F49" s="3">
-        <v>90500</v>
+        <v>80400</v>
       </c>
       <c r="G49" s="3">
-        <v>94100</v>
+        <v>80900</v>
       </c>
       <c r="H49" s="3">
+        <v>86200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>89600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>88500</v>
+      </c>
+      <c r="K49" s="3">
         <v>92900</v>
       </c>
-      <c r="I49" s="3">
-        <v>92900</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>89600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>93700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>41900</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,8 +2696,14 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2749,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,44 +2802,50 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12700</v>
+        <v>11500</v>
       </c>
       <c r="E52" s="3">
-        <v>12300</v>
+        <v>14100</v>
       </c>
       <c r="F52" s="3">
-        <v>6100</v>
+        <v>12100</v>
       </c>
       <c r="G52" s="3">
-        <v>3300</v>
+        <v>11800</v>
       </c>
       <c r="H52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2855,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,44 +2908,50 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>358600</v>
+        <v>414500</v>
       </c>
       <c r="E54" s="3">
-        <v>287900</v>
+        <v>396800</v>
       </c>
       <c r="F54" s="3">
-        <v>267800</v>
+        <v>341600</v>
       </c>
       <c r="G54" s="3">
-        <v>259400</v>
+        <v>274300</v>
       </c>
       <c r="H54" s="3">
-        <v>241200</v>
+        <v>255100</v>
       </c>
       <c r="I54" s="3">
+        <v>247100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>229800</v>
+      </c>
+      <c r="K54" s="3">
         <v>195200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>178800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>203400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>134500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2961,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2986,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,44 +3007,46 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>62200</v>
+        <v>77900</v>
       </c>
       <c r="E57" s="3">
-        <v>58800</v>
+        <v>89300</v>
       </c>
       <c r="F57" s="3">
-        <v>56900</v>
+        <v>59200</v>
       </c>
       <c r="G57" s="3">
+        <v>56100</v>
+      </c>
+      <c r="H57" s="3">
         <v>54200</v>
       </c>
-      <c r="H57" s="3">
-        <v>52800</v>
-      </c>
       <c r="I57" s="3">
+        <v>51600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K57" s="3">
         <v>52000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>42500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>37200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>32700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,44 +3056,50 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11100</v>
+        <v>13300</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>14100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>25500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>30500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>50800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>26800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,44 +3109,50 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8100</v>
+        <v>8900</v>
       </c>
       <c r="E59" s="3">
-        <v>11200</v>
+        <v>4700</v>
       </c>
       <c r="F59" s="3">
-        <v>6500</v>
+        <v>7700</v>
       </c>
       <c r="G59" s="3">
-        <v>9300</v>
+        <v>10700</v>
       </c>
       <c r="H59" s="3">
-        <v>7400</v>
+        <v>6200</v>
       </c>
       <c r="I59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K59" s="3">
         <v>14400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>23300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,44 +3162,50 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>81300</v>
+        <v>100100</v>
       </c>
       <c r="E60" s="3">
-        <v>70100</v>
+        <v>108100</v>
       </c>
       <c r="F60" s="3">
-        <v>63400</v>
+        <v>77500</v>
       </c>
       <c r="G60" s="3">
-        <v>63500</v>
+        <v>66800</v>
       </c>
       <c r="H60" s="3">
-        <v>60200</v>
+        <v>60400</v>
       </c>
       <c r="I60" s="3">
+        <v>60500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K60" s="3">
         <v>92000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>83900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>111300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>60000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,19 +3215,25 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>38300</v>
+        <v>49800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>48700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>36500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2963,17 +3248,17 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -2983,44 +3268,50 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2700</v>
+        <v>8700</v>
       </c>
       <c r="E62" s="3">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="F62" s="3">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="G62" s="3">
-        <v>3700</v>
+        <v>2600</v>
       </c>
       <c r="H62" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="I62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K62" s="3">
         <v>13400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>14100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>14500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3321,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3374,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3427,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,44 +3480,50 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>122300</v>
+        <v>158500</v>
       </c>
       <c r="E66" s="3">
-        <v>72800</v>
+        <v>162800</v>
       </c>
       <c r="F66" s="3">
-        <v>66600</v>
+        <v>116500</v>
       </c>
       <c r="G66" s="3">
-        <v>67300</v>
+        <v>69400</v>
       </c>
       <c r="H66" s="3">
-        <v>64200</v>
+        <v>63400</v>
       </c>
       <c r="I66" s="3">
+        <v>64100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K66" s="3">
         <v>105400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>98000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>125900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>63800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3533,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3558,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3607,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3660,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3713,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,44 +3766,50 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>214900</v>
+        <v>230200</v>
       </c>
       <c r="E72" s="3">
-        <v>193700</v>
+        <v>209700</v>
       </c>
       <c r="F72" s="3">
-        <v>181400</v>
+        <v>204700</v>
       </c>
       <c r="G72" s="3">
-        <v>130800</v>
+        <v>184500</v>
       </c>
       <c r="H72" s="3">
-        <v>115700</v>
+        <v>172800</v>
       </c>
       <c r="I72" s="3">
+        <v>124600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>110200</v>
+      </c>
+      <c r="K72" s="3">
         <v>88000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>79000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>75700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>68800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3819,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3872,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3925,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,44 +3978,50 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>236300</v>
+        <v>256000</v>
       </c>
       <c r="E76" s="3">
-        <v>215000</v>
+        <v>234000</v>
       </c>
       <c r="F76" s="3">
-        <v>201200</v>
+        <v>225100</v>
       </c>
       <c r="G76" s="3">
-        <v>192100</v>
+        <v>204900</v>
       </c>
       <c r="H76" s="3">
-        <v>177000</v>
+        <v>191700</v>
       </c>
       <c r="I76" s="3">
+        <v>183000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>168600</v>
+      </c>
+      <c r="K76" s="3">
         <v>89800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>80800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>77500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>70700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +4031,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +4084,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="E81" s="3">
-        <v>10600</v>
+        <v>-17000</v>
       </c>
       <c r="F81" s="3">
-        <v>8200</v>
+        <v>17900</v>
       </c>
       <c r="G81" s="3">
-        <v>9600</v>
+        <v>10100</v>
       </c>
       <c r="H81" s="3">
-        <v>2600</v>
+        <v>7800</v>
       </c>
       <c r="I81" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K81" s="3">
         <v>6300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>18200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>5600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4220,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3845,35 +4242,41 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>2300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>5800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>1700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4322,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4375,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4428,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4481,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,55 +4534,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19900</v>
+        <v>14600</v>
       </c>
       <c r="E89" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>13600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K89" s="3">
+        <v>17600</v>
+      </c>
+      <c r="L89" s="3">
+        <v>26300</v>
+      </c>
+      <c r="M89" s="3">
+        <v>11200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O89" s="3">
         <v>14300</v>
       </c>
-      <c r="F89" s="3">
-        <v>16300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>12400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I89" s="3">
-        <v>17600</v>
-      </c>
-      <c r="J89" s="3">
-        <v>26300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>11200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M89" s="3">
-        <v>14300</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,55 +4612,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3200</v>
+        <v>-2800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2900</v>
+        <v>-4100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1500</v>
+        <v>-3100</v>
       </c>
       <c r="G91" s="3">
         <v>-2700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2400</v>
+        <v>-1500</v>
       </c>
       <c r="I91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-4800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>4300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4714,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,55 +4767,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1600</v>
+        <v>-2000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2700</v>
+        <v>-31000</v>
       </c>
       <c r="F94" s="3">
-        <v>-5400</v>
+        <v>-1500</v>
       </c>
       <c r="G94" s="3">
         <v>-2600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2400</v>
+        <v>-5100</v>
       </c>
       <c r="I94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-37600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-24100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4845,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4894,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4947,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +5000,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,145 +5053,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2100</v>
+        <v>-4400</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="G100" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-7000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>23800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-11900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="E101" s="3">
-        <v>2400</v>
+        <v>-3700</v>
       </c>
       <c r="F101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>2200</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17400</v>
+        <v>10100</v>
       </c>
       <c r="E102" s="3">
-        <v>14000</v>
+        <v>-5700</v>
       </c>
       <c r="F102" s="3">
-        <v>10700</v>
+        <v>16600</v>
       </c>
       <c r="G102" s="3">
-        <v>12000</v>
+        <v>13300</v>
       </c>
       <c r="H102" s="3">
-        <v>34500</v>
+        <v>10200</v>
       </c>
       <c r="I102" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K102" s="3">
         <v>7200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-18200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-9000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>12500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -746,25 +746,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>113600</v>
+        <v>121800</v>
       </c>
       <c r="E8" s="3">
-        <v>105800</v>
+        <v>113500</v>
       </c>
       <c r="F8" s="3">
-        <v>101500</v>
+        <v>108800</v>
       </c>
       <c r="G8" s="3">
-        <v>94300</v>
+        <v>101200</v>
       </c>
       <c r="H8" s="3">
-        <v>90000</v>
+        <v>96500</v>
       </c>
       <c r="I8" s="3">
-        <v>88400</v>
+        <v>94800</v>
       </c>
       <c r="J8" s="3">
-        <v>81800</v>
+        <v>87700</v>
       </c>
       <c r="K8" s="3">
         <v>79500</v>
@@ -799,25 +799,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>65600</v>
+        <v>70300</v>
       </c>
       <c r="E9" s="3">
-        <v>96300</v>
+        <v>103300</v>
       </c>
       <c r="F9" s="3">
-        <v>64900</v>
+        <v>69600</v>
       </c>
       <c r="G9" s="3">
-        <v>62400</v>
+        <v>67000</v>
       </c>
       <c r="H9" s="3">
-        <v>59200</v>
+        <v>63500</v>
       </c>
       <c r="I9" s="3">
-        <v>57200</v>
+        <v>61300</v>
       </c>
       <c r="J9" s="3">
-        <v>54100</v>
+        <v>58000</v>
       </c>
       <c r="K9" s="3">
         <v>51800</v>
@@ -852,25 +852,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>48000</v>
+        <v>51500</v>
       </c>
       <c r="E10" s="3">
-        <v>9500</v>
+        <v>10100</v>
       </c>
       <c r="F10" s="3">
-        <v>36600</v>
+        <v>39200</v>
       </c>
       <c r="G10" s="3">
-        <v>31900</v>
+        <v>34200</v>
       </c>
       <c r="H10" s="3">
-        <v>30800</v>
+        <v>33100</v>
       </c>
       <c r="I10" s="3">
-        <v>31300</v>
+        <v>33500</v>
       </c>
       <c r="J10" s="3">
-        <v>27700</v>
+        <v>29700</v>
       </c>
       <c r="K10" s="3">
         <v>27700</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-2700</v>
+        <v>-2900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1085,19 +1085,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F15" s="3">
         <v>1800</v>
       </c>
-      <c r="F15" s="3">
-        <v>1700</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1156,25 +1156,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>96200</v>
+        <v>103100</v>
       </c>
       <c r="E17" s="3">
-        <v>119900</v>
+        <v>128600</v>
       </c>
       <c r="F17" s="3">
-        <v>83500</v>
+        <v>89600</v>
       </c>
       <c r="G17" s="3">
-        <v>83700</v>
+        <v>89700</v>
       </c>
       <c r="H17" s="3">
-        <v>80900</v>
+        <v>86700</v>
       </c>
       <c r="I17" s="3">
-        <v>77300</v>
+        <v>82900</v>
       </c>
       <c r="J17" s="3">
-        <v>72200</v>
+        <v>77400</v>
       </c>
       <c r="K17" s="3">
         <v>71200</v>
@@ -1209,25 +1209,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17400</v>
+        <v>18600</v>
       </c>
       <c r="E18" s="3">
-        <v>-14100</v>
+        <v>-15100</v>
       </c>
       <c r="F18" s="3">
-        <v>18000</v>
+        <v>19300</v>
       </c>
       <c r="G18" s="3">
-        <v>10700</v>
+        <v>11400</v>
       </c>
       <c r="H18" s="3">
-        <v>9100</v>
+        <v>9800</v>
       </c>
       <c r="I18" s="3">
-        <v>11100</v>
+        <v>12000</v>
       </c>
       <c r="J18" s="3">
-        <v>9600</v>
+        <v>10300</v>
       </c>
       <c r="K18" s="3">
         <v>8400</v>
@@ -1283,25 +1283,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="E20" s="3">
-        <v>-7100</v>
+        <v>-7700</v>
       </c>
       <c r="F20" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="G20" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
       </c>
       <c r="I20" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J20" s="3">
-        <v>-6400</v>
+        <v>-6800</v>
       </c>
       <c r="K20" s="3">
         <v>300</v>
@@ -1336,25 +1336,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>23000</v>
+        <v>24700</v>
       </c>
       <c r="E21" s="3">
-        <v>-20700</v>
+        <v>-22100</v>
       </c>
       <c r="F21" s="3">
-        <v>26600</v>
+        <v>28500</v>
       </c>
       <c r="G21" s="3">
-        <v>12900</v>
+        <v>13800</v>
       </c>
       <c r="H21" s="3">
-        <v>10700</v>
+        <v>11500</v>
       </c>
       <c r="I21" s="3">
-        <v>11600</v>
+        <v>12400</v>
       </c>
       <c r="J21" s="3">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="K21" s="3">
         <v>11000</v>
@@ -1442,25 +1442,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>22500</v>
+        <v>24200</v>
       </c>
       <c r="E23" s="3">
-        <v>-21300</v>
+        <v>-22800</v>
       </c>
       <c r="F23" s="3">
-        <v>21500</v>
+        <v>23100</v>
       </c>
       <c r="G23" s="3">
-        <v>12900</v>
+        <v>13800</v>
       </c>
       <c r="H23" s="3">
-        <v>9400</v>
+        <v>10000</v>
       </c>
       <c r="I23" s="3">
-        <v>11600</v>
+        <v>12400</v>
       </c>
       <c r="J23" s="3">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="K23" s="3">
         <v>8600</v>
@@ -1495,25 +1495,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4500</v>
+        <v>4900</v>
       </c>
       <c r="E24" s="3">
-        <v>-4200</v>
+        <v>-4500</v>
       </c>
       <c r="F24" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="G24" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="H24" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I24" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J24" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K24" s="3">
         <v>2300</v>
@@ -1601,25 +1601,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18000</v>
+        <v>19300</v>
       </c>
       <c r="E26" s="3">
-        <v>-17000</v>
+        <v>-18200</v>
       </c>
       <c r="F26" s="3">
-        <v>17900</v>
+        <v>19200</v>
       </c>
       <c r="G26" s="3">
-        <v>10100</v>
+        <v>10900</v>
       </c>
       <c r="H26" s="3">
-        <v>7800</v>
+        <v>8300</v>
       </c>
       <c r="I26" s="3">
-        <v>9100</v>
+        <v>9800</v>
       </c>
       <c r="J26" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K26" s="3">
         <v>6300</v>
@@ -1654,25 +1654,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18000</v>
+        <v>19300</v>
       </c>
       <c r="E27" s="3">
-        <v>-17000</v>
+        <v>-18200</v>
       </c>
       <c r="F27" s="3">
-        <v>17900</v>
+        <v>19200</v>
       </c>
       <c r="G27" s="3">
-        <v>10100</v>
+        <v>10900</v>
       </c>
       <c r="H27" s="3">
-        <v>7800</v>
+        <v>8300</v>
       </c>
       <c r="I27" s="3">
-        <v>9100</v>
+        <v>9800</v>
       </c>
       <c r="J27" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K27" s="3">
         <v>6300</v>
@@ -1919,25 +1919,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5200</v>
+        <v>-5500</v>
       </c>
       <c r="E32" s="3">
-        <v>7100</v>
+        <v>7700</v>
       </c>
       <c r="F32" s="3">
-        <v>-3500</v>
+        <v>-3800</v>
       </c>
       <c r="G32" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
       </c>
       <c r="I32" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J32" s="3">
-        <v>6400</v>
+        <v>6800</v>
       </c>
       <c r="K32" s="3">
         <v>-300</v>
@@ -1972,25 +1972,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18000</v>
+        <v>19300</v>
       </c>
       <c r="E33" s="3">
-        <v>-17000</v>
+        <v>-18200</v>
       </c>
       <c r="F33" s="3">
-        <v>17900</v>
+        <v>19200</v>
       </c>
       <c r="G33" s="3">
-        <v>10100</v>
+        <v>10900</v>
       </c>
       <c r="H33" s="3">
-        <v>7800</v>
+        <v>8300</v>
       </c>
       <c r="I33" s="3">
-        <v>9100</v>
+        <v>9800</v>
       </c>
       <c r="J33" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K33" s="3">
         <v>6300</v>
@@ -2078,25 +2078,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18000</v>
+        <v>19300</v>
       </c>
       <c r="E35" s="3">
-        <v>-17000</v>
+        <v>-18200</v>
       </c>
       <c r="F35" s="3">
-        <v>17900</v>
+        <v>19200</v>
       </c>
       <c r="G35" s="3">
-        <v>10100</v>
+        <v>10900</v>
       </c>
       <c r="H35" s="3">
-        <v>7800</v>
+        <v>8300</v>
       </c>
       <c r="I35" s="3">
-        <v>9100</v>
+        <v>9800</v>
       </c>
       <c r="J35" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K35" s="3">
         <v>6300</v>
@@ -2231,25 +2231,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>107300</v>
+        <v>115100</v>
       </c>
       <c r="E41" s="3">
-        <v>97300</v>
+        <v>104300</v>
       </c>
       <c r="F41" s="3">
-        <v>103000</v>
+        <v>110500</v>
       </c>
       <c r="G41" s="3">
-        <v>86400</v>
+        <v>92700</v>
       </c>
       <c r="H41" s="3">
-        <v>73100</v>
+        <v>78400</v>
       </c>
       <c r="I41" s="3">
-        <v>62900</v>
+        <v>67400</v>
       </c>
       <c r="J41" s="3">
-        <v>51400</v>
+        <v>55200</v>
       </c>
       <c r="K41" s="3">
         <v>19500</v>
@@ -2284,10 +2284,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E42" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F42" s="3">
         <v>800</v>
@@ -2337,25 +2337,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100600</v>
+        <v>107800</v>
       </c>
       <c r="E43" s="3">
-        <v>96600</v>
+        <v>103600</v>
       </c>
       <c r="F43" s="3">
-        <v>84600</v>
+        <v>90700</v>
       </c>
       <c r="G43" s="3">
-        <v>82200</v>
+        <v>88100</v>
       </c>
       <c r="H43" s="3">
-        <v>78400</v>
+        <v>84100</v>
       </c>
       <c r="I43" s="3">
-        <v>79200</v>
+        <v>84900</v>
       </c>
       <c r="J43" s="3">
-        <v>75400</v>
+        <v>80800</v>
       </c>
       <c r="K43" s="3">
         <v>68600</v>
@@ -2496,25 +2496,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>208600</v>
+        <v>223700</v>
       </c>
       <c r="E46" s="3">
-        <v>194600</v>
+        <v>208700</v>
       </c>
       <c r="F46" s="3">
-        <v>188400</v>
+        <v>202000</v>
       </c>
       <c r="G46" s="3">
-        <v>168600</v>
+        <v>180800</v>
       </c>
       <c r="H46" s="3">
-        <v>151500</v>
+        <v>162500</v>
       </c>
       <c r="I46" s="3">
-        <v>142100</v>
+        <v>152400</v>
       </c>
       <c r="J46" s="3">
-        <v>126800</v>
+        <v>136000</v>
       </c>
       <c r="K46" s="3">
         <v>88000</v>
@@ -2549,13 +2549,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E47" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F47" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2602,25 +2602,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>75400</v>
+        <v>80900</v>
       </c>
       <c r="E48" s="3">
-        <v>75000</v>
+        <v>80400</v>
       </c>
       <c r="F48" s="3">
-        <v>59400</v>
+        <v>63700</v>
       </c>
       <c r="G48" s="3">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="H48" s="3">
-        <v>11500</v>
+        <v>12400</v>
       </c>
       <c r="I48" s="3">
-        <v>12300</v>
+        <v>13200</v>
       </c>
       <c r="J48" s="3">
-        <v>11400</v>
+        <v>12200</v>
       </c>
       <c r="K48" s="3">
         <v>11100</v>
@@ -2655,25 +2655,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>117900</v>
+        <v>126400</v>
       </c>
       <c r="E49" s="3">
-        <v>112000</v>
+        <v>120100</v>
       </c>
       <c r="F49" s="3">
-        <v>80400</v>
+        <v>86300</v>
       </c>
       <c r="G49" s="3">
-        <v>80900</v>
+        <v>86700</v>
       </c>
       <c r="H49" s="3">
-        <v>86200</v>
+        <v>92500</v>
       </c>
       <c r="I49" s="3">
-        <v>89600</v>
+        <v>96100</v>
       </c>
       <c r="J49" s="3">
-        <v>88500</v>
+        <v>94900</v>
       </c>
       <c r="K49" s="3">
         <v>92900</v>
@@ -2814,25 +2814,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11500</v>
+        <v>12300</v>
       </c>
       <c r="E52" s="3">
-        <v>14100</v>
+        <v>15100</v>
       </c>
       <c r="F52" s="3">
-        <v>12100</v>
+        <v>13000</v>
       </c>
       <c r="G52" s="3">
-        <v>11800</v>
+        <v>12600</v>
       </c>
       <c r="H52" s="3">
-        <v>5800</v>
+        <v>6200</v>
       </c>
       <c r="I52" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="J52" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="K52" s="3">
         <v>3200</v>
@@ -2920,25 +2920,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>414500</v>
+        <v>444500</v>
       </c>
       <c r="E54" s="3">
-        <v>396800</v>
+        <v>425500</v>
       </c>
       <c r="F54" s="3">
-        <v>341600</v>
+        <v>366300</v>
       </c>
       <c r="G54" s="3">
-        <v>274300</v>
+        <v>294100</v>
       </c>
       <c r="H54" s="3">
-        <v>255100</v>
+        <v>273600</v>
       </c>
       <c r="I54" s="3">
-        <v>247100</v>
+        <v>265000</v>
       </c>
       <c r="J54" s="3">
-        <v>229800</v>
+        <v>246400</v>
       </c>
       <c r="K54" s="3">
         <v>195200</v>
@@ -3015,25 +3015,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>77900</v>
+        <v>83500</v>
       </c>
       <c r="E57" s="3">
-        <v>89300</v>
+        <v>95800</v>
       </c>
       <c r="F57" s="3">
-        <v>59200</v>
+        <v>63500</v>
       </c>
       <c r="G57" s="3">
-        <v>56100</v>
+        <v>60100</v>
       </c>
       <c r="H57" s="3">
-        <v>54200</v>
+        <v>58100</v>
       </c>
       <c r="I57" s="3">
-        <v>51600</v>
+        <v>55300</v>
       </c>
       <c r="J57" s="3">
-        <v>50300</v>
+        <v>53900</v>
       </c>
       <c r="K57" s="3">
         <v>52000</v>
@@ -3068,13 +3068,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13300</v>
+        <v>14200</v>
       </c>
       <c r="E58" s="3">
-        <v>14100</v>
+        <v>15100</v>
       </c>
       <c r="F58" s="3">
-        <v>10500</v>
+        <v>11300</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -3121,25 +3121,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8900</v>
+        <v>9600</v>
       </c>
       <c r="E59" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="F59" s="3">
-        <v>7700</v>
+        <v>8300</v>
       </c>
       <c r="G59" s="3">
-        <v>10700</v>
+        <v>11400</v>
       </c>
       <c r="H59" s="3">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="I59" s="3">
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="J59" s="3">
-        <v>7000</v>
+        <v>7600</v>
       </c>
       <c r="K59" s="3">
         <v>14400</v>
@@ -3174,25 +3174,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100100</v>
+        <v>107300</v>
       </c>
       <c r="E60" s="3">
-        <v>108100</v>
+        <v>115900</v>
       </c>
       <c r="F60" s="3">
-        <v>77500</v>
+        <v>83100</v>
       </c>
       <c r="G60" s="3">
-        <v>66800</v>
+        <v>71600</v>
       </c>
       <c r="H60" s="3">
-        <v>60400</v>
+        <v>64800</v>
       </c>
       <c r="I60" s="3">
-        <v>60500</v>
+        <v>64900</v>
       </c>
       <c r="J60" s="3">
-        <v>57400</v>
+        <v>61500</v>
       </c>
       <c r="K60" s="3">
         <v>92000</v>
@@ -3227,13 +3227,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>49800</v>
+        <v>53400</v>
       </c>
       <c r="E61" s="3">
-        <v>48700</v>
+        <v>52200</v>
       </c>
       <c r="F61" s="3">
-        <v>36500</v>
+        <v>39100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3280,25 +3280,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8700</v>
+        <v>9300</v>
       </c>
       <c r="E62" s="3">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="F62" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="G62" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="H62" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="I62" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="J62" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="K62" s="3">
         <v>13400</v>
@@ -3492,25 +3492,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>158500</v>
+        <v>170000</v>
       </c>
       <c r="E66" s="3">
-        <v>162800</v>
+        <v>174600</v>
       </c>
       <c r="F66" s="3">
-        <v>116500</v>
+        <v>124900</v>
       </c>
       <c r="G66" s="3">
-        <v>69400</v>
+        <v>74400</v>
       </c>
       <c r="H66" s="3">
-        <v>63400</v>
+        <v>68000</v>
       </c>
       <c r="I66" s="3">
-        <v>64100</v>
+        <v>68700</v>
       </c>
       <c r="J66" s="3">
-        <v>61200</v>
+        <v>65600</v>
       </c>
       <c r="K66" s="3">
         <v>105400</v>
@@ -3778,25 +3778,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>230200</v>
+        <v>246900</v>
       </c>
       <c r="E72" s="3">
-        <v>209700</v>
+        <v>224900</v>
       </c>
       <c r="F72" s="3">
-        <v>204700</v>
+        <v>219600</v>
       </c>
       <c r="G72" s="3">
-        <v>184500</v>
+        <v>197900</v>
       </c>
       <c r="H72" s="3">
-        <v>172800</v>
+        <v>185400</v>
       </c>
       <c r="I72" s="3">
-        <v>124600</v>
+        <v>133700</v>
       </c>
       <c r="J72" s="3">
-        <v>110200</v>
+        <v>118200</v>
       </c>
       <c r="K72" s="3">
         <v>88000</v>
@@ -3990,25 +3990,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>256000</v>
+        <v>274500</v>
       </c>
       <c r="E76" s="3">
-        <v>234000</v>
+        <v>250900</v>
       </c>
       <c r="F76" s="3">
-        <v>225100</v>
+        <v>241400</v>
       </c>
       <c r="G76" s="3">
-        <v>204900</v>
+        <v>219700</v>
       </c>
       <c r="H76" s="3">
-        <v>191700</v>
+        <v>205600</v>
       </c>
       <c r="I76" s="3">
-        <v>183000</v>
+        <v>196300</v>
       </c>
       <c r="J76" s="3">
-        <v>168600</v>
+        <v>180800</v>
       </c>
       <c r="K76" s="3">
         <v>89800</v>
@@ -4154,25 +4154,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18000</v>
+        <v>19300</v>
       </c>
       <c r="E81" s="3">
-        <v>-17000</v>
+        <v>-18200</v>
       </c>
       <c r="F81" s="3">
-        <v>17900</v>
+        <v>19200</v>
       </c>
       <c r="G81" s="3">
-        <v>10100</v>
+        <v>10900</v>
       </c>
       <c r="H81" s="3">
-        <v>7800</v>
+        <v>8300</v>
       </c>
       <c r="I81" s="3">
-        <v>9100</v>
+        <v>9800</v>
       </c>
       <c r="J81" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K81" s="3">
         <v>6300</v>
@@ -4546,25 +4546,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E89" s="3">
         <v>14600</v>
       </c>
-      <c r="E89" s="3">
-        <v>13700</v>
-      </c>
       <c r="F89" s="3">
-        <v>19000</v>
+        <v>20400</v>
       </c>
       <c r="G89" s="3">
-        <v>13600</v>
+        <v>14600</v>
       </c>
       <c r="H89" s="3">
-        <v>15500</v>
+        <v>16700</v>
       </c>
       <c r="I89" s="3">
-        <v>11800</v>
+        <v>12700</v>
       </c>
       <c r="J89" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K89" s="3">
         <v>17600</v>
@@ -4620,25 +4620,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2800</v>
+        <v>-3000</v>
       </c>
       <c r="E91" s="3">
-        <v>-4100</v>
+        <v>-4400</v>
       </c>
       <c r="F91" s="3">
-        <v>-3100</v>
+        <v>-3300</v>
       </c>
       <c r="G91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2300</v>
       </c>
       <c r="K91" s="3">
         <v>-2300</v>
@@ -4779,25 +4779,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="E94" s="3">
-        <v>-31000</v>
+        <v>-33200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2600</v>
       </c>
-      <c r="H94" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2500</v>
-      </c>
       <c r="J94" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="K94" s="3">
         <v>-3500</v>
@@ -5065,13 +5065,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4400</v>
+        <v>-4800</v>
       </c>
       <c r="E100" s="3">
-        <v>15300</v>
+        <v>16400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5080,10 +5080,10 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J100" s="3">
-        <v>30500</v>
+        <v>32700</v>
       </c>
       <c r="K100" s="3">
         <v>-6900</v>
@@ -5118,16 +5118,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E101" s="3">
-        <v>-3700</v>
+        <v>-4000</v>
       </c>
       <c r="F101" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G101" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="H101" s="3">
         <v>-200</v>
@@ -5136,7 +5136,7 @@
         <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -5171,25 +5171,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10100</v>
+        <v>10800</v>
       </c>
       <c r="E102" s="3">
-        <v>-5700</v>
+        <v>-6100</v>
       </c>
       <c r="F102" s="3">
-        <v>16600</v>
+        <v>17800</v>
       </c>
       <c r="G102" s="3">
-        <v>13300</v>
+        <v>14300</v>
       </c>
       <c r="H102" s="3">
-        <v>10200</v>
+        <v>11000</v>
       </c>
       <c r="I102" s="3">
-        <v>11400</v>
+        <v>12300</v>
       </c>
       <c r="J102" s="3">
-        <v>32900</v>
+        <v>35300</v>
       </c>
       <c r="K102" s="3">
         <v>7200</v>

--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,242 +665,268 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>121800</v>
+        <v>126600</v>
       </c>
       <c r="E8" s="3">
-        <v>113500</v>
+        <v>120500</v>
       </c>
       <c r="F8" s="3">
-        <v>108800</v>
+        <v>122800</v>
       </c>
       <c r="G8" s="3">
-        <v>101200</v>
+        <v>114400</v>
       </c>
       <c r="H8" s="3">
-        <v>96500</v>
+        <v>109700</v>
       </c>
       <c r="I8" s="3">
+        <v>102000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>97300</v>
+      </c>
+      <c r="K8" s="3">
         <v>94800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>87700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>79500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>201800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>65200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>62000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>56100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>70300</v>
+        <v>82800</v>
       </c>
       <c r="E9" s="3">
-        <v>103300</v>
+        <v>84400</v>
       </c>
       <c r="F9" s="3">
-        <v>69600</v>
+        <v>75200</v>
       </c>
       <c r="G9" s="3">
-        <v>67000</v>
+        <v>104100</v>
       </c>
       <c r="H9" s="3">
-        <v>63500</v>
+        <v>70100</v>
       </c>
       <c r="I9" s="3">
+        <v>67500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K9" s="3">
         <v>61300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>58000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>51800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>136200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>44400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>42200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>38000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>51500</v>
+        <v>43800</v>
       </c>
       <c r="E10" s="3">
-        <v>10100</v>
+        <v>36100</v>
       </c>
       <c r="F10" s="3">
-        <v>39200</v>
+        <v>47600</v>
       </c>
       <c r="G10" s="3">
-        <v>34200</v>
+        <v>10200</v>
       </c>
       <c r="H10" s="3">
-        <v>33100</v>
+        <v>39600</v>
       </c>
       <c r="I10" s="3">
+        <v>34500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>33300</v>
+      </c>
+      <c r="K10" s="3">
         <v>33500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>29700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>27700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>65600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>20900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>19700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>18100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +946,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,8 +1001,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1060,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1038,84 +1078,90 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-2900</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2300</v>
-      </c>
-      <c r="E15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G15" s="3">
         <v>1900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>1800</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>1300</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1132,8 +1178,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,114 +1202,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>103100</v>
+        <v>111100</v>
       </c>
       <c r="E17" s="3">
-        <v>128600</v>
+        <v>111300</v>
       </c>
       <c r="F17" s="3">
-        <v>89600</v>
+        <v>104000</v>
       </c>
       <c r="G17" s="3">
-        <v>89700</v>
+        <v>129600</v>
       </c>
       <c r="H17" s="3">
-        <v>86700</v>
+        <v>90300</v>
       </c>
       <c r="I17" s="3">
+        <v>90500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>87400</v>
+      </c>
+      <c r="K17" s="3">
         <v>82900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>77400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>71200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>177300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>57200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>52900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>47800</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>18600</v>
+        <v>15500</v>
       </c>
       <c r="E18" s="3">
-        <v>-15100</v>
+        <v>9200</v>
       </c>
       <c r="F18" s="3">
-        <v>19300</v>
+        <v>18800</v>
       </c>
       <c r="G18" s="3">
-        <v>11400</v>
+        <v>-15300</v>
       </c>
       <c r="H18" s="3">
-        <v>9800</v>
+        <v>19400</v>
       </c>
       <c r="I18" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K18" s="3">
         <v>12000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>10300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>8400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>24500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>8000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>9000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>8200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,114 +1343,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5500</v>
+        <v>-3900</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-7700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F21" s="3">
         <v>24700</v>
       </c>
-      <c r="E21" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>28500</v>
-      </c>
       <c r="G21" s="3">
-        <v>13800</v>
+        <v>-22300</v>
       </c>
       <c r="H21" s="3">
-        <v>11500</v>
+        <v>28800</v>
       </c>
       <c r="I21" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K21" s="3">
         <v>12400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>11000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>29000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>7900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>9000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>8900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,105 +1516,117 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24200</v>
+        <v>11600</v>
       </c>
       <c r="E23" s="3">
-        <v>-22800</v>
+        <v>9000</v>
       </c>
       <c r="F23" s="3">
-        <v>23100</v>
+        <v>24400</v>
       </c>
       <c r="G23" s="3">
-        <v>13800</v>
+        <v>-23000</v>
       </c>
       <c r="H23" s="3">
-        <v>10000</v>
+        <v>23300</v>
       </c>
       <c r="I23" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K23" s="3">
         <v>12400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>8600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>23200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>7900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>8400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>7200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>900</v>
+      </c>
+      <c r="F24" s="3">
         <v>4900</v>
       </c>
-      <c r="E24" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H24" s="3">
         <v>3900</v>
       </c>
-      <c r="G24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>5000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1800</v>
       </c>
       <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1600</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1542,8 +1634,14 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,114 +1693,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>19400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="H26" s="3">
         <v>19300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>19200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>8300</v>
-      </c>
       <c r="I26" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K26" s="3">
         <v>9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>18200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>5600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>19400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="H27" s="3">
         <v>19300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>19200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>8300</v>
-      </c>
       <c r="I27" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K27" s="3">
         <v>9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>18200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>5600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1870,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1929,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1988,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,114 +2047,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5500</v>
+        <v>3900</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G32" s="3">
         <v>7700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>19400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="H33" s="3">
         <v>19300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>19200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>8300</v>
-      </c>
       <c r="I33" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K33" s="3">
         <v>9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>6300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>18200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>5600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,119 +2224,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>19400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="H35" s="3">
         <v>19300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>19200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>8300</v>
-      </c>
       <c r="I35" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K35" s="3">
         <v>9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>6300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>18200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>5600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2374,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,50 +2397,52 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>115100</v>
+        <v>93200</v>
       </c>
       <c r="E41" s="3">
-        <v>104300</v>
+        <v>134900</v>
       </c>
       <c r="F41" s="3">
-        <v>110500</v>
+        <v>116000</v>
       </c>
       <c r="G41" s="3">
-        <v>92700</v>
+        <v>105100</v>
       </c>
       <c r="H41" s="3">
-        <v>78400</v>
+        <v>111300</v>
       </c>
       <c r="I41" s="3">
+        <v>93400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K41" s="3">
         <v>67400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>55200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>19500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>32700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>21700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2452,14 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2292,11 +2472,11 @@
       <c r="F42" s="3">
         <v>800</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3">
+        <v>800</v>
+      </c>
+      <c r="H42" s="3">
+        <v>800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -2310,11 +2490,11 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2331,50 +2511,56 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>107800</v>
+        <v>127000</v>
       </c>
       <c r="E43" s="3">
-        <v>103600</v>
+        <v>113900</v>
       </c>
       <c r="F43" s="3">
-        <v>90700</v>
+        <v>108700</v>
       </c>
       <c r="G43" s="3">
-        <v>88100</v>
+        <v>104400</v>
       </c>
       <c r="H43" s="3">
-        <v>84100</v>
+        <v>91500</v>
       </c>
       <c r="I43" s="3">
+        <v>88800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K43" s="3">
         <v>84900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>80800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>68600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>64900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>64400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>59300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,25 +2570,31 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -2414,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2422,11 +2614,11 @@
       <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>100</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
@@ -2437,8 +2629,14 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2490,50 +2688,56 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>223700</v>
+        <v>221000</v>
       </c>
       <c r="E46" s="3">
-        <v>208700</v>
+        <v>249600</v>
       </c>
       <c r="F46" s="3">
-        <v>202000</v>
+        <v>225500</v>
       </c>
       <c r="G46" s="3">
-        <v>180800</v>
+        <v>210300</v>
       </c>
       <c r="H46" s="3">
-        <v>162500</v>
+        <v>203600</v>
       </c>
       <c r="I46" s="3">
+        <v>182200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>163800</v>
+      </c>
+      <c r="K46" s="3">
         <v>152400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>136000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>88000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>77200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>97100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>81100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,43 +2747,49 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>900</v>
+      </c>
+      <c r="F47" s="3">
         <v>1100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1400</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2596,50 +2806,56 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80900</v>
+        <v>81500</v>
       </c>
       <c r="E48" s="3">
-        <v>80400</v>
+        <v>85100</v>
       </c>
       <c r="F48" s="3">
-        <v>63700</v>
+        <v>81500</v>
       </c>
       <c r="G48" s="3">
-        <v>14000</v>
+        <v>81100</v>
       </c>
       <c r="H48" s="3">
-        <v>12400</v>
+        <v>64200</v>
       </c>
       <c r="I48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K48" s="3">
         <v>13200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>11100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>10800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>11400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>10400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,50 +2865,56 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>126400</v>
+        <v>188700</v>
       </c>
       <c r="E49" s="3">
-        <v>120100</v>
+        <v>127300</v>
       </c>
       <c r="F49" s="3">
-        <v>86300</v>
+        <v>127400</v>
       </c>
       <c r="G49" s="3">
-        <v>86700</v>
+        <v>121100</v>
       </c>
       <c r="H49" s="3">
-        <v>92500</v>
+        <v>87000</v>
       </c>
       <c r="I49" s="3">
+        <v>87400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K49" s="3">
         <v>96100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>94900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>92900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>89600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>93700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>41900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,8 +2924,14 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2983,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,50 +3042,56 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12300</v>
+        <v>21000</v>
       </c>
       <c r="E52" s="3">
-        <v>15100</v>
+        <v>17800</v>
       </c>
       <c r="F52" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="G52" s="3">
-        <v>12600</v>
+        <v>15200</v>
       </c>
       <c r="H52" s="3">
-        <v>6200</v>
+        <v>13100</v>
       </c>
       <c r="I52" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +3101,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,50 +3160,56 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>444500</v>
+        <v>513200</v>
       </c>
       <c r="E54" s="3">
-        <v>425500</v>
+        <v>480600</v>
       </c>
       <c r="F54" s="3">
-        <v>366300</v>
+        <v>448100</v>
       </c>
       <c r="G54" s="3">
-        <v>294100</v>
+        <v>428900</v>
       </c>
       <c r="H54" s="3">
-        <v>273600</v>
+        <v>369300</v>
       </c>
       <c r="I54" s="3">
+        <v>296500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>275800</v>
+      </c>
+      <c r="K54" s="3">
         <v>265000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>246400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>195200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>178800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>203400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>134500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3219,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3246,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,50 +3269,52 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>83500</v>
+        <v>88000</v>
       </c>
       <c r="E57" s="3">
-        <v>95800</v>
+        <v>78000</v>
       </c>
       <c r="F57" s="3">
-        <v>63500</v>
+        <v>84200</v>
       </c>
       <c r="G57" s="3">
-        <v>60100</v>
+        <v>96500</v>
       </c>
       <c r="H57" s="3">
-        <v>58100</v>
+        <v>64000</v>
       </c>
       <c r="I57" s="3">
+        <v>60600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K57" s="3">
         <v>55300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>53900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>52000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>42500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>37200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>32700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,50 +3324,56 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14200</v>
+        <v>14800</v>
       </c>
       <c r="E58" s="3">
-        <v>15100</v>
+        <v>14800</v>
       </c>
       <c r="F58" s="3">
-        <v>11300</v>
+        <v>14300</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>15200</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>11400</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>25500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>30500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>50800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>26800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,50 +3383,56 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="E59" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H59" s="3">
         <v>8300</v>
       </c>
-      <c r="G59" s="3">
-        <v>11400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>6600</v>
-      </c>
       <c r="I59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K59" s="3">
         <v>9500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>14400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>10900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>23300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,50 +3442,56 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>107300</v>
+        <v>113500</v>
       </c>
       <c r="E60" s="3">
-        <v>115900</v>
+        <v>101700</v>
       </c>
       <c r="F60" s="3">
-        <v>83100</v>
+        <v>108200</v>
       </c>
       <c r="G60" s="3">
-        <v>71600</v>
+        <v>116900</v>
       </c>
       <c r="H60" s="3">
-        <v>64800</v>
+        <v>83800</v>
       </c>
       <c r="I60" s="3">
+        <v>72200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>65300</v>
+      </c>
+      <c r="K60" s="3">
         <v>64900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>61500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>92000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>83900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>111300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>60000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,25 +3501,31 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>53400</v>
+        <v>54000</v>
       </c>
       <c r="E61" s="3">
-        <v>52200</v>
+        <v>56200</v>
       </c>
       <c r="F61" s="3">
-        <v>39100</v>
+        <v>53800</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>52700</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>39400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3254,17 +3540,17 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3274,50 +3560,56 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9300</v>
+        <v>14500</v>
       </c>
       <c r="E62" s="3">
-        <v>6400</v>
+        <v>8000</v>
       </c>
       <c r="F62" s="3">
-        <v>2700</v>
+        <v>9400</v>
       </c>
       <c r="G62" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
-        <v>3200</v>
-      </c>
       <c r="I62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K62" s="3">
         <v>3800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>13400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>14100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>14500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3619,14 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3678,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3737,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,50 +3796,56 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>170000</v>
+        <v>182000</v>
       </c>
       <c r="E66" s="3">
-        <v>174600</v>
+        <v>165900</v>
       </c>
       <c r="F66" s="3">
-        <v>124900</v>
+        <v>171300</v>
       </c>
       <c r="G66" s="3">
-        <v>74400</v>
+        <v>176000</v>
       </c>
       <c r="H66" s="3">
-        <v>68000</v>
+        <v>125900</v>
       </c>
       <c r="I66" s="3">
+        <v>75000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>68500</v>
+      </c>
+      <c r="K66" s="3">
         <v>68700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>65600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>105400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>98000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>125900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>63800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3855,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3882,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3937,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3996,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +4055,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,50 +4114,56 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>246900</v>
+        <v>330500</v>
       </c>
       <c r="E72" s="3">
-        <v>224900</v>
+        <v>314700</v>
       </c>
       <c r="F72" s="3">
-        <v>219600</v>
+        <v>248900</v>
       </c>
       <c r="G72" s="3">
-        <v>197900</v>
+        <v>226700</v>
       </c>
       <c r="H72" s="3">
-        <v>185400</v>
+        <v>221300</v>
       </c>
       <c r="I72" s="3">
+        <v>199500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>186900</v>
+      </c>
+      <c r="K72" s="3">
         <v>133700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>118200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>88000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>79000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>75700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>68800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +4173,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4232,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4291,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,50 +4350,56 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>274500</v>
+        <v>331200</v>
       </c>
       <c r="E76" s="3">
-        <v>250900</v>
+        <v>314600</v>
       </c>
       <c r="F76" s="3">
-        <v>241400</v>
+        <v>276700</v>
       </c>
       <c r="G76" s="3">
-        <v>219700</v>
+        <v>252900</v>
       </c>
       <c r="H76" s="3">
-        <v>205600</v>
+        <v>243400</v>
       </c>
       <c r="I76" s="3">
+        <v>221500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>207200</v>
+      </c>
+      <c r="K76" s="3">
         <v>196300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>180800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>89800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>80800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>77500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>70700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4409,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,119 +4468,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>19400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="H81" s="3">
         <v>19300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>19200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>8300</v>
-      </c>
       <c r="I81" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K81" s="3">
         <v>9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>6300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>18200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>5600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,61 +4618,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>2300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>5800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4732,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4791,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4850,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4909,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,61 +4968,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15600</v>
+        <v>28600</v>
       </c>
       <c r="E89" s="3">
-        <v>14600</v>
+        <v>2500</v>
       </c>
       <c r="F89" s="3">
-        <v>20400</v>
+        <v>15800</v>
       </c>
       <c r="G89" s="3">
-        <v>14600</v>
+        <v>14800</v>
       </c>
       <c r="H89" s="3">
-        <v>16700</v>
+        <v>20500</v>
       </c>
       <c r="I89" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K89" s="3">
         <v>12700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>17600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>26300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>11200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>5000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>14300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,61 +5054,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-4800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>4300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +5168,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,61 +5227,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-33200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-37600</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5313,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5368,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5427,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5486,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,163 +5545,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4800</v>
       </c>
-      <c r="E100" s="3">
-        <v>16400</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H100" s="3">
         <v>-2100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>32700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-6900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-7000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>23800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-11900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
         <v>2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>2500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2300</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="M101" s="3">
+        <v>100</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10800</v>
+        <v>-41700</v>
       </c>
       <c r="E102" s="3">
-        <v>-6100</v>
+        <v>18900</v>
       </c>
       <c r="F102" s="3">
-        <v>17800</v>
+        <v>10900</v>
       </c>
       <c r="G102" s="3">
-        <v>14300</v>
+        <v>-6200</v>
       </c>
       <c r="H102" s="3">
+        <v>17900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J102" s="3">
         <v>11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>12300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>35300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>7200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-18200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-9000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>12500</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,80 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -748,56 +748,59 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>130600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>124300</v>
+      </c>
+      <c r="G8" s="3">
         <v>126600</v>
       </c>
-      <c r="E8" s="3">
-        <v>120500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>122800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>114400</v>
-      </c>
       <c r="H8" s="3">
-        <v>109700</v>
+        <v>118000</v>
       </c>
       <c r="I8" s="3">
-        <v>102000</v>
+        <v>113200</v>
       </c>
       <c r="J8" s="3">
+        <v>105200</v>
+      </c>
+      <c r="K8" s="3">
         <v>97300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>94800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>87700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>79500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>201800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>65200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>62000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>56100</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,56 +810,59 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>82800</v>
+        <v>93600</v>
       </c>
       <c r="E9" s="3">
-        <v>84400</v>
+        <v>85400</v>
       </c>
       <c r="F9" s="3">
-        <v>75200</v>
+        <v>87100</v>
       </c>
       <c r="G9" s="3">
-        <v>104100</v>
+        <v>77600</v>
       </c>
       <c r="H9" s="3">
-        <v>70100</v>
+        <v>107400</v>
       </c>
       <c r="I9" s="3">
-        <v>67500</v>
+        <v>72300</v>
       </c>
       <c r="J9" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K9" s="3">
         <v>64000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>61300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>58000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>136200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>42200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>38000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
@@ -866,56 +872,59 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>43800</v>
+        <v>50800</v>
       </c>
       <c r="E10" s="3">
-        <v>36100</v>
+        <v>45200</v>
       </c>
       <c r="F10" s="3">
-        <v>47600</v>
+        <v>37200</v>
       </c>
       <c r="G10" s="3">
-        <v>10200</v>
+        <v>49100</v>
       </c>
       <c r="H10" s="3">
-        <v>39600</v>
+        <v>10500</v>
       </c>
       <c r="I10" s="3">
-        <v>34500</v>
+        <v>40800</v>
       </c>
       <c r="J10" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K10" s="3">
         <v>33300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>65600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +960,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1082,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1084,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-3000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1098,24 +1117,24 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,35 +1144,38 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="3">
         <v>2400</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2200</v>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>1300</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1163,8 +1185,8 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1184,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,56 +1229,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>111100</v>
+        <v>125200</v>
       </c>
       <c r="E17" s="3">
-        <v>111300</v>
+        <v>114600</v>
       </c>
       <c r="F17" s="3">
-        <v>104000</v>
+        <v>114800</v>
       </c>
       <c r="G17" s="3">
-        <v>129600</v>
+        <v>107200</v>
       </c>
       <c r="H17" s="3">
-        <v>90300</v>
+        <v>133700</v>
       </c>
       <c r="I17" s="3">
-        <v>90500</v>
+        <v>93100</v>
       </c>
       <c r="J17" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K17" s="3">
         <v>87400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>82900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>71200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>177300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>57200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>52900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>47800</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,56 +1289,59 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15500</v>
+        <v>19300</v>
       </c>
       <c r="E18" s="3">
-        <v>9200</v>
+        <v>16000</v>
       </c>
       <c r="F18" s="3">
-        <v>18800</v>
+        <v>9500</v>
       </c>
       <c r="G18" s="3">
-        <v>-15300</v>
+        <v>19400</v>
       </c>
       <c r="H18" s="3">
-        <v>19400</v>
+        <v>-15700</v>
       </c>
       <c r="I18" s="3">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="J18" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K18" s="3">
         <v>9900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,56 +1377,57 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3900</v>
+        <v>-4700</v>
       </c>
       <c r="E20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>5600</v>
-      </c>
       <c r="G20" s="3">
-        <v>-7700</v>
+        <v>5800</v>
       </c>
       <c r="H20" s="3">
-        <v>3800</v>
+        <v>-8000</v>
       </c>
       <c r="I20" s="3">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="J20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1404,56 +1437,59 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18700</v>
+        <v>15600</v>
       </c>
       <c r="E21" s="3">
-        <v>9300</v>
+        <v>19300</v>
       </c>
       <c r="F21" s="3">
-        <v>24700</v>
+        <v>9600</v>
       </c>
       <c r="G21" s="3">
-        <v>-22300</v>
+        <v>25500</v>
       </c>
       <c r="H21" s="3">
-        <v>28800</v>
+        <v>-23000</v>
       </c>
       <c r="I21" s="3">
-        <v>13900</v>
+        <v>29700</v>
       </c>
       <c r="J21" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K21" s="3">
         <v>11600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1463,8 +1499,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1522,56 +1561,59 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11600</v>
+        <v>14600</v>
       </c>
       <c r="E23" s="3">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F23" s="3">
-        <v>24400</v>
+        <v>9300</v>
       </c>
       <c r="G23" s="3">
-        <v>-23000</v>
+        <v>25100</v>
       </c>
       <c r="H23" s="3">
-        <v>23300</v>
+        <v>-23700</v>
       </c>
       <c r="I23" s="3">
-        <v>13900</v>
+        <v>24000</v>
       </c>
       <c r="J23" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K23" s="3">
         <v>10100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7200</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,56 +1623,59 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2700</v>
+        <v>3900</v>
       </c>
       <c r="E24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
-        <v>4900</v>
-      </c>
       <c r="G24" s="3">
-        <v>-4600</v>
+        <v>5100</v>
       </c>
       <c r="H24" s="3">
-        <v>3900</v>
+        <v>-4700</v>
       </c>
       <c r="I24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1685,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,56 +1747,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8900</v>
+        <v>10700</v>
       </c>
       <c r="E26" s="3">
-        <v>8100</v>
+        <v>9200</v>
       </c>
       <c r="F26" s="3">
-        <v>19400</v>
+        <v>8400</v>
       </c>
       <c r="G26" s="3">
-        <v>-18400</v>
+        <v>20100</v>
       </c>
       <c r="H26" s="3">
-        <v>19300</v>
+        <v>-19000</v>
       </c>
       <c r="I26" s="3">
-        <v>11000</v>
+        <v>19900</v>
       </c>
       <c r="J26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K26" s="3">
         <v>8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,56 +1809,59 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8900</v>
+        <v>10700</v>
       </c>
       <c r="E27" s="3">
-        <v>8100</v>
+        <v>9200</v>
       </c>
       <c r="F27" s="3">
-        <v>19400</v>
+        <v>8400</v>
       </c>
       <c r="G27" s="3">
-        <v>-18400</v>
+        <v>20100</v>
       </c>
       <c r="H27" s="3">
-        <v>19300</v>
+        <v>-19000</v>
       </c>
       <c r="I27" s="3">
-        <v>11000</v>
+        <v>19900</v>
       </c>
       <c r="J27" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K27" s="3">
         <v>8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,56 +2119,59 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3900</v>
+        <v>4700</v>
       </c>
       <c r="E32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-5600</v>
-      </c>
       <c r="G32" s="3">
-        <v>7700</v>
+        <v>-5800</v>
       </c>
       <c r="H32" s="3">
-        <v>-3800</v>
+        <v>8000</v>
       </c>
       <c r="I32" s="3">
-        <v>-2400</v>
+        <v>-4000</v>
       </c>
       <c r="J32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2112,56 +2181,59 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8900</v>
+        <v>10700</v>
       </c>
       <c r="E33" s="3">
-        <v>8100</v>
+        <v>9200</v>
       </c>
       <c r="F33" s="3">
-        <v>19400</v>
+        <v>8400</v>
       </c>
       <c r="G33" s="3">
-        <v>-18400</v>
+        <v>20100</v>
       </c>
       <c r="H33" s="3">
-        <v>19300</v>
+        <v>-19000</v>
       </c>
       <c r="I33" s="3">
-        <v>11000</v>
+        <v>19900</v>
       </c>
       <c r="J33" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K33" s="3">
         <v>8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5600</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,56 +2305,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8900</v>
+        <v>10700</v>
       </c>
       <c r="E35" s="3">
-        <v>8100</v>
+        <v>9200</v>
       </c>
       <c r="F35" s="3">
-        <v>19400</v>
+        <v>8400</v>
       </c>
       <c r="G35" s="3">
-        <v>-18400</v>
+        <v>20100</v>
       </c>
       <c r="H35" s="3">
-        <v>19300</v>
+        <v>-19000</v>
       </c>
       <c r="I35" s="3">
-        <v>11000</v>
+        <v>19900</v>
       </c>
       <c r="J35" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K35" s="3">
         <v>8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5600</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,61 +2367,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,53 +2484,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>93200</v>
+        <v>115700</v>
       </c>
       <c r="E41" s="3">
-        <v>134900</v>
+        <v>96200</v>
       </c>
       <c r="F41" s="3">
-        <v>116000</v>
+        <v>139100</v>
       </c>
       <c r="G41" s="3">
-        <v>105100</v>
+        <v>119700</v>
       </c>
       <c r="H41" s="3">
-        <v>111300</v>
+        <v>108400</v>
       </c>
       <c r="I41" s="3">
-        <v>93400</v>
+        <v>114800</v>
       </c>
       <c r="J41" s="3">
+        <v>96400</v>
+      </c>
+      <c r="K41" s="3">
         <v>79000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>55200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>32700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,8 +2544,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2478,8 +2567,8 @@
       <c r="H42" s="3">
         <v>800</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+      <c r="I42" s="3">
+        <v>800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -2496,8 +2585,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2517,53 +2606,56 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>127000</v>
+        <v>129300</v>
       </c>
       <c r="E43" s="3">
-        <v>113900</v>
+        <v>130900</v>
       </c>
       <c r="F43" s="3">
-        <v>108700</v>
+        <v>117500</v>
       </c>
       <c r="G43" s="3">
-        <v>104400</v>
+        <v>112100</v>
       </c>
       <c r="H43" s="3">
-        <v>91500</v>
+        <v>107700</v>
       </c>
       <c r="I43" s="3">
-        <v>88800</v>
+        <v>94300</v>
       </c>
       <c r="J43" s="3">
+        <v>91600</v>
+      </c>
+      <c r="K43" s="3">
         <v>84800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>84900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>80800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>68600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>64900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>64400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>59300</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2668,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2612,17 +2707,17 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2635,8 +2730,11 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2694,53 +2792,56 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>221000</v>
+        <v>245700</v>
       </c>
       <c r="E46" s="3">
-        <v>249600</v>
+        <v>227900</v>
       </c>
       <c r="F46" s="3">
-        <v>225500</v>
+        <v>257400</v>
       </c>
       <c r="G46" s="3">
-        <v>210300</v>
+        <v>232600</v>
       </c>
       <c r="H46" s="3">
-        <v>203600</v>
+        <v>216900</v>
       </c>
       <c r="I46" s="3">
-        <v>182200</v>
+        <v>210000</v>
       </c>
       <c r="J46" s="3">
+        <v>188000</v>
+      </c>
+      <c r="K46" s="3">
         <v>163800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>152400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>136000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>88000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>77200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>97100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>81100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,28 +2854,31 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F47" s="3">
         <v>900</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1100</v>
       </c>
       <c r="G47" s="3">
         <v>1200</v>
       </c>
       <c r="H47" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>1200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2785,14 +2889,14 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
@@ -2812,53 +2916,56 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>81500</v>
+        <v>80800</v>
       </c>
       <c r="E48" s="3">
-        <v>85100</v>
+        <v>84000</v>
       </c>
       <c r="F48" s="3">
-        <v>81500</v>
+        <v>87700</v>
       </c>
       <c r="G48" s="3">
-        <v>81100</v>
+        <v>84100</v>
       </c>
       <c r="H48" s="3">
-        <v>64200</v>
+        <v>83600</v>
       </c>
       <c r="I48" s="3">
-        <v>14100</v>
+        <v>66200</v>
       </c>
       <c r="J48" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K48" s="3">
         <v>12500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,53 +2978,56 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>188700</v>
+        <v>189100</v>
       </c>
       <c r="E49" s="3">
-        <v>127300</v>
+        <v>194600</v>
       </c>
       <c r="F49" s="3">
-        <v>127400</v>
+        <v>131300</v>
       </c>
       <c r="G49" s="3">
-        <v>121100</v>
+        <v>131400</v>
       </c>
       <c r="H49" s="3">
-        <v>87000</v>
+        <v>124900</v>
       </c>
       <c r="I49" s="3">
-        <v>87400</v>
+        <v>89700</v>
       </c>
       <c r="J49" s="3">
+        <v>90200</v>
+      </c>
+      <c r="K49" s="3">
         <v>93200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>96100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>94900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>92900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>89600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>93700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>41900</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3040,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,53 +3164,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21000</v>
+        <v>18600</v>
       </c>
       <c r="E52" s="3">
-        <v>17800</v>
+        <v>21700</v>
       </c>
       <c r="F52" s="3">
-        <v>12400</v>
+        <v>18300</v>
       </c>
       <c r="G52" s="3">
-        <v>15200</v>
+        <v>12800</v>
       </c>
       <c r="H52" s="3">
+        <v>15700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J52" s="3">
         <v>13100</v>
       </c>
-      <c r="I52" s="3">
-        <v>12700</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3300</v>
       </c>
       <c r="L52" s="3">
         <v>3300</v>
       </c>
       <c r="M52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N52" s="3">
         <v>3200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1200</v>
       </c>
       <c r="O52" s="3">
         <v>1200</v>
       </c>
       <c r="P52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3226,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,53 +3288,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>513200</v>
+        <v>535100</v>
       </c>
       <c r="E54" s="3">
-        <v>480600</v>
+        <v>529300</v>
       </c>
       <c r="F54" s="3">
-        <v>448100</v>
+        <v>495600</v>
       </c>
       <c r="G54" s="3">
-        <v>428900</v>
+        <v>462100</v>
       </c>
       <c r="H54" s="3">
-        <v>369300</v>
+        <v>442400</v>
       </c>
       <c r="I54" s="3">
-        <v>296500</v>
+        <v>380900</v>
       </c>
       <c r="J54" s="3">
+        <v>305800</v>
+      </c>
+      <c r="K54" s="3">
         <v>275800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>265000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>246400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>195200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>178800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>203400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>134500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,53 +3400,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>88000</v>
+        <v>86700</v>
       </c>
       <c r="E57" s="3">
-        <v>78000</v>
+        <v>90700</v>
       </c>
       <c r="F57" s="3">
-        <v>84200</v>
+        <v>80500</v>
       </c>
       <c r="G57" s="3">
-        <v>96500</v>
+        <v>86800</v>
       </c>
       <c r="H57" s="3">
-        <v>64000</v>
+        <v>99600</v>
       </c>
       <c r="I57" s="3">
-        <v>60600</v>
+        <v>66000</v>
       </c>
       <c r="J57" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K57" s="3">
         <v>58600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>52000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>42500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,53 +3460,56 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>15300</v>
+      </c>
+      <c r="G58" s="3">
         <v>14800</v>
       </c>
-      <c r="E58" s="3">
-        <v>14800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>15200</v>
-      </c>
       <c r="H58" s="3">
-        <v>11400</v>
+        <v>15700</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>11800</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>25500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>30500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>50800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3389,53 +3522,56 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10700</v>
+        <v>7900</v>
       </c>
       <c r="E59" s="3">
-        <v>8900</v>
+        <v>11100</v>
       </c>
       <c r="F59" s="3">
-        <v>9600</v>
+        <v>9100</v>
       </c>
       <c r="G59" s="3">
-        <v>5100</v>
+        <v>9900</v>
       </c>
       <c r="H59" s="3">
-        <v>8300</v>
+        <v>5200</v>
       </c>
       <c r="I59" s="3">
-        <v>11500</v>
+        <v>8600</v>
       </c>
       <c r="J59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K59" s="3">
         <v>6700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,53 +3584,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>113500</v>
+        <v>111200</v>
       </c>
       <c r="E60" s="3">
-        <v>101700</v>
+        <v>117100</v>
       </c>
       <c r="F60" s="3">
-        <v>108200</v>
+        <v>104900</v>
       </c>
       <c r="G60" s="3">
-        <v>116900</v>
+        <v>111600</v>
       </c>
       <c r="H60" s="3">
-        <v>83800</v>
+        <v>120500</v>
       </c>
       <c r="I60" s="3">
-        <v>72200</v>
+        <v>86400</v>
       </c>
       <c r="J60" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K60" s="3">
         <v>65300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>61500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>92000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>83900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>111300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>60000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,28 +3646,31 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>54000</v>
+        <v>53700</v>
       </c>
       <c r="E61" s="3">
-        <v>56200</v>
+        <v>55700</v>
       </c>
       <c r="F61" s="3">
-        <v>53800</v>
+        <v>58000</v>
       </c>
       <c r="G61" s="3">
-        <v>52700</v>
+        <v>55500</v>
       </c>
       <c r="H61" s="3">
-        <v>39400</v>
+        <v>54300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>40700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3546,13 +3688,13 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3566,53 +3708,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L62" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N62" s="3">
+        <v>13400</v>
+      </c>
+      <c r="O62" s="3">
+        <v>14100</v>
+      </c>
+      <c r="P62" s="3">
         <v>14500</v>
       </c>
-      <c r="E62" s="3">
-        <v>8000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>9400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="Q62" s="3">
         <v>3800</v>
       </c>
-      <c r="L62" s="3">
-        <v>4100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>13400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>14100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>14500</v>
-      </c>
-      <c r="P62" s="3">
-        <v>3800</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3770,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,53 +3956,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>182000</v>
+        <v>179600</v>
       </c>
       <c r="E66" s="3">
-        <v>165900</v>
+        <v>187700</v>
       </c>
       <c r="F66" s="3">
-        <v>171300</v>
+        <v>171100</v>
       </c>
       <c r="G66" s="3">
-        <v>176000</v>
+        <v>176700</v>
       </c>
       <c r="H66" s="3">
+        <v>181500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>129900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K66" s="3">
+        <v>68500</v>
+      </c>
+      <c r="L66" s="3">
+        <v>68700</v>
+      </c>
+      <c r="M66" s="3">
+        <v>65600</v>
+      </c>
+      <c r="N66" s="3">
+        <v>105400</v>
+      </c>
+      <c r="O66" s="3">
+        <v>98000</v>
+      </c>
+      <c r="P66" s="3">
         <v>125900</v>
       </c>
-      <c r="I66" s="3">
-        <v>75000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>68500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>68700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>65600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>105400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>98000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>125900</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>63800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,53 +4290,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>330500</v>
+        <v>353900</v>
       </c>
       <c r="E72" s="3">
-        <v>314700</v>
+        <v>340900</v>
       </c>
       <c r="F72" s="3">
-        <v>248900</v>
+        <v>324600</v>
       </c>
       <c r="G72" s="3">
-        <v>226700</v>
+        <v>256700</v>
       </c>
       <c r="H72" s="3">
-        <v>221300</v>
+        <v>233800</v>
       </c>
       <c r="I72" s="3">
-        <v>199500</v>
+        <v>228300</v>
       </c>
       <c r="J72" s="3">
+        <v>205700</v>
+      </c>
+      <c r="K72" s="3">
         <v>186900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>133700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>118200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>88000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>79000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>75700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>68800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,53 +4538,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>331200</v>
+        <v>355400</v>
       </c>
       <c r="E76" s="3">
-        <v>314600</v>
+        <v>341600</v>
       </c>
       <c r="F76" s="3">
-        <v>276700</v>
+        <v>324500</v>
       </c>
       <c r="G76" s="3">
-        <v>252900</v>
+        <v>285400</v>
       </c>
       <c r="H76" s="3">
-        <v>243400</v>
+        <v>260900</v>
       </c>
       <c r="I76" s="3">
-        <v>221500</v>
+        <v>251000</v>
       </c>
       <c r="J76" s="3">
+        <v>228400</v>
+      </c>
+      <c r="K76" s="3">
         <v>207200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>196300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>180800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>89800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>80800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>77500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>70700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,61 +4662,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4538,56 +4729,59 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8900</v>
+        <v>10700</v>
       </c>
       <c r="E81" s="3">
-        <v>8100</v>
+        <v>9200</v>
       </c>
       <c r="F81" s="3">
-        <v>19400</v>
+        <v>8400</v>
       </c>
       <c r="G81" s="3">
-        <v>-18400</v>
+        <v>20100</v>
       </c>
       <c r="H81" s="3">
-        <v>19300</v>
+        <v>-19000</v>
       </c>
       <c r="I81" s="3">
-        <v>11000</v>
+        <v>19900</v>
       </c>
       <c r="J81" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K81" s="3">
         <v>8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5600</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4597,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,8 +4817,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4646,30 +4844,30 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>2300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>1700</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4679,8 +4877,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,56 +5187,59 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28600</v>
+        <v>28000</v>
       </c>
       <c r="E89" s="3">
-        <v>2500</v>
+        <v>29500</v>
       </c>
       <c r="F89" s="3">
-        <v>15800</v>
+        <v>2600</v>
       </c>
       <c r="G89" s="3">
-        <v>14800</v>
+        <v>16300</v>
       </c>
       <c r="H89" s="3">
-        <v>20500</v>
+        <v>15200</v>
       </c>
       <c r="I89" s="3">
-        <v>14700</v>
+        <v>21200</v>
       </c>
       <c r="J89" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K89" s="3">
         <v>16800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>17600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5033,8 +5249,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,56 +5275,57 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
-        <v>-2400</v>
-      </c>
       <c r="F91" s="3">
-        <v>-3000</v>
+        <v>-2500</v>
       </c>
       <c r="G91" s="3">
-        <v>-4400</v>
+        <v>-3100</v>
       </c>
       <c r="H91" s="3">
-        <v>-3300</v>
+        <v>-4600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3000</v>
+        <v>-3400</v>
       </c>
       <c r="J91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>4300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5115,8 +5335,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,56 +5459,59 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-66200</v>
+        <v>-4100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2300</v>
+        <v>-68300</v>
       </c>
       <c r="F94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-33500</v>
-      </c>
       <c r="H94" s="3">
-        <v>-1600</v>
+        <v>-34500</v>
       </c>
       <c r="I94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-37600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5292,8 +5521,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,56 +5793,59 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3600</v>
+        <v>-4100</v>
       </c>
       <c r="E100" s="3">
-        <v>18200</v>
+        <v>-3700</v>
       </c>
       <c r="F100" s="3">
-        <v>-4800</v>
+        <v>18800</v>
       </c>
       <c r="G100" s="3">
-        <v>16500</v>
+        <v>-5000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2100</v>
+        <v>17100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>32700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>23800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5610,8 +5855,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5619,46 +5867,46 @@
         <v>-400</v>
       </c>
       <c r="E101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
-        <v>2100</v>
-      </c>
       <c r="G101" s="3">
-        <v>-4000</v>
+        <v>2200</v>
       </c>
       <c r="H101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
-        <v>2500</v>
-      </c>
       <c r="J101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-100</v>
       </c>
       <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3">
+        <v>-100</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
@@ -5669,56 +5917,59 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-41700</v>
+        <v>19500</v>
       </c>
       <c r="E102" s="3">
-        <v>18900</v>
+        <v>-43000</v>
       </c>
       <c r="F102" s="3">
-        <v>10900</v>
+        <v>19500</v>
       </c>
       <c r="G102" s="3">
-        <v>-6200</v>
+        <v>11200</v>
       </c>
       <c r="H102" s="3">
-        <v>17900</v>
+        <v>-6400</v>
       </c>
       <c r="I102" s="3">
-        <v>14400</v>
+        <v>18500</v>
       </c>
       <c r="J102" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K102" s="3">
         <v>11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12500</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5726,6 +5977,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,84 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,59 +752,62 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>144500</v>
+        <v>158900</v>
       </c>
       <c r="E8" s="3">
-        <v>130600</v>
+        <v>148900</v>
       </c>
       <c r="F8" s="3">
-        <v>124300</v>
+        <v>134600</v>
       </c>
       <c r="G8" s="3">
-        <v>126600</v>
+        <v>128100</v>
       </c>
       <c r="H8" s="3">
-        <v>118000</v>
+        <v>130500</v>
       </c>
       <c r="I8" s="3">
-        <v>113200</v>
+        <v>121600</v>
       </c>
       <c r="J8" s="3">
+        <v>116600</v>
+      </c>
+      <c r="K8" s="3">
         <v>105200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>97300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>94800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>87700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>79500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>201800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>65200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>62000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>56100</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
@@ -813,59 +817,62 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>93600</v>
+        <v>104400</v>
       </c>
       <c r="E9" s="3">
-        <v>85400</v>
+        <v>96500</v>
       </c>
       <c r="F9" s="3">
-        <v>87100</v>
+        <v>88000</v>
       </c>
       <c r="G9" s="3">
-        <v>77600</v>
+        <v>89700</v>
       </c>
       <c r="H9" s="3">
-        <v>107400</v>
+        <v>79900</v>
       </c>
       <c r="I9" s="3">
-        <v>72300</v>
+        <v>110700</v>
       </c>
       <c r="J9" s="3">
+        <v>74600</v>
+      </c>
+      <c r="K9" s="3">
         <v>69600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>64000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>61300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>58000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>51800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>136200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>44400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>42200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>38000</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,59 +882,62 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>50800</v>
+        <v>54500</v>
       </c>
       <c r="E10" s="3">
-        <v>45200</v>
+        <v>52400</v>
       </c>
       <c r="F10" s="3">
-        <v>37200</v>
+        <v>46500</v>
       </c>
       <c r="G10" s="3">
-        <v>49100</v>
+        <v>38300</v>
       </c>
       <c r="H10" s="3">
-        <v>10500</v>
+        <v>50500</v>
       </c>
       <c r="I10" s="3">
-        <v>40800</v>
+        <v>10900</v>
       </c>
       <c r="J10" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K10" s="3">
         <v>35600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>27700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>65600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,8 +974,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1102,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1106,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-3100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1120,24 +1140,24 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
         <v>500</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,38 +1167,41 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E15" s="3">
         <v>2500</v>
       </c>
-      <c r="E15" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>2300</v>
       </c>
-      <c r="H15" s="3">
-        <v>2000</v>
-      </c>
       <c r="I15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J15" s="3">
         <v>1900</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>1300</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1188,8 +1211,8 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,59 +1256,60 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>125200</v>
+        <v>133400</v>
       </c>
       <c r="E17" s="3">
-        <v>114600</v>
+        <v>129000</v>
       </c>
       <c r="F17" s="3">
-        <v>114800</v>
+        <v>118100</v>
       </c>
       <c r="G17" s="3">
-        <v>107200</v>
+        <v>118300</v>
       </c>
       <c r="H17" s="3">
-        <v>133700</v>
+        <v>110500</v>
       </c>
       <c r="I17" s="3">
-        <v>93100</v>
+        <v>137800</v>
       </c>
       <c r="J17" s="3">
+        <v>96000</v>
+      </c>
+      <c r="K17" s="3">
         <v>93300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>87400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>82900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>77400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>71200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>177300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>57200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>52900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>47800</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,59 +1319,62 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>19300</v>
+        <v>25500</v>
       </c>
       <c r="E18" s="3">
-        <v>16000</v>
+        <v>19800</v>
       </c>
       <c r="F18" s="3">
-        <v>9500</v>
+        <v>16500</v>
       </c>
       <c r="G18" s="3">
-        <v>19400</v>
+        <v>9800</v>
       </c>
       <c r="H18" s="3">
-        <v>-15700</v>
+        <v>20000</v>
       </c>
       <c r="I18" s="3">
-        <v>20000</v>
+        <v>-16200</v>
       </c>
       <c r="J18" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K18" s="3">
         <v>11900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,59 +1411,60 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4700</v>
+        <v>-2200</v>
       </c>
       <c r="E20" s="3">
-        <v>-4000</v>
+        <v>-4800</v>
       </c>
       <c r="F20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>5800</v>
-      </c>
       <c r="H20" s="3">
-        <v>-8000</v>
+        <v>5900</v>
       </c>
       <c r="I20" s="3">
-        <v>4000</v>
+        <v>-8200</v>
       </c>
       <c r="J20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1440,59 +1474,62 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15600</v>
+        <v>21900</v>
       </c>
       <c r="E21" s="3">
-        <v>19300</v>
+        <v>16100</v>
       </c>
       <c r="F21" s="3">
-        <v>9600</v>
+        <v>19900</v>
       </c>
       <c r="G21" s="3">
-        <v>25500</v>
+        <v>9900</v>
       </c>
       <c r="H21" s="3">
-        <v>-23000</v>
+        <v>26300</v>
       </c>
       <c r="I21" s="3">
-        <v>29700</v>
+        <v>-23700</v>
       </c>
       <c r="J21" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K21" s="3">
         <v>14400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>29000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,8 +1539,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1564,59 +1604,62 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14600</v>
+        <v>23300</v>
       </c>
       <c r="E23" s="3">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F23" s="3">
-        <v>9300</v>
+        <v>12300</v>
       </c>
       <c r="G23" s="3">
-        <v>25100</v>
+        <v>9600</v>
       </c>
       <c r="H23" s="3">
-        <v>-23700</v>
+        <v>25900</v>
       </c>
       <c r="I23" s="3">
-        <v>24000</v>
+        <v>-24400</v>
       </c>
       <c r="J23" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K23" s="3">
         <v>14300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7200</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1626,59 +1669,62 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3900</v>
+        <v>5000</v>
       </c>
       <c r="E24" s="3">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="F24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
-        <v>5100</v>
-      </c>
       <c r="H24" s="3">
-        <v>-4700</v>
+        <v>5200</v>
       </c>
       <c r="I24" s="3">
-        <v>4100</v>
+        <v>-4900</v>
       </c>
       <c r="J24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1600</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,59 +1799,62 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10700</v>
+        <v>18400</v>
       </c>
       <c r="E26" s="3">
-        <v>9200</v>
+        <v>11000</v>
       </c>
       <c r="F26" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>20700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="L26" s="3">
         <v>8400</v>
       </c>
-      <c r="G26" s="3">
-        <v>20100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>19900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>11300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>8400</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,59 +1864,62 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10700</v>
+        <v>18400</v>
       </c>
       <c r="E27" s="3">
-        <v>9200</v>
+        <v>11000</v>
       </c>
       <c r="F27" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>20700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K27" s="3">
+        <v>11300</v>
+      </c>
+      <c r="L27" s="3">
         <v>8400</v>
       </c>
-      <c r="G27" s="3">
-        <v>20100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>19900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>11300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>8400</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5600</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,59 +2189,62 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4700</v>
+        <v>2200</v>
       </c>
       <c r="E32" s="3">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="F32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-5800</v>
-      </c>
       <c r="H32" s="3">
-        <v>8000</v>
+        <v>-5900</v>
       </c>
       <c r="I32" s="3">
-        <v>-4000</v>
+        <v>8200</v>
       </c>
       <c r="J32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,59 +2254,62 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10700</v>
+        <v>18400</v>
       </c>
       <c r="E33" s="3">
-        <v>9200</v>
+        <v>11000</v>
       </c>
       <c r="F33" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>20700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K33" s="3">
+        <v>11300</v>
+      </c>
+      <c r="L33" s="3">
         <v>8400</v>
       </c>
-      <c r="G33" s="3">
-        <v>20100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>19900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>11300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>8400</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5600</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,59 +2384,62 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10700</v>
+        <v>18400</v>
       </c>
       <c r="E35" s="3">
-        <v>9200</v>
+        <v>11000</v>
       </c>
       <c r="F35" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>20700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K35" s="3">
+        <v>11300</v>
+      </c>
+      <c r="L35" s="3">
         <v>8400</v>
       </c>
-      <c r="G35" s="3">
-        <v>20100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>19900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>11300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>8400</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5600</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,64 +2449,67 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,56 +2571,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>115700</v>
+        <v>111600</v>
       </c>
       <c r="E41" s="3">
-        <v>96200</v>
+        <v>119200</v>
       </c>
       <c r="F41" s="3">
-        <v>139100</v>
+        <v>99100</v>
       </c>
       <c r="G41" s="3">
-        <v>119700</v>
+        <v>143400</v>
       </c>
       <c r="H41" s="3">
-        <v>108400</v>
+        <v>123300</v>
       </c>
       <c r="I41" s="3">
-        <v>114800</v>
+        <v>111800</v>
       </c>
       <c r="J41" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K41" s="3">
         <v>96400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>79000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>32700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,8 +2634,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2570,8 +2660,8 @@
       <c r="I42" s="3">
         <v>800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="J42" s="3">
+        <v>900</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2678,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2609,56 +2699,59 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>129300</v>
+        <v>156500</v>
       </c>
       <c r="E43" s="3">
-        <v>130900</v>
+        <v>133200</v>
       </c>
       <c r="F43" s="3">
-        <v>117500</v>
+        <v>134900</v>
       </c>
       <c r="G43" s="3">
-        <v>112100</v>
+        <v>121000</v>
       </c>
       <c r="H43" s="3">
-        <v>107700</v>
+        <v>115500</v>
       </c>
       <c r="I43" s="3">
-        <v>94300</v>
+        <v>111000</v>
       </c>
       <c r="J43" s="3">
+        <v>97200</v>
+      </c>
+      <c r="K43" s="3">
         <v>91600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>84800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>84900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>80800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>68600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>64900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>64400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>59300</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2671,8 +2764,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2710,17 +2806,17 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
       <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
         <v>100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2829,11 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2795,56 +2894,59 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>245700</v>
+        <v>268800</v>
       </c>
       <c r="E46" s="3">
-        <v>227900</v>
+        <v>253200</v>
       </c>
       <c r="F46" s="3">
-        <v>257400</v>
+        <v>234900</v>
       </c>
       <c r="G46" s="3">
-        <v>232600</v>
+        <v>265300</v>
       </c>
       <c r="H46" s="3">
-        <v>216900</v>
+        <v>239700</v>
       </c>
       <c r="I46" s="3">
-        <v>210000</v>
+        <v>223600</v>
       </c>
       <c r="J46" s="3">
+        <v>216400</v>
+      </c>
+      <c r="K46" s="3">
         <v>188000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>163800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>152400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>136000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>88000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>77200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>97100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>81100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,32 +2959,35 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>700</v>
+      </c>
+      <c r="E47" s="3">
         <v>900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1200</v>
       </c>
       <c r="H47" s="3">
         <v>1200</v>
       </c>
       <c r="I47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J47" s="3">
         <v>1500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2892,14 +2997,14 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
@@ -2919,56 +3024,59 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80800</v>
+        <v>75700</v>
       </c>
       <c r="E48" s="3">
-        <v>84000</v>
+        <v>83200</v>
       </c>
       <c r="F48" s="3">
-        <v>87700</v>
+        <v>86600</v>
       </c>
       <c r="G48" s="3">
-        <v>84100</v>
+        <v>90400</v>
       </c>
       <c r="H48" s="3">
-        <v>83600</v>
+        <v>86700</v>
       </c>
       <c r="I48" s="3">
-        <v>66200</v>
+        <v>86200</v>
       </c>
       <c r="J48" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K48" s="3">
         <v>14500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,56 +3089,59 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>189100</v>
+        <v>215600</v>
       </c>
       <c r="E49" s="3">
-        <v>194600</v>
+        <v>194900</v>
       </c>
       <c r="F49" s="3">
-        <v>131300</v>
+        <v>200600</v>
       </c>
       <c r="G49" s="3">
-        <v>131400</v>
+        <v>135300</v>
       </c>
       <c r="H49" s="3">
-        <v>124900</v>
+        <v>135500</v>
       </c>
       <c r="I49" s="3">
-        <v>89700</v>
+        <v>128700</v>
       </c>
       <c r="J49" s="3">
+        <v>92400</v>
+      </c>
+      <c r="K49" s="3">
         <v>90200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>93200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>96100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>94900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>92900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>89600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>93700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>41900</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,56 +3284,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="E52" s="3">
-        <v>21700</v>
+        <v>19200</v>
       </c>
       <c r="F52" s="3">
-        <v>18300</v>
+        <v>22400</v>
       </c>
       <c r="G52" s="3">
-        <v>12800</v>
+        <v>18900</v>
       </c>
       <c r="H52" s="3">
-        <v>15700</v>
+        <v>13200</v>
       </c>
       <c r="I52" s="3">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="J52" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K52" s="3">
         <v>13100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3300</v>
       </c>
       <c r="M52" s="3">
         <v>3300</v>
       </c>
       <c r="N52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O52" s="3">
         <v>3200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1200</v>
       </c>
       <c r="P52" s="3">
         <v>1200</v>
       </c>
       <c r="Q52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R52" s="3">
         <v>1100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,56 +3414,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>535100</v>
+        <v>579300</v>
       </c>
       <c r="E54" s="3">
-        <v>529300</v>
+        <v>551400</v>
       </c>
       <c r="F54" s="3">
-        <v>495600</v>
+        <v>545500</v>
       </c>
       <c r="G54" s="3">
-        <v>462100</v>
+        <v>510800</v>
       </c>
       <c r="H54" s="3">
-        <v>442400</v>
+        <v>476300</v>
       </c>
       <c r="I54" s="3">
-        <v>380900</v>
+        <v>455900</v>
       </c>
       <c r="J54" s="3">
+        <v>392500</v>
+      </c>
+      <c r="K54" s="3">
         <v>305800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>275800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>265000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>246400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>195200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>178800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>203400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>134500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,56 +3531,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>86700</v>
+        <v>92500</v>
       </c>
       <c r="E57" s="3">
-        <v>90700</v>
+        <v>89300</v>
       </c>
       <c r="F57" s="3">
-        <v>80500</v>
+        <v>93500</v>
       </c>
       <c r="G57" s="3">
-        <v>86800</v>
+        <v>82900</v>
       </c>
       <c r="H57" s="3">
-        <v>99600</v>
+        <v>89500</v>
       </c>
       <c r="I57" s="3">
-        <v>66000</v>
+        <v>102600</v>
       </c>
       <c r="J57" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K57" s="3">
         <v>62500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>58600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>53900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>52000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>42500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>37200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32700</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3463,56 +3594,59 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16700</v>
+        <v>17200</v>
       </c>
       <c r="E58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>15700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>15800</v>
+      </c>
+      <c r="H58" s="3">
         <v>15200</v>
       </c>
-      <c r="F58" s="3">
-        <v>15300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>14800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>15700</v>
-      </c>
       <c r="I58" s="3">
-        <v>11800</v>
+        <v>16200</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>25500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>30500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>50800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3525,56 +3659,59 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7900</v>
+        <v>10300</v>
       </c>
       <c r="E59" s="3">
-        <v>11100</v>
+        <v>8100</v>
       </c>
       <c r="F59" s="3">
-        <v>9100</v>
+        <v>11400</v>
       </c>
       <c r="G59" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="H59" s="3">
-        <v>5200</v>
+        <v>10300</v>
       </c>
       <c r="I59" s="3">
-        <v>8600</v>
+        <v>5400</v>
       </c>
       <c r="J59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K59" s="3">
         <v>11900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3587,56 +3724,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>111200</v>
+        <v>120100</v>
       </c>
       <c r="E60" s="3">
-        <v>117100</v>
+        <v>114600</v>
       </c>
       <c r="F60" s="3">
-        <v>104900</v>
+        <v>120600</v>
       </c>
       <c r="G60" s="3">
-        <v>111600</v>
+        <v>108100</v>
       </c>
       <c r="H60" s="3">
-        <v>120500</v>
+        <v>115000</v>
       </c>
       <c r="I60" s="3">
-        <v>86400</v>
+        <v>124200</v>
       </c>
       <c r="J60" s="3">
+        <v>89000</v>
+      </c>
+      <c r="K60" s="3">
         <v>74400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>65300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>61500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>92000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>83900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>111300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>60000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,31 +3789,34 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>53700</v>
+        <v>48900</v>
       </c>
       <c r="E61" s="3">
-        <v>55700</v>
+        <v>55400</v>
       </c>
       <c r="F61" s="3">
-        <v>58000</v>
+        <v>57400</v>
       </c>
       <c r="G61" s="3">
-        <v>55500</v>
+        <v>59800</v>
       </c>
       <c r="H61" s="3">
-        <v>54300</v>
+        <v>57200</v>
       </c>
       <c r="I61" s="3">
-        <v>40700</v>
+        <v>56000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>41900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3691,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -3711,56 +3854,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14600</v>
+        <v>20700</v>
       </c>
       <c r="E62" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="F62" s="3">
-        <v>8200</v>
+        <v>15400</v>
       </c>
       <c r="G62" s="3">
-        <v>9700</v>
+        <v>8500</v>
       </c>
       <c r="H62" s="3">
-        <v>6700</v>
+        <v>10000</v>
       </c>
       <c r="I62" s="3">
-        <v>2800</v>
+        <v>6900</v>
       </c>
       <c r="J62" s="3">
         <v>2900</v>
       </c>
       <c r="K62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L62" s="3">
         <v>3300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,56 +4114,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>179600</v>
+        <v>189600</v>
       </c>
       <c r="E66" s="3">
-        <v>187700</v>
+        <v>185100</v>
       </c>
       <c r="F66" s="3">
-        <v>171100</v>
+        <v>193500</v>
       </c>
       <c r="G66" s="3">
-        <v>176700</v>
+        <v>176300</v>
       </c>
       <c r="H66" s="3">
-        <v>181500</v>
+        <v>182100</v>
       </c>
       <c r="I66" s="3">
-        <v>129900</v>
+        <v>187000</v>
       </c>
       <c r="J66" s="3">
+        <v>133800</v>
+      </c>
+      <c r="K66" s="3">
         <v>77400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>68500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>68700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>65600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>105400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>98000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>125900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,56 +4464,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>353900</v>
+        <v>388000</v>
       </c>
       <c r="E72" s="3">
-        <v>340900</v>
+        <v>364700</v>
       </c>
       <c r="F72" s="3">
-        <v>324600</v>
+        <v>351300</v>
       </c>
       <c r="G72" s="3">
-        <v>256700</v>
+        <v>334500</v>
       </c>
       <c r="H72" s="3">
-        <v>233800</v>
+        <v>264500</v>
       </c>
       <c r="I72" s="3">
-        <v>228300</v>
+        <v>241000</v>
       </c>
       <c r="J72" s="3">
+        <v>235300</v>
+      </c>
+      <c r="K72" s="3">
         <v>205700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>186900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>133700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>118200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>88000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>79000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>75700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>68800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,56 +4724,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>355400</v>
+        <v>389600</v>
       </c>
       <c r="E76" s="3">
-        <v>341600</v>
+        <v>366300</v>
       </c>
       <c r="F76" s="3">
-        <v>324500</v>
+        <v>352000</v>
       </c>
       <c r="G76" s="3">
-        <v>285400</v>
+        <v>334400</v>
       </c>
       <c r="H76" s="3">
-        <v>260900</v>
+        <v>294100</v>
       </c>
       <c r="I76" s="3">
-        <v>251000</v>
+        <v>268800</v>
       </c>
       <c r="J76" s="3">
+        <v>258700</v>
+      </c>
+      <c r="K76" s="3">
         <v>228400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>207200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>196300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>180800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>89800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>80800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>77500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>70700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,64 +4854,67 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,59 +4924,62 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10700</v>
+        <v>18400</v>
       </c>
       <c r="E81" s="3">
-        <v>9200</v>
+        <v>11000</v>
       </c>
       <c r="F81" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>20700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K81" s="3">
+        <v>11300</v>
+      </c>
+      <c r="L81" s="3">
         <v>8400</v>
       </c>
-      <c r="G81" s="3">
-        <v>20100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>19900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>11300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>8400</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5600</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,8 +5016,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4847,30 +5046,30 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>2300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3">
         <v>1700</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,59 +5404,62 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28000</v>
+        <v>16300</v>
       </c>
       <c r="E89" s="3">
-        <v>29500</v>
+        <v>28900</v>
       </c>
       <c r="F89" s="3">
-        <v>2600</v>
+        <v>30400</v>
       </c>
       <c r="G89" s="3">
-        <v>16300</v>
+        <v>2700</v>
       </c>
       <c r="H89" s="3">
+        <v>16800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K89" s="3">
         <v>15200</v>
       </c>
-      <c r="I89" s="3">
-        <v>21200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>15200</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14300</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,59 +5496,60 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>4300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,59 +5689,62 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4100</v>
+        <v>-19900</v>
       </c>
       <c r="E94" s="3">
-        <v>-68300</v>
+        <v>-4200</v>
       </c>
       <c r="F94" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="G94" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-34500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-37600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5524,8 +5754,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,59 +6039,62 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="E100" s="3">
-        <v>-3700</v>
+        <v>-4200</v>
       </c>
       <c r="F100" s="3">
-        <v>18800</v>
+        <v>-3800</v>
       </c>
       <c r="G100" s="3">
-        <v>-5000</v>
+        <v>19300</v>
       </c>
       <c r="H100" s="3">
-        <v>17100</v>
+        <v>-5100</v>
       </c>
       <c r="I100" s="3">
-        <v>-2200</v>
+        <v>17600</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>32700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>23800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5858,58 +6104,61 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-4100</v>
-      </c>
       <c r="I101" s="3">
-        <v>1200</v>
+        <v>-4300</v>
       </c>
       <c r="J101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>200</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-100</v>
       </c>
       <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
+      <c r="S101" s="3">
+        <v>-100</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
@@ -5920,59 +6169,62 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19500</v>
+        <v>-7600</v>
       </c>
       <c r="E102" s="3">
-        <v>-43000</v>
+        <v>20100</v>
       </c>
       <c r="F102" s="3">
-        <v>19500</v>
+        <v>-44300</v>
       </c>
       <c r="G102" s="3">
-        <v>11200</v>
+        <v>20000</v>
       </c>
       <c r="H102" s="3">
-        <v>-6400</v>
+        <v>11600</v>
       </c>
       <c r="I102" s="3">
-        <v>18500</v>
+        <v>-6600</v>
       </c>
       <c r="J102" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K102" s="3">
         <v>14900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>35300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12500</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -761,25 +761,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>158900</v>
+        <v>153200</v>
       </c>
       <c r="E8" s="3">
-        <v>148900</v>
+        <v>143500</v>
       </c>
       <c r="F8" s="3">
-        <v>134600</v>
+        <v>129700</v>
       </c>
       <c r="G8" s="3">
-        <v>128100</v>
+        <v>123400</v>
       </c>
       <c r="H8" s="3">
-        <v>130500</v>
+        <v>125700</v>
       </c>
       <c r="I8" s="3">
-        <v>121600</v>
+        <v>117100</v>
       </c>
       <c r="J8" s="3">
-        <v>116600</v>
+        <v>112400</v>
       </c>
       <c r="K8" s="3">
         <v>105200</v>
@@ -826,25 +826,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>104400</v>
+        <v>100600</v>
       </c>
       <c r="E9" s="3">
-        <v>96500</v>
+        <v>93000</v>
       </c>
       <c r="F9" s="3">
-        <v>88000</v>
+        <v>84800</v>
       </c>
       <c r="G9" s="3">
-        <v>89700</v>
+        <v>86500</v>
       </c>
       <c r="H9" s="3">
-        <v>79900</v>
+        <v>77000</v>
       </c>
       <c r="I9" s="3">
-        <v>110700</v>
+        <v>106700</v>
       </c>
       <c r="J9" s="3">
-        <v>74600</v>
+        <v>71900</v>
       </c>
       <c r="K9" s="3">
         <v>69600</v>
@@ -891,25 +891,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>54500</v>
+        <v>52500</v>
       </c>
       <c r="E10" s="3">
-        <v>52400</v>
+        <v>50500</v>
       </c>
       <c r="F10" s="3">
-        <v>46500</v>
+        <v>44900</v>
       </c>
       <c r="G10" s="3">
-        <v>38300</v>
+        <v>36900</v>
       </c>
       <c r="H10" s="3">
-        <v>50500</v>
+        <v>48700</v>
       </c>
       <c r="I10" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="J10" s="3">
-        <v>42000</v>
+        <v>40500</v>
       </c>
       <c r="K10" s="3">
         <v>35600</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1179,19 +1179,19 @@
         <v>2200</v>
       </c>
       <c r="E15" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F15" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I15" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J15" s="3">
         <v>1900</v>
@@ -1263,25 +1263,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>133400</v>
+        <v>128600</v>
       </c>
       <c r="E17" s="3">
-        <v>129000</v>
+        <v>124300</v>
       </c>
       <c r="F17" s="3">
-        <v>118100</v>
+        <v>113800</v>
       </c>
       <c r="G17" s="3">
-        <v>118300</v>
+        <v>114000</v>
       </c>
       <c r="H17" s="3">
-        <v>110500</v>
+        <v>106500</v>
       </c>
       <c r="I17" s="3">
-        <v>137800</v>
+        <v>132800</v>
       </c>
       <c r="J17" s="3">
-        <v>96000</v>
+        <v>92500</v>
       </c>
       <c r="K17" s="3">
         <v>93300</v>
@@ -1328,25 +1328,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>25500</v>
+        <v>24600</v>
       </c>
       <c r="E18" s="3">
-        <v>19800</v>
+        <v>19100</v>
       </c>
       <c r="F18" s="3">
-        <v>16500</v>
+        <v>15900</v>
       </c>
       <c r="G18" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="H18" s="3">
-        <v>20000</v>
+        <v>19200</v>
       </c>
       <c r="I18" s="3">
-        <v>-16200</v>
+        <v>-15600</v>
       </c>
       <c r="J18" s="3">
-        <v>20600</v>
+        <v>19900</v>
       </c>
       <c r="K18" s="3">
         <v>11900</v>
@@ -1418,25 +1418,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="F20" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="G20" s="3">
         <v>-200</v>
       </c>
       <c r="H20" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="I20" s="3">
-        <v>-8200</v>
+        <v>-7900</v>
       </c>
       <c r="J20" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="K20" s="3">
         <v>2500</v>
@@ -1483,25 +1483,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>21900</v>
+        <v>21100</v>
       </c>
       <c r="E21" s="3">
-        <v>16100</v>
+        <v>15500</v>
       </c>
       <c r="F21" s="3">
-        <v>19900</v>
+        <v>19200</v>
       </c>
       <c r="G21" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="H21" s="3">
-        <v>26300</v>
+        <v>25300</v>
       </c>
       <c r="I21" s="3">
-        <v>-23700</v>
+        <v>-22900</v>
       </c>
       <c r="J21" s="3">
-        <v>30600</v>
+        <v>29500</v>
       </c>
       <c r="K21" s="3">
         <v>14400</v>
@@ -1613,25 +1613,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="E23" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="F23" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="G23" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="H23" s="3">
-        <v>25900</v>
+        <v>24900</v>
       </c>
       <c r="I23" s="3">
-        <v>-24400</v>
+        <v>-23500</v>
       </c>
       <c r="J23" s="3">
-        <v>24700</v>
+        <v>23800</v>
       </c>
       <c r="K23" s="3">
         <v>14300</v>
@@ -1678,25 +1678,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E24" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="F24" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G24" s="3">
         <v>900</v>
       </c>
       <c r="H24" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="I24" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="J24" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K24" s="3">
         <v>3000</v>
@@ -1808,25 +1808,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18400</v>
+        <v>17700</v>
       </c>
       <c r="E26" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="F26" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="G26" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="H26" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="I26" s="3">
-        <v>-19600</v>
+        <v>-18800</v>
       </c>
       <c r="J26" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="K26" s="3">
         <v>11300</v>
@@ -1873,25 +1873,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18400</v>
+        <v>17700</v>
       </c>
       <c r="E27" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="F27" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="G27" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="H27" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="I27" s="3">
-        <v>-19600</v>
+        <v>-18800</v>
       </c>
       <c r="J27" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="K27" s="3">
         <v>11300</v>
@@ -2198,25 +2198,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="F32" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G32" s="3">
         <v>200</v>
       </c>
       <c r="H32" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="I32" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="J32" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="K32" s="3">
         <v>-2500</v>
@@ -2263,25 +2263,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18400</v>
+        <v>17700</v>
       </c>
       <c r="E33" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="F33" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="G33" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="H33" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="I33" s="3">
-        <v>-19600</v>
+        <v>-18800</v>
       </c>
       <c r="J33" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="K33" s="3">
         <v>11300</v>
@@ -2393,25 +2393,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18400</v>
+        <v>17700</v>
       </c>
       <c r="E35" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="F35" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="G35" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="H35" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="I35" s="3">
-        <v>-19600</v>
+        <v>-18800</v>
       </c>
       <c r="J35" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="K35" s="3">
         <v>11300</v>
@@ -2578,25 +2578,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>111600</v>
+        <v>107500</v>
       </c>
       <c r="E41" s="3">
-        <v>119200</v>
+        <v>114900</v>
       </c>
       <c r="F41" s="3">
-        <v>99100</v>
+        <v>95500</v>
       </c>
       <c r="G41" s="3">
-        <v>143400</v>
+        <v>138200</v>
       </c>
       <c r="H41" s="3">
-        <v>123300</v>
+        <v>118900</v>
       </c>
       <c r="I41" s="3">
-        <v>111800</v>
+        <v>107700</v>
       </c>
       <c r="J41" s="3">
-        <v>118300</v>
+        <v>114100</v>
       </c>
       <c r="K41" s="3">
         <v>96400</v>
@@ -2661,7 +2661,7 @@
         <v>800</v>
       </c>
       <c r="J42" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -2708,25 +2708,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>156500</v>
+        <v>150800</v>
       </c>
       <c r="E43" s="3">
-        <v>133200</v>
+        <v>128400</v>
       </c>
       <c r="F43" s="3">
-        <v>134900</v>
+        <v>130000</v>
       </c>
       <c r="G43" s="3">
-        <v>121000</v>
+        <v>116700</v>
       </c>
       <c r="H43" s="3">
-        <v>115500</v>
+        <v>111400</v>
       </c>
       <c r="I43" s="3">
-        <v>111000</v>
+        <v>107000</v>
       </c>
       <c r="J43" s="3">
-        <v>97200</v>
+        <v>93700</v>
       </c>
       <c r="K43" s="3">
         <v>91600</v>
@@ -2903,25 +2903,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>268800</v>
+        <v>259100</v>
       </c>
       <c r="E46" s="3">
-        <v>253200</v>
+        <v>244000</v>
       </c>
       <c r="F46" s="3">
-        <v>234900</v>
+        <v>226400</v>
       </c>
       <c r="G46" s="3">
-        <v>265300</v>
+        <v>255600</v>
       </c>
       <c r="H46" s="3">
-        <v>239700</v>
+        <v>231000</v>
       </c>
       <c r="I46" s="3">
-        <v>223600</v>
+        <v>215500</v>
       </c>
       <c r="J46" s="3">
-        <v>216400</v>
+        <v>208600</v>
       </c>
       <c r="K46" s="3">
         <v>188000</v>
@@ -3033,25 +3033,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>75700</v>
+        <v>73000</v>
       </c>
       <c r="E48" s="3">
-        <v>83200</v>
+        <v>80200</v>
       </c>
       <c r="F48" s="3">
-        <v>86600</v>
+        <v>83400</v>
       </c>
       <c r="G48" s="3">
-        <v>90400</v>
+        <v>87100</v>
       </c>
       <c r="H48" s="3">
-        <v>86700</v>
+        <v>83500</v>
       </c>
       <c r="I48" s="3">
-        <v>86200</v>
+        <v>83000</v>
       </c>
       <c r="J48" s="3">
-        <v>68200</v>
+        <v>65700</v>
       </c>
       <c r="K48" s="3">
         <v>14500</v>
@@ -3098,25 +3098,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>215600</v>
+        <v>207800</v>
       </c>
       <c r="E49" s="3">
-        <v>194900</v>
+        <v>187800</v>
       </c>
       <c r="F49" s="3">
-        <v>200600</v>
+        <v>193300</v>
       </c>
       <c r="G49" s="3">
-        <v>135300</v>
+        <v>130400</v>
       </c>
       <c r="H49" s="3">
-        <v>135500</v>
+        <v>130600</v>
       </c>
       <c r="I49" s="3">
-        <v>128700</v>
+        <v>124000</v>
       </c>
       <c r="J49" s="3">
-        <v>92400</v>
+        <v>89100</v>
       </c>
       <c r="K49" s="3">
         <v>90200</v>
@@ -3293,25 +3293,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18400</v>
+        <v>17700</v>
       </c>
       <c r="E52" s="3">
-        <v>19200</v>
+        <v>18500</v>
       </c>
       <c r="F52" s="3">
-        <v>22400</v>
+        <v>21500</v>
       </c>
       <c r="G52" s="3">
-        <v>18900</v>
+        <v>18200</v>
       </c>
       <c r="H52" s="3">
-        <v>13200</v>
+        <v>12700</v>
       </c>
       <c r="I52" s="3">
-        <v>16200</v>
+        <v>15600</v>
       </c>
       <c r="J52" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="K52" s="3">
         <v>13100</v>
@@ -3423,25 +3423,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>579300</v>
+        <v>558300</v>
       </c>
       <c r="E54" s="3">
-        <v>551400</v>
+        <v>531400</v>
       </c>
       <c r="F54" s="3">
-        <v>545500</v>
+        <v>525700</v>
       </c>
       <c r="G54" s="3">
-        <v>510800</v>
+        <v>492300</v>
       </c>
       <c r="H54" s="3">
-        <v>476300</v>
+        <v>459000</v>
       </c>
       <c r="I54" s="3">
-        <v>455900</v>
+        <v>439300</v>
       </c>
       <c r="J54" s="3">
-        <v>392500</v>
+        <v>378300</v>
       </c>
       <c r="K54" s="3">
         <v>305800</v>
@@ -3538,25 +3538,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>92500</v>
+        <v>89200</v>
       </c>
       <c r="E57" s="3">
-        <v>89300</v>
+        <v>86100</v>
       </c>
       <c r="F57" s="3">
-        <v>93500</v>
+        <v>90100</v>
       </c>
       <c r="G57" s="3">
-        <v>82900</v>
+        <v>79900</v>
       </c>
       <c r="H57" s="3">
-        <v>89500</v>
+        <v>86200</v>
       </c>
       <c r="I57" s="3">
-        <v>102600</v>
+        <v>98900</v>
       </c>
       <c r="J57" s="3">
-        <v>68100</v>
+        <v>65600</v>
       </c>
       <c r="K57" s="3">
         <v>62500</v>
@@ -3603,25 +3603,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17200</v>
+        <v>16600</v>
       </c>
       <c r="E58" s="3">
-        <v>17200</v>
+        <v>16600</v>
       </c>
       <c r="F58" s="3">
-        <v>15700</v>
+        <v>15100</v>
       </c>
       <c r="G58" s="3">
-        <v>15800</v>
+        <v>15200</v>
       </c>
       <c r="H58" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="I58" s="3">
-        <v>16200</v>
+        <v>15600</v>
       </c>
       <c r="J58" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3668,25 +3668,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="E59" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="F59" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="G59" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="H59" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="I59" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="J59" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="K59" s="3">
         <v>11900</v>
@@ -3733,25 +3733,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>120100</v>
+        <v>115700</v>
       </c>
       <c r="E60" s="3">
-        <v>114600</v>
+        <v>110500</v>
       </c>
       <c r="F60" s="3">
-        <v>120600</v>
+        <v>116200</v>
       </c>
       <c r="G60" s="3">
-        <v>108100</v>
+        <v>104200</v>
       </c>
       <c r="H60" s="3">
-        <v>115000</v>
+        <v>110800</v>
       </c>
       <c r="I60" s="3">
-        <v>124200</v>
+        <v>119700</v>
       </c>
       <c r="J60" s="3">
-        <v>89000</v>
+        <v>85800</v>
       </c>
       <c r="K60" s="3">
         <v>74400</v>
@@ -3798,25 +3798,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>48900</v>
+        <v>47100</v>
       </c>
       <c r="E61" s="3">
-        <v>55400</v>
+        <v>53400</v>
       </c>
       <c r="F61" s="3">
-        <v>57400</v>
+        <v>55300</v>
       </c>
       <c r="G61" s="3">
-        <v>59800</v>
+        <v>57600</v>
       </c>
       <c r="H61" s="3">
-        <v>57200</v>
+        <v>55100</v>
       </c>
       <c r="I61" s="3">
-        <v>56000</v>
+        <v>53900</v>
       </c>
       <c r="J61" s="3">
-        <v>41900</v>
+        <v>40400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3863,25 +3863,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="E62" s="3">
-        <v>15100</v>
+        <v>14500</v>
       </c>
       <c r="F62" s="3">
-        <v>15400</v>
+        <v>14900</v>
       </c>
       <c r="G62" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="H62" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="I62" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="J62" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K62" s="3">
         <v>2900</v>
@@ -4123,25 +4123,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>189600</v>
+        <v>182800</v>
       </c>
       <c r="E66" s="3">
-        <v>185100</v>
+        <v>178400</v>
       </c>
       <c r="F66" s="3">
-        <v>193500</v>
+        <v>186400</v>
       </c>
       <c r="G66" s="3">
-        <v>176300</v>
+        <v>170000</v>
       </c>
       <c r="H66" s="3">
-        <v>182100</v>
+        <v>175500</v>
       </c>
       <c r="I66" s="3">
-        <v>187000</v>
+        <v>180200</v>
       </c>
       <c r="J66" s="3">
-        <v>133800</v>
+        <v>129000</v>
       </c>
       <c r="K66" s="3">
         <v>77400</v>
@@ -4473,25 +4473,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>388000</v>
+        <v>373900</v>
       </c>
       <c r="E72" s="3">
-        <v>364700</v>
+        <v>351400</v>
       </c>
       <c r="F72" s="3">
-        <v>351300</v>
+        <v>338600</v>
       </c>
       <c r="G72" s="3">
-        <v>334500</v>
+        <v>322300</v>
       </c>
       <c r="H72" s="3">
-        <v>264500</v>
+        <v>254900</v>
       </c>
       <c r="I72" s="3">
-        <v>241000</v>
+        <v>232200</v>
       </c>
       <c r="J72" s="3">
-        <v>235300</v>
+        <v>226700</v>
       </c>
       <c r="K72" s="3">
         <v>205700</v>
@@ -4733,25 +4733,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>389600</v>
+        <v>375500</v>
       </c>
       <c r="E76" s="3">
-        <v>366300</v>
+        <v>353000</v>
       </c>
       <c r="F76" s="3">
-        <v>352000</v>
+        <v>339200</v>
       </c>
       <c r="G76" s="3">
-        <v>334400</v>
+        <v>322300</v>
       </c>
       <c r="H76" s="3">
-        <v>294100</v>
+        <v>283500</v>
       </c>
       <c r="I76" s="3">
-        <v>268800</v>
+        <v>259100</v>
       </c>
       <c r="J76" s="3">
-        <v>258700</v>
+        <v>249300</v>
       </c>
       <c r="K76" s="3">
         <v>228400</v>
@@ -4933,25 +4933,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18400</v>
+        <v>17700</v>
       </c>
       <c r="E81" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="F81" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="G81" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="H81" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="I81" s="3">
-        <v>-19600</v>
+        <v>-18800</v>
       </c>
       <c r="J81" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="K81" s="3">
         <v>11300</v>
@@ -5413,25 +5413,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="E89" s="3">
-        <v>28900</v>
+        <v>27800</v>
       </c>
       <c r="F89" s="3">
-        <v>30400</v>
+        <v>29300</v>
       </c>
       <c r="G89" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H89" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="I89" s="3">
-        <v>15700</v>
+        <v>15100</v>
       </c>
       <c r="J89" s="3">
-        <v>21800</v>
+        <v>21000</v>
       </c>
       <c r="K89" s="3">
         <v>15200</v>
@@ -5503,25 +5503,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F91" s="3">
         <v>-900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="H91" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="I91" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="J91" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="K91" s="3">
         <v>-3100</v>
@@ -5698,25 +5698,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19900</v>
+        <v>-19100</v>
       </c>
       <c r="E94" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="F94" s="3">
-        <v>-70400</v>
+        <v>-67800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="I94" s="3">
-        <v>-35600</v>
+        <v>-34300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="K94" s="3">
         <v>-2800</v>
@@ -6048,25 +6048,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="E100" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="F100" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="G100" s="3">
-        <v>19300</v>
+        <v>18600</v>
       </c>
       <c r="H100" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="I100" s="3">
-        <v>17600</v>
+        <v>16900</v>
       </c>
       <c r="J100" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6125,13 +6125,13 @@
         <v>500</v>
       </c>
       <c r="H101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I101" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="J101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K101" s="3">
         <v>2600</v>
@@ -6178,25 +6178,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7600</v>
+        <v>-7300</v>
       </c>
       <c r="E102" s="3">
-        <v>20100</v>
+        <v>19300</v>
       </c>
       <c r="F102" s="3">
-        <v>-44300</v>
+        <v>-42700</v>
       </c>
       <c r="G102" s="3">
-        <v>20000</v>
+        <v>19300</v>
       </c>
       <c r="H102" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="I102" s="3">
-        <v>-6600</v>
+        <v>-6300</v>
       </c>
       <c r="J102" s="3">
-        <v>19000</v>
+        <v>18400</v>
       </c>
       <c r="K102" s="3">
         <v>14900</v>

--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,319 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>153200</v>
+        <v>196300</v>
       </c>
       <c r="E8" s="3">
-        <v>143500</v>
+        <v>177800</v>
       </c>
       <c r="F8" s="3">
-        <v>129700</v>
+        <v>149500</v>
       </c>
       <c r="G8" s="3">
-        <v>123400</v>
+        <v>140000</v>
       </c>
       <c r="H8" s="3">
-        <v>125700</v>
+        <v>126600</v>
       </c>
       <c r="I8" s="3">
+        <v>120500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>122700</v>
+      </c>
+      <c r="K8" s="3">
         <v>117100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>112400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>105200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>97300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>94800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>87700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>79500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>201800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>65200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>62000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>56100</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100600</v>
+        <v>126200</v>
       </c>
       <c r="E9" s="3">
-        <v>93000</v>
+        <v>117500</v>
       </c>
       <c r="F9" s="3">
-        <v>84800</v>
+        <v>98200</v>
       </c>
       <c r="G9" s="3">
-        <v>86500</v>
+        <v>90800</v>
       </c>
       <c r="H9" s="3">
-        <v>77000</v>
+        <v>82800</v>
       </c>
       <c r="I9" s="3">
+        <v>84400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K9" s="3">
         <v>106700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>71900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>69600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>64000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>61300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>58000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>51800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>136200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>44400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>42200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>38000</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>52500</v>
+        <v>70200</v>
       </c>
       <c r="E10" s="3">
-        <v>50500</v>
+        <v>60300</v>
       </c>
       <c r="F10" s="3">
-        <v>44900</v>
+        <v>51300</v>
       </c>
       <c r="G10" s="3">
-        <v>36900</v>
+        <v>49300</v>
       </c>
       <c r="H10" s="3">
-        <v>48700</v>
+        <v>43800</v>
       </c>
       <c r="I10" s="3">
+        <v>36100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K10" s="3">
         <v>10500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>40500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>35600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>33300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>33500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>29700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>27700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>65600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>20900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>19700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>18100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1001,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1040,8 +1068,14 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,13 +1139,19 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1129,96 +1169,102 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-3000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3">
         <v>500</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>2200</v>
       </c>
-      <c r="E15" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
         <v>1300</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1235,8 +1281,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,138 +1309,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>128600</v>
+        <v>164500</v>
       </c>
       <c r="E17" s="3">
-        <v>124300</v>
+        <v>151500</v>
       </c>
       <c r="F17" s="3">
-        <v>113800</v>
+        <v>125500</v>
       </c>
       <c r="G17" s="3">
-        <v>114000</v>
+        <v>121400</v>
       </c>
       <c r="H17" s="3">
-        <v>106500</v>
+        <v>111100</v>
       </c>
       <c r="I17" s="3">
+        <v>111300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>104000</v>
+      </c>
+      <c r="K17" s="3">
         <v>132800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>92500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>93300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>87400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>82900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>77400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>71200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>177300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>57200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>52900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>47800</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24600</v>
+        <v>31800</v>
       </c>
       <c r="E18" s="3">
-        <v>19100</v>
+        <v>26300</v>
       </c>
       <c r="F18" s="3">
-        <v>15900</v>
+        <v>24000</v>
       </c>
       <c r="G18" s="3">
-        <v>9400</v>
+        <v>18700</v>
       </c>
       <c r="H18" s="3">
-        <v>19200</v>
+        <v>15500</v>
       </c>
       <c r="I18" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-15600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>19900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>11900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>9900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>12000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>10300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>8400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>24500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>8000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>9000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>8200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,138 +1478,152 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2100</v>
+        <v>1300</v>
       </c>
       <c r="E20" s="3">
-        <v>-4700</v>
+        <v>-1700</v>
       </c>
       <c r="F20" s="3">
-        <v>-4000</v>
+        <v>-2000</v>
       </c>
       <c r="G20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-6800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>21100</v>
+        <v>42500</v>
       </c>
       <c r="E21" s="3">
-        <v>15500</v>
+        <v>27200</v>
       </c>
       <c r="F21" s="3">
-        <v>19200</v>
+        <v>20600</v>
       </c>
       <c r="G21" s="3">
-        <v>9500</v>
+        <v>15100</v>
       </c>
       <c r="H21" s="3">
-        <v>25300</v>
+        <v>18700</v>
       </c>
       <c r="I21" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-22900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>29500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>14400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>11600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>12400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>11000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>29000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>7900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>9000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>8900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1607,129 +1687,141 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>22500</v>
+        <v>33200</v>
       </c>
       <c r="E23" s="3">
-        <v>14500</v>
+        <v>24700</v>
       </c>
       <c r="F23" s="3">
-        <v>11900</v>
+        <v>22000</v>
       </c>
       <c r="G23" s="3">
-        <v>9200</v>
+        <v>14100</v>
       </c>
       <c r="H23" s="3">
-        <v>24900</v>
+        <v>11600</v>
       </c>
       <c r="I23" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-23500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>23800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>14300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>10100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>12400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>8600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>23200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>7900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>8400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>7200</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4800</v>
+        <v>5800</v>
       </c>
       <c r="E24" s="3">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="F24" s="3">
-        <v>2800</v>
+        <v>4700</v>
       </c>
       <c r="G24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="L24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P24" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R24" s="3">
         <v>5000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>800</v>
-      </c>
-      <c r="O24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>5000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1800</v>
       </c>
       <c r="S24" s="3">
         <v>1600</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
+      <c r="T24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1600</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
@@ -1737,8 +1829,14 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,138 +1900,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17700</v>
+        <v>27300</v>
       </c>
       <c r="E26" s="3">
-        <v>10600</v>
+        <v>21200</v>
       </c>
       <c r="F26" s="3">
-        <v>9100</v>
+        <v>17300</v>
       </c>
       <c r="G26" s="3">
-        <v>8300</v>
+        <v>10400</v>
       </c>
       <c r="H26" s="3">
-        <v>19900</v>
+        <v>8900</v>
       </c>
       <c r="I26" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-18800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>19800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>11300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>6300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>18200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>6200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>6600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>5600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17700</v>
+        <v>27300</v>
       </c>
       <c r="E27" s="3">
-        <v>10600</v>
+        <v>21200</v>
       </c>
       <c r="F27" s="3">
-        <v>9100</v>
+        <v>17300</v>
       </c>
       <c r="G27" s="3">
-        <v>8300</v>
+        <v>10400</v>
       </c>
       <c r="H27" s="3">
-        <v>19900</v>
+        <v>8900</v>
       </c>
       <c r="I27" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-18800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>19800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>11300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>6300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>18200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>6200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>6600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>5600</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2113,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2184,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2255,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,138 +2326,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2100</v>
+        <v>-1300</v>
       </c>
       <c r="E32" s="3">
-        <v>4700</v>
+        <v>1700</v>
       </c>
       <c r="F32" s="3">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K32" s="3">
         <v>7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>6800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17700</v>
+        <v>27300</v>
       </c>
       <c r="E33" s="3">
-        <v>10600</v>
+        <v>21200</v>
       </c>
       <c r="F33" s="3">
-        <v>9100</v>
+        <v>17300</v>
       </c>
       <c r="G33" s="3">
-        <v>8300</v>
+        <v>10400</v>
       </c>
       <c r="H33" s="3">
-        <v>19900</v>
+        <v>8900</v>
       </c>
       <c r="I33" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-18800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>19800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>11300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>9800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>6300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>18200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>6200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>6600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>5600</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,143 +2539,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17700</v>
+        <v>27300</v>
       </c>
       <c r="E35" s="3">
-        <v>10600</v>
+        <v>21200</v>
       </c>
       <c r="F35" s="3">
-        <v>9100</v>
+        <v>17300</v>
       </c>
       <c r="G35" s="3">
-        <v>8300</v>
+        <v>10400</v>
       </c>
       <c r="H35" s="3">
-        <v>19900</v>
+        <v>8900</v>
       </c>
       <c r="I35" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-18800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>19800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>11300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>9800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>6300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>18200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>6200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>6600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>5600</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2717,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,62 +2744,64 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>107500</v>
+        <v>109200</v>
       </c>
       <c r="E41" s="3">
-        <v>114900</v>
+        <v>93000</v>
       </c>
       <c r="F41" s="3">
-        <v>95500</v>
+        <v>104900</v>
       </c>
       <c r="G41" s="3">
-        <v>138200</v>
+        <v>112100</v>
       </c>
       <c r="H41" s="3">
-        <v>118900</v>
+        <v>93200</v>
       </c>
       <c r="I41" s="3">
+        <v>134900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>116000</v>
+      </c>
+      <c r="K41" s="3">
         <v>107700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>114100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>96400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>79000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>67400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>55200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>19500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>12200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>32700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>21700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,8 +2811,14 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2646,10 +2826,10 @@
         <v>800</v>
       </c>
       <c r="E42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G42" s="3">
         <v>800</v>
@@ -2663,11 +2843,11 @@
       <c r="J42" s="3">
         <v>800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
+      <c r="K42" s="3">
+        <v>800</v>
+      </c>
+      <c r="L42" s="3">
+        <v>800</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
@@ -2681,11 +2861,11 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2702,62 +2882,68 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>150800</v>
+        <v>189500</v>
       </c>
       <c r="E43" s="3">
-        <v>128400</v>
+        <v>158700</v>
       </c>
       <c r="F43" s="3">
-        <v>130000</v>
+        <v>147200</v>
       </c>
       <c r="G43" s="3">
-        <v>116700</v>
+        <v>125300</v>
       </c>
       <c r="H43" s="3">
-        <v>111400</v>
+        <v>126900</v>
       </c>
       <c r="I43" s="3">
+        <v>113900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>108700</v>
+      </c>
+      <c r="K43" s="3">
         <v>107000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>93700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>91600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>84800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>84900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>80800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>68600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>64900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>64400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>59300</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2953,14 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2809,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2817,11 +3009,11 @@
       <c r="R44" s="3">
         <v>100</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>100</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
@@ -2832,8 +3024,14 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2897,62 +3095,68 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>259100</v>
+        <v>299500</v>
       </c>
       <c r="E46" s="3">
-        <v>244000</v>
+        <v>252500</v>
       </c>
       <c r="F46" s="3">
-        <v>226400</v>
+        <v>252900</v>
       </c>
       <c r="G46" s="3">
-        <v>255600</v>
+        <v>238200</v>
       </c>
       <c r="H46" s="3">
-        <v>231000</v>
+        <v>220900</v>
       </c>
       <c r="I46" s="3">
+        <v>249500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K46" s="3">
         <v>215500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>208600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>188000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>163800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>152400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>136000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>88000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>77200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>97100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>81100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,55 +3166,61 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>500</v>
+      </c>
+      <c r="F47" s="3">
         <v>700</v>
-      </c>
-      <c r="E47" s="3">
-        <v>900</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1100</v>
       </c>
       <c r="G47" s="3">
         <v>900</v>
       </c>
       <c r="H47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1200</v>
       </c>
-      <c r="I47" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
@@ -3027,62 +3237,68 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>73000</v>
+        <v>94000</v>
       </c>
       <c r="E48" s="3">
-        <v>80200</v>
+        <v>93900</v>
       </c>
       <c r="F48" s="3">
-        <v>83400</v>
+        <v>71200</v>
       </c>
       <c r="G48" s="3">
-        <v>87100</v>
+        <v>78300</v>
       </c>
       <c r="H48" s="3">
-        <v>83500</v>
+        <v>81400</v>
       </c>
       <c r="I48" s="3">
+        <v>85000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K48" s="3">
         <v>83000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>65700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>14500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>12500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>13200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>12200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>11100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>10800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>11400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>10400</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,62 +3308,68 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>207800</v>
+        <v>258700</v>
       </c>
       <c r="E49" s="3">
-        <v>187800</v>
+        <v>258200</v>
       </c>
       <c r="F49" s="3">
-        <v>193300</v>
+        <v>202800</v>
       </c>
       <c r="G49" s="3">
-        <v>130400</v>
+        <v>183300</v>
       </c>
       <c r="H49" s="3">
-        <v>130600</v>
+        <v>188700</v>
       </c>
       <c r="I49" s="3">
+        <v>127400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>127400</v>
+      </c>
+      <c r="K49" s="3">
         <v>124000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>89100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>90200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>93200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>96100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>94900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>92900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>89600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>93700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>41900</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3157,8 +3379,14 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3450,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,62 +3521,68 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17700</v>
+        <v>31900</v>
       </c>
       <c r="E52" s="3">
-        <v>18500</v>
+        <v>24900</v>
       </c>
       <c r="F52" s="3">
-        <v>21500</v>
+        <v>17300</v>
       </c>
       <c r="G52" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="H52" s="3">
-        <v>12700</v>
+        <v>21000</v>
       </c>
       <c r="I52" s="3">
+        <v>17800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K52" s="3">
         <v>15600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>13400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>13100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,8 +3592,14 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,62 +3663,68 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>558300</v>
+        <v>684300</v>
       </c>
       <c r="E54" s="3">
-        <v>531400</v>
+        <v>629900</v>
       </c>
       <c r="F54" s="3">
-        <v>525700</v>
+        <v>544900</v>
       </c>
       <c r="G54" s="3">
-        <v>492300</v>
+        <v>518700</v>
       </c>
       <c r="H54" s="3">
-        <v>459000</v>
+        <v>513100</v>
       </c>
       <c r="I54" s="3">
+        <v>480600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>448000</v>
+      </c>
+      <c r="K54" s="3">
         <v>439300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>378300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>305800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>275800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>265000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>246400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>195200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>178800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>203400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>134500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3482,8 +3734,14 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3765,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,62 +3792,64 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>89200</v>
+        <v>114400</v>
       </c>
       <c r="E57" s="3">
-        <v>86100</v>
+        <v>104700</v>
       </c>
       <c r="F57" s="3">
-        <v>90100</v>
+        <v>87000</v>
       </c>
       <c r="G57" s="3">
-        <v>79900</v>
+        <v>84000</v>
       </c>
       <c r="H57" s="3">
-        <v>86200</v>
+        <v>88000</v>
       </c>
       <c r="I57" s="3">
+        <v>78000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K57" s="3">
         <v>98900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>65600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>62500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>58600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>55300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>53900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>52000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>42500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>37200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>32700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3597,62 +3859,68 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16600</v>
+        <v>17300</v>
       </c>
       <c r="E58" s="3">
-        <v>16600</v>
+        <v>18000</v>
       </c>
       <c r="F58" s="3">
-        <v>15100</v>
+        <v>16200</v>
       </c>
       <c r="G58" s="3">
-        <v>15200</v>
+        <v>16200</v>
       </c>
       <c r="H58" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="I58" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K58" s="3">
         <v>15600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>11700</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>25500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>30500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>50800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>26800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,62 +3930,68 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10000</v>
+        <v>24600</v>
       </c>
       <c r="E59" s="3">
-        <v>7800</v>
+        <v>14200</v>
       </c>
       <c r="F59" s="3">
-        <v>11000</v>
+        <v>9700</v>
       </c>
       <c r="G59" s="3">
-        <v>9100</v>
+        <v>7600</v>
       </c>
       <c r="H59" s="3">
-        <v>9900</v>
+        <v>10700</v>
       </c>
       <c r="I59" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K59" s="3">
         <v>5200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>14400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>10900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>23300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3727,62 +4001,68 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>115700</v>
+        <v>156300</v>
       </c>
       <c r="E60" s="3">
-        <v>110500</v>
+        <v>136900</v>
       </c>
       <c r="F60" s="3">
-        <v>116200</v>
+        <v>112900</v>
       </c>
       <c r="G60" s="3">
-        <v>104200</v>
+        <v>107800</v>
       </c>
       <c r="H60" s="3">
-        <v>110800</v>
+        <v>113500</v>
       </c>
       <c r="I60" s="3">
+        <v>101800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>108200</v>
+      </c>
+      <c r="K60" s="3">
         <v>119700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>85800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>74400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>65300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>64900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>61500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>92000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>83900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>111300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>60000</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3792,38 +4072,44 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>47100</v>
+        <v>63300</v>
       </c>
       <c r="E61" s="3">
-        <v>53400</v>
+        <v>66700</v>
       </c>
       <c r="F61" s="3">
-        <v>55300</v>
+        <v>46000</v>
       </c>
       <c r="G61" s="3">
-        <v>57600</v>
+        <v>52100</v>
       </c>
       <c r="H61" s="3">
-        <v>55100</v>
+        <v>54000</v>
       </c>
       <c r="I61" s="3">
+        <v>56200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K61" s="3">
         <v>53900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>40400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3837,17 +4123,17 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -3857,62 +4143,68 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19900</v>
+        <v>19200</v>
       </c>
       <c r="E62" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>19400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>14200</v>
+      </c>
+      <c r="H62" s="3">
         <v>14500</v>
       </c>
-      <c r="F62" s="3">
-        <v>14900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>9600</v>
-      </c>
       <c r="I62" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K62" s="3">
         <v>6600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>13400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>14100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>14500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>3800</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3922,8 +4214,14 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4285,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4356,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,62 +4427,68 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>182800</v>
+        <v>238800</v>
       </c>
       <c r="E66" s="3">
+        <v>229700</v>
+      </c>
+      <c r="F66" s="3">
         <v>178400</v>
       </c>
-      <c r="F66" s="3">
-        <v>186400</v>
-      </c>
       <c r="G66" s="3">
-        <v>170000</v>
+        <v>174100</v>
       </c>
       <c r="H66" s="3">
-        <v>175500</v>
+        <v>182000</v>
       </c>
       <c r="I66" s="3">
+        <v>166000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>171300</v>
+      </c>
+      <c r="K66" s="3">
         <v>180200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>129000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>77400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>68500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>68700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>65600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>105400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>98000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>125900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>63800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4498,14 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4529,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4596,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4667,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,8 +4738,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,62 +4809,68 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>373900</v>
+        <v>443900</v>
       </c>
       <c r="E72" s="3">
-        <v>351400</v>
+        <v>398600</v>
       </c>
       <c r="F72" s="3">
-        <v>338600</v>
+        <v>364900</v>
       </c>
       <c r="G72" s="3">
-        <v>322300</v>
+        <v>343000</v>
       </c>
       <c r="H72" s="3">
-        <v>254900</v>
+        <v>330500</v>
       </c>
       <c r="I72" s="3">
+        <v>314600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>248800</v>
+      </c>
+      <c r="K72" s="3">
         <v>232200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>226700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>205700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>186900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>133700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>118200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>88000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>79000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>75700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>68800</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4532,8 +4880,14 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4951,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +5022,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,62 +5093,68 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>375500</v>
+        <v>445500</v>
       </c>
       <c r="E76" s="3">
-        <v>353000</v>
+        <v>400200</v>
       </c>
       <c r="F76" s="3">
-        <v>339200</v>
+        <v>366500</v>
       </c>
       <c r="G76" s="3">
-        <v>322300</v>
+        <v>344500</v>
       </c>
       <c r="H76" s="3">
-        <v>283500</v>
+        <v>331100</v>
       </c>
       <c r="I76" s="3">
+        <v>314600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>276700</v>
+      </c>
+      <c r="K76" s="3">
         <v>259100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>249300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>228400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>207200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>196300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>180800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>89800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>80800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>77500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>70700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +5164,14 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,143 +5235,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17700</v>
+        <v>27300</v>
       </c>
       <c r="E81" s="3">
-        <v>10600</v>
+        <v>21200</v>
       </c>
       <c r="F81" s="3">
-        <v>9100</v>
+        <v>17300</v>
       </c>
       <c r="G81" s="3">
-        <v>8300</v>
+        <v>10400</v>
       </c>
       <c r="H81" s="3">
-        <v>19900</v>
+        <v>8900</v>
       </c>
       <c r="I81" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-18800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>19800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>11300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>9800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>6300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>18200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>6200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>6600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>5600</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,8 +5413,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5049,41 +5447,47 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>5800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3">
         <v>1700</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5551,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5622,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5693,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5764,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,73 +5835,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>46500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>15400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>27200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>28600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J89" s="3">
         <v>15800</v>
       </c>
-      <c r="E89" s="3">
-        <v>27800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>29300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>16200</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>15100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>21000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>15200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>16800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>12700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>17600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>26300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>11200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>5000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>14300</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,73 +5937,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>4300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +6075,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,73 +6146,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19100</v>
+        <v>-5400</v>
       </c>
       <c r="E94" s="3">
-        <v>-4100</v>
+        <v>-53700</v>
       </c>
       <c r="F94" s="3">
-        <v>-67800</v>
+        <v>-18700</v>
       </c>
       <c r="G94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="H94" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-34300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-37600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-24100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-5000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6248,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5847,8 +6315,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6386,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6457,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,199 +6528,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3700</v>
+        <v>-5200</v>
       </c>
       <c r="E100" s="3">
-        <v>-4100</v>
+        <v>-4700</v>
       </c>
       <c r="F100" s="3">
         <v>-3700</v>
       </c>
       <c r="G100" s="3">
-        <v>18600</v>
+        <v>-4000</v>
       </c>
       <c r="H100" s="3">
-        <v>-4900</v>
+        <v>-3600</v>
       </c>
       <c r="I100" s="3">
+        <v>18200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K100" s="3">
         <v>16900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>32700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-6900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>23800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-11900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>3300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-4100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>2300</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="Q101" s="3">
+        <v>100</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7300</v>
+        <v>16200</v>
       </c>
       <c r="E102" s="3">
-        <v>19300</v>
+        <v>-11900</v>
       </c>
       <c r="F102" s="3">
-        <v>-42700</v>
+        <v>-7200</v>
       </c>
       <c r="G102" s="3">
-        <v>19300</v>
+        <v>18900</v>
       </c>
       <c r="H102" s="3">
-        <v>11200</v>
+        <v>-41600</v>
       </c>
       <c r="I102" s="3">
+        <v>18900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>18400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>14900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>12300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>35300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>7200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>11000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-9000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>12500</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,95 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
@@ -763,68 +763,71 @@
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>196300</v>
+        <v>205600</v>
       </c>
       <c r="E8" s="3">
-        <v>177800</v>
+        <v>192300</v>
       </c>
       <c r="F8" s="3">
-        <v>149500</v>
+        <v>174200</v>
       </c>
       <c r="G8" s="3">
-        <v>140000</v>
+        <v>146400</v>
       </c>
       <c r="H8" s="3">
-        <v>126600</v>
+        <v>137100</v>
       </c>
       <c r="I8" s="3">
-        <v>120500</v>
+        <v>124000</v>
       </c>
       <c r="J8" s="3">
+        <v>118000</v>
+      </c>
+      <c r="K8" s="3">
         <v>122700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>117100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>112400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>105200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>97300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>94800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>87700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>79500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>201800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>65200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>62000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>56100</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,68 +837,71 @@
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>126200</v>
+        <v>137700</v>
       </c>
       <c r="E9" s="3">
-        <v>117500</v>
+        <v>123500</v>
       </c>
       <c r="F9" s="3">
-        <v>98200</v>
+        <v>115100</v>
       </c>
       <c r="G9" s="3">
-        <v>90800</v>
+        <v>96200</v>
       </c>
       <c r="H9" s="3">
-        <v>82800</v>
+        <v>88900</v>
       </c>
       <c r="I9" s="3">
-        <v>84400</v>
+        <v>81100</v>
       </c>
       <c r="J9" s="3">
+        <v>82700</v>
+      </c>
+      <c r="K9" s="3">
         <v>75200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>106700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>71900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>69600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>64000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>61300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>58000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>51800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>136200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>44400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>42200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>38000</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
@@ -905,68 +911,71 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>70200</v>
+        <v>67900</v>
       </c>
       <c r="E10" s="3">
-        <v>60300</v>
+        <v>68700</v>
       </c>
       <c r="F10" s="3">
-        <v>51300</v>
+        <v>59100</v>
       </c>
       <c r="G10" s="3">
-        <v>49300</v>
+        <v>50200</v>
       </c>
       <c r="H10" s="3">
-        <v>43800</v>
+        <v>48300</v>
       </c>
       <c r="I10" s="3">
-        <v>36100</v>
+        <v>42900</v>
       </c>
       <c r="J10" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K10" s="3">
         <v>47500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>40500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>27700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>65600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>20900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>19700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
@@ -976,8 +985,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,8 +1015,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,8 +1087,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,17 +1161,20 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1175,11 +1194,11 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-3000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1189,24 +1208,24 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1600</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3">
         <v>500</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,47 +1235,50 @@
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4100</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>2100</v>
       </c>
-      <c r="G15" s="3">
-        <v>2400</v>
-      </c>
       <c r="H15" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>2200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1900</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
         <v>1300</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,8 +1288,8 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1287,8 +1309,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,68 +1336,69 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>164500</v>
+        <v>180200</v>
       </c>
       <c r="E17" s="3">
-        <v>151500</v>
+        <v>161100</v>
       </c>
       <c r="F17" s="3">
-        <v>125500</v>
+        <v>148400</v>
       </c>
       <c r="G17" s="3">
-        <v>121400</v>
+        <v>122900</v>
       </c>
       <c r="H17" s="3">
-        <v>111100</v>
+        <v>118900</v>
       </c>
       <c r="I17" s="3">
-        <v>111300</v>
+        <v>108800</v>
       </c>
       <c r="J17" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K17" s="3">
         <v>104000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>132800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>92500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>93300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>87400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>82900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>77400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>71200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>177300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>57200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>52900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>47800</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,68 +1408,71 @@
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>31800</v>
+        <v>25400</v>
       </c>
       <c r="E18" s="3">
-        <v>26300</v>
+        <v>31200</v>
       </c>
       <c r="F18" s="3">
-        <v>24000</v>
+        <v>25800</v>
       </c>
       <c r="G18" s="3">
-        <v>18700</v>
+        <v>23500</v>
       </c>
       <c r="H18" s="3">
-        <v>15500</v>
+        <v>18300</v>
       </c>
       <c r="I18" s="3">
-        <v>9200</v>
+        <v>15200</v>
       </c>
       <c r="J18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K18" s="3">
         <v>18800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8200</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1453,8 +1482,11 @@
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,68 +1512,69 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
-        <v>-1700</v>
-      </c>
       <c r="F20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4500</v>
       </c>
-      <c r="H20" s="3">
-        <v>-3900</v>
-      </c>
       <c r="I20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,68 +1584,71 @@
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42500</v>
+        <v>25200</v>
       </c>
       <c r="E21" s="3">
-        <v>27200</v>
+        <v>41600</v>
       </c>
       <c r="F21" s="3">
-        <v>20600</v>
+        <v>26600</v>
       </c>
       <c r="G21" s="3">
-        <v>15100</v>
+        <v>20200</v>
       </c>
       <c r="H21" s="3">
-        <v>18700</v>
+        <v>14800</v>
       </c>
       <c r="I21" s="3">
-        <v>9300</v>
+        <v>18300</v>
       </c>
       <c r="J21" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K21" s="3">
         <v>24700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-22900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>29000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1622,8 +1658,11 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1693,68 +1732,71 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>33200</v>
+        <v>24900</v>
       </c>
       <c r="E23" s="3">
-        <v>24700</v>
+        <v>32500</v>
       </c>
       <c r="F23" s="3">
-        <v>22000</v>
+        <v>24100</v>
       </c>
       <c r="G23" s="3">
-        <v>14100</v>
+        <v>21500</v>
       </c>
       <c r="H23" s="3">
-        <v>11600</v>
+        <v>13800</v>
       </c>
       <c r="I23" s="3">
-        <v>9000</v>
+        <v>11400</v>
       </c>
       <c r="J23" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K23" s="3">
         <v>24400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-23500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7200</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,68 +1806,71 @@
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5800</v>
+        <v>4800</v>
       </c>
       <c r="E24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F24" s="3">
         <v>3400</v>
       </c>
-      <c r="F24" s="3">
-        <v>4700</v>
-      </c>
       <c r="G24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H24" s="3">
         <v>3700</v>
       </c>
-      <c r="H24" s="3">
-        <v>2700</v>
-      </c>
       <c r="I24" s="3">
-        <v>900</v>
+        <v>2600</v>
       </c>
       <c r="J24" s="3">
+        <v>800</v>
+      </c>
+      <c r="K24" s="3">
         <v>4900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1600</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1835,8 +1880,11 @@
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,68 +1954,71 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>27300</v>
+        <v>20100</v>
       </c>
       <c r="E26" s="3">
-        <v>21200</v>
+        <v>26800</v>
       </c>
       <c r="F26" s="3">
-        <v>17300</v>
+        <v>20800</v>
       </c>
       <c r="G26" s="3">
-        <v>10400</v>
+        <v>16900</v>
       </c>
       <c r="H26" s="3">
-        <v>8900</v>
+        <v>10200</v>
       </c>
       <c r="I26" s="3">
-        <v>8100</v>
+        <v>8700</v>
       </c>
       <c r="J26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K26" s="3">
         <v>19400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>9800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1977,68 +2028,71 @@
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27300</v>
+        <v>20100</v>
       </c>
       <c r="E27" s="3">
-        <v>21200</v>
+        <v>26800</v>
       </c>
       <c r="F27" s="3">
-        <v>17300</v>
+        <v>20800</v>
       </c>
       <c r="G27" s="3">
-        <v>10400</v>
+        <v>16900</v>
       </c>
       <c r="H27" s="3">
-        <v>8900</v>
+        <v>10200</v>
       </c>
       <c r="I27" s="3">
-        <v>8100</v>
+        <v>8700</v>
       </c>
       <c r="J27" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K27" s="3">
         <v>19400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5600</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,8 +2102,11 @@
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2176,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2190,8 +2250,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,68 +2398,71 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
-        <v>1700</v>
-      </c>
       <c r="F32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4500</v>
       </c>
-      <c r="H32" s="3">
-        <v>3900</v>
-      </c>
       <c r="I32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2403,68 +2472,71 @@
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27300</v>
+        <v>20100</v>
       </c>
       <c r="E33" s="3">
-        <v>21200</v>
+        <v>26800</v>
       </c>
       <c r="F33" s="3">
-        <v>17300</v>
+        <v>20800</v>
       </c>
       <c r="G33" s="3">
-        <v>10400</v>
+        <v>16900</v>
       </c>
       <c r="H33" s="3">
-        <v>8900</v>
+        <v>10200</v>
       </c>
       <c r="I33" s="3">
-        <v>8100</v>
+        <v>8700</v>
       </c>
       <c r="J33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K33" s="3">
         <v>19400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>18200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5600</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2546,11 @@
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,68 +2620,71 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27300</v>
+        <v>20100</v>
       </c>
       <c r="E35" s="3">
-        <v>21200</v>
+        <v>26800</v>
       </c>
       <c r="F35" s="3">
-        <v>17300</v>
+        <v>20800</v>
       </c>
       <c r="G35" s="3">
-        <v>10400</v>
+        <v>16900</v>
       </c>
       <c r="H35" s="3">
-        <v>8900</v>
+        <v>10200</v>
       </c>
       <c r="I35" s="3">
-        <v>8100</v>
+        <v>8700</v>
       </c>
       <c r="J35" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K35" s="3">
         <v>19400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>18200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5600</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,73 +2694,76 @@
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2692,8 +2773,11 @@
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,65 +2831,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>109200</v>
+        <v>148800</v>
       </c>
       <c r="E41" s="3">
-        <v>93000</v>
+        <v>106900</v>
       </c>
       <c r="F41" s="3">
-        <v>104900</v>
+        <v>91100</v>
       </c>
       <c r="G41" s="3">
-        <v>112100</v>
+        <v>102800</v>
       </c>
       <c r="H41" s="3">
-        <v>93200</v>
+        <v>109800</v>
       </c>
       <c r="I41" s="3">
-        <v>134900</v>
+        <v>91300</v>
       </c>
       <c r="J41" s="3">
+        <v>132100</v>
+      </c>
+      <c r="K41" s="3">
         <v>116000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>107700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>114100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>96400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>79000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>67400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>55200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>32700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21700</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,13 +2903,16 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E42" s="3">
         <v>700</v>
@@ -2832,7 +2921,7 @@
         <v>700</v>
       </c>
       <c r="G42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H42" s="3">
         <v>800</v>
@@ -2849,8 +2938,8 @@
       <c r="L42" s="3">
         <v>800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
+      <c r="M42" s="3">
+        <v>800</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
@@ -2867,8 +2956,8 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2888,65 +2977,68 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>189500</v>
+        <v>189100</v>
       </c>
       <c r="E43" s="3">
-        <v>158700</v>
+        <v>185600</v>
       </c>
       <c r="F43" s="3">
-        <v>147200</v>
+        <v>155400</v>
       </c>
       <c r="G43" s="3">
-        <v>125300</v>
+        <v>144100</v>
       </c>
       <c r="H43" s="3">
-        <v>126900</v>
+        <v>122700</v>
       </c>
       <c r="I43" s="3">
-        <v>113900</v>
+        <v>124300</v>
       </c>
       <c r="J43" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K43" s="3">
         <v>108700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>107000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>93700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>91600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>84800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>84900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>80800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>68600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>64900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>64400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>59300</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2959,8 +3051,11 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3007,17 +3102,17 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>100</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
       <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
         <v>100</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3125,11 @@
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3101,65 +3199,68 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>299500</v>
+        <v>338500</v>
       </c>
       <c r="E46" s="3">
-        <v>252500</v>
+        <v>293300</v>
       </c>
       <c r="F46" s="3">
-        <v>252900</v>
+        <v>247300</v>
       </c>
       <c r="G46" s="3">
-        <v>238200</v>
+        <v>247600</v>
       </c>
       <c r="H46" s="3">
-        <v>220900</v>
+        <v>233300</v>
       </c>
       <c r="I46" s="3">
-        <v>249500</v>
+        <v>216400</v>
       </c>
       <c r="J46" s="3">
+        <v>244400</v>
+      </c>
+      <c r="K46" s="3">
         <v>225500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>215500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>208600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>188000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>163800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>152400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>136000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>88000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>77200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>97100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>81100</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,41 +3273,44 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3">
-        <v>900</v>
-      </c>
       <c r="H47" s="3">
+        <v>800</v>
+      </c>
+      <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="I47" s="3">
-        <v>900</v>
-      </c>
       <c r="J47" s="3">
+        <v>800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3216,14 +3320,14 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
@@ -3243,65 +3347,68 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>94000</v>
+        <v>89900</v>
       </c>
       <c r="E48" s="3">
-        <v>93900</v>
+        <v>92100</v>
       </c>
       <c r="F48" s="3">
-        <v>71200</v>
+        <v>91900</v>
       </c>
       <c r="G48" s="3">
-        <v>78300</v>
+        <v>69800</v>
       </c>
       <c r="H48" s="3">
-        <v>81400</v>
+        <v>76700</v>
       </c>
       <c r="I48" s="3">
-        <v>85000</v>
+        <v>79700</v>
       </c>
       <c r="J48" s="3">
+        <v>83300</v>
+      </c>
+      <c r="K48" s="3">
         <v>81500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>83000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>65700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10400</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3314,65 +3421,68 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>258700</v>
+        <v>246300</v>
       </c>
       <c r="E49" s="3">
-        <v>258200</v>
+        <v>253300</v>
       </c>
       <c r="F49" s="3">
-        <v>202800</v>
+        <v>252900</v>
       </c>
       <c r="G49" s="3">
-        <v>183300</v>
+        <v>198600</v>
       </c>
       <c r="H49" s="3">
-        <v>188700</v>
+        <v>179500</v>
       </c>
       <c r="I49" s="3">
+        <v>184800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>124800</v>
+      </c>
+      <c r="K49" s="3">
         <v>127400</v>
       </c>
-      <c r="J49" s="3">
-        <v>127400</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>124000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>89100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>90200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>93200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>96100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>94900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>92900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>89600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>93700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>41900</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3385,8 +3495,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,65 +3643,68 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31900</v>
+        <v>27900</v>
       </c>
       <c r="E52" s="3">
-        <v>24900</v>
+        <v>31200</v>
       </c>
       <c r="F52" s="3">
-        <v>17300</v>
+        <v>24300</v>
       </c>
       <c r="G52" s="3">
-        <v>18000</v>
+        <v>16900</v>
       </c>
       <c r="H52" s="3">
-        <v>21000</v>
+        <v>17700</v>
       </c>
       <c r="I52" s="3">
-        <v>17800</v>
+        <v>20600</v>
       </c>
       <c r="J52" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K52" s="3">
         <v>12400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>3300</v>
       </c>
       <c r="P52" s="3">
         <v>3300</v>
       </c>
       <c r="Q52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R52" s="3">
         <v>3200</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1200</v>
       </c>
       <c r="S52" s="3">
         <v>1200</v>
       </c>
       <c r="T52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U52" s="3">
         <v>1100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,8 +3717,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,65 +3791,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>684300</v>
+        <v>702800</v>
       </c>
       <c r="E54" s="3">
-        <v>629900</v>
+        <v>670100</v>
       </c>
       <c r="F54" s="3">
-        <v>544900</v>
+        <v>616900</v>
       </c>
       <c r="G54" s="3">
-        <v>518700</v>
+        <v>533600</v>
       </c>
       <c r="H54" s="3">
-        <v>513100</v>
+        <v>507900</v>
       </c>
       <c r="I54" s="3">
-        <v>480600</v>
+        <v>502500</v>
       </c>
       <c r="J54" s="3">
+        <v>470700</v>
+      </c>
+      <c r="K54" s="3">
         <v>448000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>439300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>378300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>305800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>275800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>265000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>246400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>195200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>178800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>203400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>134500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3740,8 +3865,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,65 +3923,66 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>114400</v>
+        <v>122600</v>
       </c>
       <c r="E57" s="3">
-        <v>104700</v>
+        <v>112100</v>
       </c>
       <c r="F57" s="3">
-        <v>87000</v>
+        <v>102500</v>
       </c>
       <c r="G57" s="3">
-        <v>84000</v>
+        <v>85200</v>
       </c>
       <c r="H57" s="3">
-        <v>88000</v>
+        <v>82300</v>
       </c>
       <c r="I57" s="3">
-        <v>78000</v>
+        <v>86100</v>
       </c>
       <c r="J57" s="3">
+        <v>76400</v>
+      </c>
+      <c r="K57" s="3">
         <v>84200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>98900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>65600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>62500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>58600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>55300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>53900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>52000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>42500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>37200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>32700</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3865,65 +3995,68 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17300</v>
+        <v>15600</v>
       </c>
       <c r="E58" s="3">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="F58" s="3">
-        <v>16200</v>
+        <v>17700</v>
       </c>
       <c r="G58" s="3">
-        <v>16200</v>
+        <v>15900</v>
       </c>
       <c r="H58" s="3">
-        <v>14800</v>
+        <v>15800</v>
       </c>
       <c r="I58" s="3">
-        <v>14800</v>
+        <v>14500</v>
       </c>
       <c r="J58" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K58" s="3">
         <v>14300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11700</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>25500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>30500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>50800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>26800</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,65 +4069,68 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24600</v>
+        <v>17000</v>
       </c>
       <c r="E59" s="3">
-        <v>14200</v>
+        <v>24100</v>
       </c>
       <c r="F59" s="3">
-        <v>9700</v>
+        <v>13900</v>
       </c>
       <c r="G59" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="L59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M59" s="3">
+        <v>8500</v>
+      </c>
+      <c r="N59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="O59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="P59" s="3">
+        <v>9500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>7600</v>
       </c>
-      <c r="H59" s="3">
-        <v>10700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>9600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>5200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>8500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>11900</v>
-      </c>
-      <c r="N59" s="3">
-        <v>6700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>9500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>7600</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>23300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4007,65 +4143,68 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>156300</v>
+        <v>155300</v>
       </c>
       <c r="E60" s="3">
-        <v>136900</v>
+        <v>153100</v>
       </c>
       <c r="F60" s="3">
-        <v>112900</v>
+        <v>134000</v>
       </c>
       <c r="G60" s="3">
-        <v>107800</v>
+        <v>110600</v>
       </c>
       <c r="H60" s="3">
-        <v>113500</v>
+        <v>105600</v>
       </c>
       <c r="I60" s="3">
-        <v>101800</v>
+        <v>111100</v>
       </c>
       <c r="J60" s="3">
+        <v>99700</v>
+      </c>
+      <c r="K60" s="3">
         <v>108200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>119700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>85800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>74400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>65300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>64900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>61500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>92000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>83900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>111300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>60000</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4078,41 +4217,44 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>63300</v>
+        <v>58200</v>
       </c>
       <c r="E61" s="3">
-        <v>66700</v>
+        <v>62000</v>
       </c>
       <c r="F61" s="3">
-        <v>46000</v>
+        <v>65400</v>
       </c>
       <c r="G61" s="3">
-        <v>52100</v>
+        <v>45100</v>
       </c>
       <c r="H61" s="3">
-        <v>54000</v>
+        <v>51000</v>
       </c>
       <c r="I61" s="3">
-        <v>56200</v>
+        <v>52900</v>
       </c>
       <c r="J61" s="3">
+        <v>55100</v>
+      </c>
+      <c r="K61" s="3">
         <v>53800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>53900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>40400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4129,13 +4271,13 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -4149,65 +4291,68 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19200</v>
+        <v>15400</v>
       </c>
       <c r="E62" s="3">
-        <v>26100</v>
+        <v>18800</v>
       </c>
       <c r="F62" s="3">
-        <v>19400</v>
+        <v>25500</v>
       </c>
       <c r="G62" s="3">
+        <v>19000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I62" s="3">
         <v>14200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K62" s="3">
+        <v>9400</v>
+      </c>
+      <c r="L62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P62" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>13400</v>
+      </c>
+      <c r="S62" s="3">
+        <v>14100</v>
+      </c>
+      <c r="T62" s="3">
         <v>14500</v>
       </c>
-      <c r="I62" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>9400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>6600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N62" s="3">
-        <v>3300</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="U62" s="3">
         <v>3800</v>
       </c>
-      <c r="P62" s="3">
-        <v>4100</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>13400</v>
-      </c>
-      <c r="R62" s="3">
-        <v>14100</v>
-      </c>
-      <c r="S62" s="3">
-        <v>14500</v>
-      </c>
-      <c r="T62" s="3">
-        <v>3800</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4365,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,65 +4587,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>238800</v>
+        <v>228900</v>
       </c>
       <c r="E66" s="3">
-        <v>229700</v>
+        <v>233900</v>
       </c>
       <c r="F66" s="3">
-        <v>178400</v>
+        <v>224900</v>
       </c>
       <c r="G66" s="3">
-        <v>174100</v>
+        <v>174700</v>
       </c>
       <c r="H66" s="3">
-        <v>182000</v>
+        <v>170500</v>
       </c>
       <c r="I66" s="3">
-        <v>166000</v>
+        <v>178200</v>
       </c>
       <c r="J66" s="3">
+        <v>162600</v>
+      </c>
+      <c r="K66" s="3">
         <v>171300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>180200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>129000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>68500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>68700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>65600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>105400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>98000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>125900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>63800</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4504,8 +4661,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,65 +4985,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>443900</v>
+        <v>466800</v>
       </c>
       <c r="E72" s="3">
-        <v>398600</v>
+        <v>434700</v>
       </c>
       <c r="F72" s="3">
-        <v>364900</v>
+        <v>390400</v>
       </c>
       <c r="G72" s="3">
-        <v>343000</v>
+        <v>357400</v>
       </c>
       <c r="H72" s="3">
-        <v>330500</v>
+        <v>335900</v>
       </c>
       <c r="I72" s="3">
-        <v>314600</v>
+        <v>323600</v>
       </c>
       <c r="J72" s="3">
+        <v>308100</v>
+      </c>
+      <c r="K72" s="3">
         <v>248800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>232200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>226700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>205700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>186900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>133700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>118200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>88000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>79000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>75700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>68800</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4886,8 +5059,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,65 +5281,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>445500</v>
+        <v>474000</v>
       </c>
       <c r="E76" s="3">
-        <v>400200</v>
+        <v>436300</v>
       </c>
       <c r="F76" s="3">
-        <v>366500</v>
+        <v>391900</v>
       </c>
       <c r="G76" s="3">
-        <v>344500</v>
+        <v>358900</v>
       </c>
       <c r="H76" s="3">
-        <v>331100</v>
+        <v>337400</v>
       </c>
       <c r="I76" s="3">
-        <v>314600</v>
+        <v>324300</v>
       </c>
       <c r="J76" s="3">
+        <v>308100</v>
+      </c>
+      <c r="K76" s="3">
         <v>276700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>259100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>249300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>228400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>207200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>196300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>180800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>89800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>80800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>77500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>70700</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5170,8 +5355,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,73 +5429,76 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5317,68 +5508,71 @@
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27300</v>
+        <v>20100</v>
       </c>
       <c r="E81" s="3">
-        <v>21200</v>
+        <v>26800</v>
       </c>
       <c r="F81" s="3">
-        <v>17300</v>
+        <v>20800</v>
       </c>
       <c r="G81" s="3">
-        <v>10400</v>
+        <v>16900</v>
       </c>
       <c r="H81" s="3">
-        <v>8900</v>
+        <v>10200</v>
       </c>
       <c r="I81" s="3">
-        <v>8100</v>
+        <v>8700</v>
       </c>
       <c r="J81" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K81" s="3">
         <v>19400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>18200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5600</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5388,8 +5582,11 @@
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,8 +5612,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5453,30 +5651,30 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
         <v>2300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5800</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3">
         <v>1700</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5486,8 +5684,11 @@
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,68 +6054,71 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26500</v>
+        <v>45600</v>
       </c>
       <c r="E89" s="3">
-        <v>46500</v>
+        <v>26000</v>
       </c>
       <c r="F89" s="3">
-        <v>15400</v>
+        <v>45500</v>
       </c>
       <c r="G89" s="3">
-        <v>27200</v>
+        <v>15100</v>
       </c>
       <c r="H89" s="3">
-        <v>28600</v>
+        <v>26600</v>
       </c>
       <c r="I89" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J89" s="3">
         <v>2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14300</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5912,8 +6128,11 @@
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,68 +6158,69 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4700</v>
+        <v>-5000</v>
       </c>
       <c r="E91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>4300</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6010,8 +6230,11 @@
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,68 +6378,71 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5400</v>
+        <v>-4900</v>
       </c>
       <c r="E94" s="3">
-        <v>-53700</v>
+        <v>-5300</v>
       </c>
       <c r="F94" s="3">
-        <v>-18700</v>
+        <v>-52600</v>
       </c>
       <c r="G94" s="3">
-        <v>-4000</v>
+        <v>-18300</v>
       </c>
       <c r="H94" s="3">
-        <v>-66200</v>
+        <v>-3900</v>
       </c>
       <c r="I94" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-37600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5000</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6223,8 +6452,11 @@
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6482,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6554,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,68 +6776,71 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5200</v>
+        <v>1200</v>
       </c>
       <c r="E100" s="3">
-        <v>-4700</v>
+        <v>-5100</v>
       </c>
       <c r="F100" s="3">
-        <v>-3700</v>
+        <v>-4600</v>
       </c>
       <c r="G100" s="3">
-        <v>-4000</v>
+        <v>-3600</v>
       </c>
       <c r="H100" s="3">
-        <v>-3600</v>
+        <v>-3900</v>
       </c>
       <c r="I100" s="3">
-        <v>18200</v>
+        <v>-3500</v>
       </c>
       <c r="J100" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>16900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>32700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>23800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-11900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3300</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6605,67 +6850,70 @@
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-400</v>
       </c>
       <c r="H101" s="3">
         <v>-400</v>
       </c>
       <c r="I101" s="3">
-        <v>500</v>
+        <v>-400</v>
       </c>
       <c r="J101" s="3">
+        <v>400</v>
+      </c>
+      <c r="K101" s="3">
         <v>2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>200</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-100</v>
       </c>
       <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
+      <c r="V101" s="3">
+        <v>-100</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>3</v>
@@ -6676,68 +6924,71 @@
       <c r="Y101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16200</v>
+        <v>41900</v>
       </c>
       <c r="E102" s="3">
-        <v>-11900</v>
+        <v>15800</v>
       </c>
       <c r="F102" s="3">
-        <v>-7200</v>
+        <v>-11700</v>
       </c>
       <c r="G102" s="3">
-        <v>18900</v>
+        <v>-7000</v>
       </c>
       <c r="H102" s="3">
-        <v>-41600</v>
+        <v>18500</v>
       </c>
       <c r="I102" s="3">
-        <v>18900</v>
+        <v>-40800</v>
       </c>
       <c r="J102" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K102" s="3">
         <v>10900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>35300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12500</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6745,6 +6996,9 @@
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -772,25 +772,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>205600</v>
+        <v>192400</v>
       </c>
       <c r="E8" s="3">
-        <v>192300</v>
+        <v>179900</v>
       </c>
       <c r="F8" s="3">
-        <v>174200</v>
+        <v>163000</v>
       </c>
       <c r="G8" s="3">
-        <v>146400</v>
+        <v>137000</v>
       </c>
       <c r="H8" s="3">
-        <v>137100</v>
+        <v>128300</v>
       </c>
       <c r="I8" s="3">
-        <v>124000</v>
+        <v>116000</v>
       </c>
       <c r="J8" s="3">
-        <v>118000</v>
+        <v>110400</v>
       </c>
       <c r="K8" s="3">
         <v>122700</v>
@@ -846,25 +846,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>137700</v>
+        <v>128800</v>
       </c>
       <c r="E9" s="3">
-        <v>123500</v>
+        <v>115600</v>
       </c>
       <c r="F9" s="3">
-        <v>115100</v>
+        <v>107700</v>
       </c>
       <c r="G9" s="3">
-        <v>96200</v>
+        <v>90000</v>
       </c>
       <c r="H9" s="3">
-        <v>88900</v>
+        <v>83200</v>
       </c>
       <c r="I9" s="3">
-        <v>81100</v>
+        <v>75900</v>
       </c>
       <c r="J9" s="3">
-        <v>82700</v>
+        <v>77400</v>
       </c>
       <c r="K9" s="3">
         <v>75200</v>
@@ -920,25 +920,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>67900</v>
+        <v>63500</v>
       </c>
       <c r="E10" s="3">
-        <v>68700</v>
+        <v>64300</v>
       </c>
       <c r="F10" s="3">
-        <v>59100</v>
+        <v>55300</v>
       </c>
       <c r="G10" s="3">
-        <v>50200</v>
+        <v>47000</v>
       </c>
       <c r="H10" s="3">
-        <v>48300</v>
+        <v>45200</v>
       </c>
       <c r="I10" s="3">
-        <v>42900</v>
+        <v>40100</v>
       </c>
       <c r="J10" s="3">
-        <v>35300</v>
+        <v>33000</v>
       </c>
       <c r="K10" s="3">
         <v>47500</v>
@@ -1173,7 +1173,7 @@
         <v>800</v>
       </c>
       <c r="E14" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="E15" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="H15" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I15" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1343,25 +1343,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>180200</v>
+        <v>168600</v>
       </c>
       <c r="E17" s="3">
-        <v>161100</v>
+        <v>150800</v>
       </c>
       <c r="F17" s="3">
-        <v>148400</v>
+        <v>138900</v>
       </c>
       <c r="G17" s="3">
-        <v>122900</v>
+        <v>115000</v>
       </c>
       <c r="H17" s="3">
-        <v>118900</v>
+        <v>111200</v>
       </c>
       <c r="I17" s="3">
-        <v>108800</v>
+        <v>101800</v>
       </c>
       <c r="J17" s="3">
-        <v>109000</v>
+        <v>102000</v>
       </c>
       <c r="K17" s="3">
         <v>104000</v>
@@ -1417,25 +1417,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>25400</v>
+        <v>23700</v>
       </c>
       <c r="E18" s="3">
-        <v>31200</v>
+        <v>29200</v>
       </c>
       <c r="F18" s="3">
-        <v>25800</v>
+        <v>24100</v>
       </c>
       <c r="G18" s="3">
-        <v>23500</v>
+        <v>22000</v>
       </c>
       <c r="H18" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="I18" s="3">
-        <v>15200</v>
+        <v>14200</v>
       </c>
       <c r="J18" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="K18" s="3">
         <v>18800</v>
@@ -1522,19 +1522,19 @@
         <v>-500</v>
       </c>
       <c r="E20" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F20" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="G20" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H20" s="3">
-        <v>-4500</v>
+        <v>-4200</v>
       </c>
       <c r="I20" s="3">
-        <v>-3800</v>
+        <v>-3500</v>
       </c>
       <c r="J20" s="3">
         <v>-200</v>
@@ -1593,25 +1593,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>25200</v>
+        <v>23600</v>
       </c>
       <c r="E21" s="3">
-        <v>41600</v>
+        <v>38900</v>
       </c>
       <c r="F21" s="3">
-        <v>26600</v>
+        <v>24900</v>
       </c>
       <c r="G21" s="3">
-        <v>20200</v>
+        <v>18900</v>
       </c>
       <c r="H21" s="3">
-        <v>14800</v>
+        <v>13800</v>
       </c>
       <c r="I21" s="3">
-        <v>18300</v>
+        <v>17200</v>
       </c>
       <c r="J21" s="3">
-        <v>9100</v>
+        <v>8500</v>
       </c>
       <c r="K21" s="3">
         <v>24700</v>
@@ -1741,25 +1741,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24900</v>
+        <v>23300</v>
       </c>
       <c r="E23" s="3">
-        <v>32500</v>
+        <v>30400</v>
       </c>
       <c r="F23" s="3">
-        <v>24100</v>
+        <v>22600</v>
       </c>
       <c r="G23" s="3">
-        <v>21500</v>
+        <v>20100</v>
       </c>
       <c r="H23" s="3">
-        <v>13800</v>
+        <v>12900</v>
       </c>
       <c r="I23" s="3">
-        <v>11400</v>
+        <v>10600</v>
       </c>
       <c r="J23" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="K23" s="3">
         <v>24400</v>
@@ -1815,22 +1815,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="E24" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="F24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H24" s="3">
         <v>3400</v>
       </c>
-      <c r="G24" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3700</v>
-      </c>
       <c r="I24" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J24" s="3">
         <v>800</v>
@@ -1963,25 +1963,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="E26" s="3">
-        <v>26800</v>
+        <v>25100</v>
       </c>
       <c r="F26" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="G26" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="H26" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="I26" s="3">
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="J26" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="K26" s="3">
         <v>19400</v>
@@ -2037,25 +2037,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="E27" s="3">
-        <v>26800</v>
+        <v>25100</v>
       </c>
       <c r="F27" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="G27" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="H27" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="I27" s="3">
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="J27" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="K27" s="3">
         <v>19400</v>
@@ -2410,19 +2410,19 @@
         <v>500</v>
       </c>
       <c r="E32" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="F32" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G32" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H32" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="I32" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="J32" s="3">
         <v>200</v>
@@ -2481,25 +2481,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="E33" s="3">
-        <v>26800</v>
+        <v>25100</v>
       </c>
       <c r="F33" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="G33" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="H33" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="I33" s="3">
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="J33" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="K33" s="3">
         <v>19400</v>
@@ -2629,25 +2629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="E35" s="3">
-        <v>26800</v>
+        <v>25100</v>
       </c>
       <c r="F35" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="G35" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="H35" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="I35" s="3">
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="J35" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="K35" s="3">
         <v>19400</v>
@@ -2838,25 +2838,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>148800</v>
+        <v>139300</v>
       </c>
       <c r="E41" s="3">
-        <v>106900</v>
+        <v>100100</v>
       </c>
       <c r="F41" s="3">
-        <v>91100</v>
+        <v>85300</v>
       </c>
       <c r="G41" s="3">
-        <v>102800</v>
+        <v>96200</v>
       </c>
       <c r="H41" s="3">
-        <v>109800</v>
+        <v>102700</v>
       </c>
       <c r="I41" s="3">
-        <v>91300</v>
+        <v>85400</v>
       </c>
       <c r="J41" s="3">
-        <v>132100</v>
+        <v>123600</v>
       </c>
       <c r="K41" s="3">
         <v>116000</v>
@@ -2912,7 +2912,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E42" s="3">
         <v>700</v>
@@ -2924,13 +2924,13 @@
         <v>700</v>
       </c>
       <c r="H42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K42" s="3">
         <v>800</v>
@@ -2986,25 +2986,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>189100</v>
+        <v>176900</v>
       </c>
       <c r="E43" s="3">
-        <v>185600</v>
+        <v>173700</v>
       </c>
       <c r="F43" s="3">
-        <v>155400</v>
+        <v>145500</v>
       </c>
       <c r="G43" s="3">
-        <v>144100</v>
+        <v>134900</v>
       </c>
       <c r="H43" s="3">
-        <v>122700</v>
+        <v>114800</v>
       </c>
       <c r="I43" s="3">
-        <v>124300</v>
+        <v>116300</v>
       </c>
       <c r="J43" s="3">
-        <v>111500</v>
+        <v>104300</v>
       </c>
       <c r="K43" s="3">
         <v>108700</v>
@@ -3208,25 +3208,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>338500</v>
+        <v>316800</v>
       </c>
       <c r="E46" s="3">
-        <v>293300</v>
+        <v>274400</v>
       </c>
       <c r="F46" s="3">
-        <v>247300</v>
+        <v>231400</v>
       </c>
       <c r="G46" s="3">
-        <v>247600</v>
+        <v>231700</v>
       </c>
       <c r="H46" s="3">
-        <v>233300</v>
+        <v>218300</v>
       </c>
       <c r="I46" s="3">
-        <v>216400</v>
+        <v>202500</v>
       </c>
       <c r="J46" s="3">
-        <v>244400</v>
+        <v>228700</v>
       </c>
       <c r="K46" s="3">
         <v>225500</v>
@@ -3288,16 +3288,16 @@
         <v>300</v>
       </c>
       <c r="F47" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G47" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H47" s="3">
         <v>800</v>
       </c>
       <c r="I47" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J47" s="3">
         <v>800</v>
@@ -3356,25 +3356,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>89900</v>
+        <v>84100</v>
       </c>
       <c r="E48" s="3">
-        <v>92100</v>
+        <v>86100</v>
       </c>
       <c r="F48" s="3">
-        <v>91900</v>
+        <v>86000</v>
       </c>
       <c r="G48" s="3">
-        <v>69800</v>
+        <v>65300</v>
       </c>
       <c r="H48" s="3">
-        <v>76700</v>
+        <v>71800</v>
       </c>
       <c r="I48" s="3">
-        <v>79700</v>
+        <v>74600</v>
       </c>
       <c r="J48" s="3">
-        <v>83300</v>
+        <v>77900</v>
       </c>
       <c r="K48" s="3">
         <v>81500</v>
@@ -3430,25 +3430,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>246300</v>
+        <v>230500</v>
       </c>
       <c r="E49" s="3">
-        <v>253300</v>
+        <v>237100</v>
       </c>
       <c r="F49" s="3">
-        <v>252900</v>
+        <v>236600</v>
       </c>
       <c r="G49" s="3">
-        <v>198600</v>
+        <v>185900</v>
       </c>
       <c r="H49" s="3">
-        <v>179500</v>
+        <v>168000</v>
       </c>
       <c r="I49" s="3">
-        <v>184800</v>
+        <v>172900</v>
       </c>
       <c r="J49" s="3">
-        <v>124800</v>
+        <v>116800</v>
       </c>
       <c r="K49" s="3">
         <v>127400</v>
@@ -3652,25 +3652,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27900</v>
+        <v>26100</v>
       </c>
       <c r="E52" s="3">
-        <v>31200</v>
+        <v>29200</v>
       </c>
       <c r="F52" s="3">
-        <v>24300</v>
+        <v>22800</v>
       </c>
       <c r="G52" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="H52" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="I52" s="3">
-        <v>20600</v>
+        <v>19300</v>
       </c>
       <c r="J52" s="3">
-        <v>17400</v>
+        <v>16300</v>
       </c>
       <c r="K52" s="3">
         <v>12400</v>
@@ -3800,25 +3800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>702800</v>
+        <v>657700</v>
       </c>
       <c r="E54" s="3">
-        <v>670100</v>
+        <v>627100</v>
       </c>
       <c r="F54" s="3">
-        <v>616900</v>
+        <v>577300</v>
       </c>
       <c r="G54" s="3">
-        <v>533600</v>
+        <v>499400</v>
       </c>
       <c r="H54" s="3">
-        <v>507900</v>
+        <v>475300</v>
       </c>
       <c r="I54" s="3">
-        <v>502500</v>
+        <v>470200</v>
       </c>
       <c r="J54" s="3">
-        <v>470700</v>
+        <v>440400</v>
       </c>
       <c r="K54" s="3">
         <v>448000</v>
@@ -3930,25 +3930,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>122600</v>
+        <v>114700</v>
       </c>
       <c r="E57" s="3">
-        <v>112100</v>
+        <v>104900</v>
       </c>
       <c r="F57" s="3">
-        <v>102500</v>
+        <v>95900</v>
       </c>
       <c r="G57" s="3">
-        <v>85200</v>
+        <v>79800</v>
       </c>
       <c r="H57" s="3">
-        <v>82300</v>
+        <v>77000</v>
       </c>
       <c r="I57" s="3">
-        <v>86100</v>
+        <v>80600</v>
       </c>
       <c r="J57" s="3">
-        <v>76400</v>
+        <v>71500</v>
       </c>
       <c r="K57" s="3">
         <v>84200</v>
@@ -4004,25 +4004,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="E58" s="3">
-        <v>17000</v>
+        <v>15900</v>
       </c>
       <c r="F58" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="G58" s="3">
-        <v>15900</v>
+        <v>14800</v>
       </c>
       <c r="H58" s="3">
-        <v>15800</v>
+        <v>14800</v>
       </c>
       <c r="I58" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="J58" s="3">
-        <v>14500</v>
+        <v>13600</v>
       </c>
       <c r="K58" s="3">
         <v>14300</v>
@@ -4078,25 +4078,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="E59" s="3">
-        <v>24100</v>
+        <v>22500</v>
       </c>
       <c r="F59" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="G59" s="3">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="H59" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="I59" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="J59" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="K59" s="3">
         <v>9600</v>
@@ -4152,25 +4152,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>155300</v>
+        <v>145300</v>
       </c>
       <c r="E60" s="3">
-        <v>153100</v>
+        <v>143300</v>
       </c>
       <c r="F60" s="3">
-        <v>134000</v>
+        <v>125400</v>
       </c>
       <c r="G60" s="3">
-        <v>110600</v>
+        <v>103500</v>
       </c>
       <c r="H60" s="3">
-        <v>105600</v>
+        <v>98800</v>
       </c>
       <c r="I60" s="3">
-        <v>111100</v>
+        <v>104000</v>
       </c>
       <c r="J60" s="3">
-        <v>99700</v>
+        <v>93300</v>
       </c>
       <c r="K60" s="3">
         <v>108200</v>
@@ -4226,25 +4226,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>58200</v>
+        <v>54500</v>
       </c>
       <c r="E61" s="3">
-        <v>62000</v>
+        <v>58000</v>
       </c>
       <c r="F61" s="3">
-        <v>65400</v>
+        <v>61200</v>
       </c>
       <c r="G61" s="3">
-        <v>45100</v>
+        <v>42200</v>
       </c>
       <c r="H61" s="3">
-        <v>51000</v>
+        <v>47700</v>
       </c>
       <c r="I61" s="3">
-        <v>52900</v>
+        <v>49500</v>
       </c>
       <c r="J61" s="3">
-        <v>55100</v>
+        <v>51500</v>
       </c>
       <c r="K61" s="3">
         <v>53800</v>
@@ -4300,25 +4300,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15400</v>
+        <v>14400</v>
       </c>
       <c r="E62" s="3">
-        <v>18800</v>
+        <v>17600</v>
       </c>
       <c r="F62" s="3">
-        <v>25500</v>
+        <v>23900</v>
       </c>
       <c r="G62" s="3">
-        <v>19000</v>
+        <v>17800</v>
       </c>
       <c r="H62" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="I62" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="J62" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="K62" s="3">
         <v>9400</v>
@@ -4596,25 +4596,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>228900</v>
+        <v>214200</v>
       </c>
       <c r="E66" s="3">
-        <v>233900</v>
+        <v>218800</v>
       </c>
       <c r="F66" s="3">
-        <v>224900</v>
+        <v>210500</v>
       </c>
       <c r="G66" s="3">
-        <v>174700</v>
+        <v>163500</v>
       </c>
       <c r="H66" s="3">
-        <v>170500</v>
+        <v>159600</v>
       </c>
       <c r="I66" s="3">
-        <v>178200</v>
+        <v>166800</v>
       </c>
       <c r="J66" s="3">
-        <v>162600</v>
+        <v>152200</v>
       </c>
       <c r="K66" s="3">
         <v>171300</v>
@@ -4994,25 +4994,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>466800</v>
+        <v>436800</v>
       </c>
       <c r="E72" s="3">
-        <v>434700</v>
+        <v>406800</v>
       </c>
       <c r="F72" s="3">
-        <v>390400</v>
+        <v>365300</v>
       </c>
       <c r="G72" s="3">
-        <v>357400</v>
+        <v>334400</v>
       </c>
       <c r="H72" s="3">
-        <v>335900</v>
+        <v>314400</v>
       </c>
       <c r="I72" s="3">
-        <v>323600</v>
+        <v>302900</v>
       </c>
       <c r="J72" s="3">
-        <v>308100</v>
+        <v>288300</v>
       </c>
       <c r="K72" s="3">
         <v>248800</v>
@@ -5290,25 +5290,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>474000</v>
+        <v>443600</v>
       </c>
       <c r="E76" s="3">
-        <v>436300</v>
+        <v>408300</v>
       </c>
       <c r="F76" s="3">
-        <v>391900</v>
+        <v>366800</v>
       </c>
       <c r="G76" s="3">
-        <v>358900</v>
+        <v>335900</v>
       </c>
       <c r="H76" s="3">
-        <v>337400</v>
+        <v>315800</v>
       </c>
       <c r="I76" s="3">
-        <v>324300</v>
+        <v>303500</v>
       </c>
       <c r="J76" s="3">
-        <v>308100</v>
+        <v>288300</v>
       </c>
       <c r="K76" s="3">
         <v>276700</v>
@@ -5517,25 +5517,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="E81" s="3">
-        <v>26800</v>
+        <v>25100</v>
       </c>
       <c r="F81" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="G81" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="H81" s="3">
-        <v>10200</v>
+        <v>9500</v>
       </c>
       <c r="I81" s="3">
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="J81" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="K81" s="3">
         <v>19400</v>
@@ -6063,25 +6063,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45600</v>
+        <v>42700</v>
       </c>
       <c r="E89" s="3">
-        <v>26000</v>
+        <v>24300</v>
       </c>
       <c r="F89" s="3">
-        <v>45500</v>
+        <v>42600</v>
       </c>
       <c r="G89" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="H89" s="3">
-        <v>26600</v>
+        <v>24900</v>
       </c>
       <c r="I89" s="3">
-        <v>28000</v>
+        <v>26200</v>
       </c>
       <c r="J89" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="K89" s="3">
         <v>15800</v>
@@ -6165,25 +6165,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5000</v>
+        <v>-4700</v>
       </c>
       <c r="E91" s="3">
-        <v>-4600</v>
+        <v>-4300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="I91" s="3">
         <v>-800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="K91" s="3">
         <v>-3000</v>
@@ -6387,25 +6387,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4900</v>
       </c>
-      <c r="E94" s="3">
-        <v>-5300</v>
-      </c>
       <c r="F94" s="3">
-        <v>-52600</v>
+        <v>-49200</v>
       </c>
       <c r="G94" s="3">
-        <v>-18300</v>
+        <v>-17100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="I94" s="3">
-        <v>-64800</v>
+        <v>-60700</v>
       </c>
       <c r="J94" s="3">
-        <v>-2300</v>
+        <v>-2100</v>
       </c>
       <c r="K94" s="3">
         <v>-2200</v>
@@ -6785,25 +6785,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E100" s="3">
-        <v>-5100</v>
+        <v>-4800</v>
       </c>
       <c r="F100" s="3">
-        <v>-4600</v>
+        <v>-4300</v>
       </c>
       <c r="G100" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H100" s="3">
         <v>-3600</v>
       </c>
-      <c r="H100" s="3">
-        <v>-3900</v>
-      </c>
       <c r="I100" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="J100" s="3">
-        <v>17800</v>
+        <v>16700</v>
       </c>
       <c r="K100" s="3">
         <v>-4800</v>
@@ -6871,7 +6871,7 @@
         <v>-200</v>
       </c>
       <c r="H101" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I101" s="3">
         <v>-400</v>
@@ -6933,25 +6933,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>41900</v>
+        <v>39200</v>
       </c>
       <c r="E102" s="3">
-        <v>15800</v>
+        <v>14800</v>
       </c>
       <c r="F102" s="3">
-        <v>-11700</v>
+        <v>-10900</v>
       </c>
       <c r="G102" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="H102" s="3">
-        <v>18500</v>
+        <v>17300</v>
       </c>
       <c r="I102" s="3">
-        <v>-40800</v>
+        <v>-38200</v>
       </c>
       <c r="J102" s="3">
-        <v>18500</v>
+        <v>17300</v>
       </c>
       <c r="K102" s="3">
         <v>10900</v>

--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,99 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
@@ -766,71 +767,74 @@
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>192400</v>
+        <v>200100</v>
       </c>
       <c r="E8" s="3">
-        <v>179900</v>
+        <v>186500</v>
       </c>
       <c r="F8" s="3">
-        <v>163000</v>
+        <v>174500</v>
       </c>
       <c r="G8" s="3">
-        <v>137000</v>
+        <v>158000</v>
       </c>
       <c r="H8" s="3">
-        <v>128300</v>
+        <v>132800</v>
       </c>
       <c r="I8" s="3">
-        <v>116000</v>
+        <v>124400</v>
       </c>
       <c r="J8" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K8" s="3">
         <v>110400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>122700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>117100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>112400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>105200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>97300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>94800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>87700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>79500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>201800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>65200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>62000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>56100</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
@@ -840,71 +844,74 @@
       <c r="Z8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>128800</v>
+        <v>134600</v>
       </c>
       <c r="E9" s="3">
-        <v>115600</v>
+        <v>124900</v>
       </c>
       <c r="F9" s="3">
-        <v>107700</v>
+        <v>112100</v>
       </c>
       <c r="G9" s="3">
-        <v>90000</v>
+        <v>104400</v>
       </c>
       <c r="H9" s="3">
-        <v>83200</v>
+        <v>87300</v>
       </c>
       <c r="I9" s="3">
-        <v>75900</v>
+        <v>80700</v>
       </c>
       <c r="J9" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K9" s="3">
         <v>77400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>75200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>106700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>71900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>69600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>64000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>61300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>58000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>51800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>136200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>44400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>42200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>38000</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
@@ -914,71 +921,74 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>63500</v>
+        <v>65500</v>
       </c>
       <c r="E10" s="3">
-        <v>64300</v>
+        <v>61600</v>
       </c>
       <c r="F10" s="3">
-        <v>55300</v>
+        <v>62400</v>
       </c>
       <c r="G10" s="3">
-        <v>47000</v>
+        <v>53600</v>
       </c>
       <c r="H10" s="3">
-        <v>45200</v>
+        <v>45500</v>
       </c>
       <c r="I10" s="3">
-        <v>40100</v>
+        <v>43800</v>
       </c>
       <c r="J10" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K10" s="3">
         <v>33000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>47500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>40500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>27700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>65600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>20900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>19700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18100</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
@@ -988,8 +998,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1016,8 +1029,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1090,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,20 +1181,23 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1197,11 +1217,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-3000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1211,24 +1231,24 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1600</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="3">
         <v>500</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1238,50 +1258,53 @@
       <c r="Z14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="E15" s="3">
         <v>3700</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>2200</v>
       </c>
-      <c r="I15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1900</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
         <v>1300</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1291,8 +1314,8 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1312,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,71 +1363,72 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>168600</v>
+        <v>170100</v>
       </c>
       <c r="E17" s="3">
-        <v>150800</v>
+        <v>163500</v>
       </c>
       <c r="F17" s="3">
-        <v>138900</v>
+        <v>146200</v>
       </c>
       <c r="G17" s="3">
-        <v>115000</v>
+        <v>134700</v>
       </c>
       <c r="H17" s="3">
-        <v>111200</v>
+        <v>111500</v>
       </c>
       <c r="I17" s="3">
-        <v>101800</v>
+        <v>107900</v>
       </c>
       <c r="J17" s="3">
+        <v>98700</v>
+      </c>
+      <c r="K17" s="3">
         <v>102000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>104000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>132800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>92500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>93300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>87400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>82900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>77400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>71200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>177300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>57200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>52900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>47800</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,71 +1438,74 @@
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23700</v>
+        <v>30000</v>
       </c>
       <c r="E18" s="3">
-        <v>29200</v>
+        <v>23000</v>
       </c>
       <c r="F18" s="3">
-        <v>24100</v>
+        <v>28300</v>
       </c>
       <c r="G18" s="3">
-        <v>22000</v>
+        <v>23400</v>
       </c>
       <c r="H18" s="3">
-        <v>17100</v>
+        <v>21300</v>
       </c>
       <c r="I18" s="3">
-        <v>14200</v>
+        <v>16600</v>
       </c>
       <c r="J18" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K18" s="3">
         <v>8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8200</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1485,8 +1515,11 @@
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,71 +1546,72 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H20" s="3">
-        <v>-4200</v>
+        <v>-1800</v>
       </c>
       <c r="I20" s="3">
-        <v>-3500</v>
+        <v>-4000</v>
       </c>
       <c r="J20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,71 +1621,74 @@
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>23600</v>
+        <v>31000</v>
       </c>
       <c r="E21" s="3">
-        <v>38900</v>
+        <v>22800</v>
       </c>
       <c r="F21" s="3">
-        <v>24900</v>
+        <v>37700</v>
       </c>
       <c r="G21" s="3">
-        <v>18900</v>
+        <v>24200</v>
       </c>
       <c r="H21" s="3">
-        <v>13800</v>
+        <v>18300</v>
       </c>
       <c r="I21" s="3">
-        <v>17200</v>
+        <v>13400</v>
       </c>
       <c r="J21" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K21" s="3">
         <v>8500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-22900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>29000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1661,8 +1698,11 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1735,71 +1775,74 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23300</v>
+        <v>30600</v>
       </c>
       <c r="E23" s="3">
-        <v>30400</v>
+        <v>22600</v>
       </c>
       <c r="F23" s="3">
-        <v>22600</v>
+        <v>29500</v>
       </c>
       <c r="G23" s="3">
-        <v>20100</v>
+        <v>21900</v>
       </c>
       <c r="H23" s="3">
-        <v>12900</v>
+        <v>19500</v>
       </c>
       <c r="I23" s="3">
-        <v>10600</v>
+        <v>12500</v>
       </c>
       <c r="J23" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K23" s="3">
         <v>8200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-23500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>23200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7200</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,71 +1852,74 @@
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4500</v>
+        <v>6800</v>
       </c>
       <c r="E24" s="3">
-        <v>5300</v>
+        <v>4300</v>
       </c>
       <c r="F24" s="3">
-        <v>3100</v>
+        <v>5200</v>
       </c>
       <c r="G24" s="3">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="H24" s="3">
-        <v>3400</v>
+        <v>4200</v>
       </c>
       <c r="I24" s="3">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="J24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1600</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1883,8 +1929,11 @@
       <c r="Z24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,71 +2006,74 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18800</v>
+        <v>23800</v>
       </c>
       <c r="E26" s="3">
-        <v>25100</v>
+        <v>18200</v>
       </c>
       <c r="F26" s="3">
-        <v>19500</v>
+        <v>24300</v>
       </c>
       <c r="G26" s="3">
-        <v>15800</v>
+        <v>18900</v>
       </c>
       <c r="H26" s="3">
-        <v>9500</v>
+        <v>15400</v>
       </c>
       <c r="I26" s="3">
-        <v>8200</v>
+        <v>9200</v>
       </c>
       <c r="J26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K26" s="3">
         <v>7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5600</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2031,71 +2083,74 @@
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18800</v>
+        <v>23800</v>
       </c>
       <c r="E27" s="3">
-        <v>25100</v>
+        <v>18200</v>
       </c>
       <c r="F27" s="3">
-        <v>19500</v>
+        <v>24300</v>
       </c>
       <c r="G27" s="3">
-        <v>15800</v>
+        <v>18900</v>
       </c>
       <c r="H27" s="3">
-        <v>9500</v>
+        <v>15400</v>
       </c>
       <c r="I27" s="3">
-        <v>8200</v>
+        <v>9200</v>
       </c>
       <c r="J27" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K27" s="3">
         <v>7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5600</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2105,8 +2160,11 @@
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2253,8 +2314,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,71 +2468,74 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
-        <v>1900</v>
-      </c>
       <c r="H32" s="3">
-        <v>4200</v>
+        <v>1800</v>
       </c>
       <c r="I32" s="3">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="J32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,71 +2545,74 @@
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18800</v>
+        <v>23800</v>
       </c>
       <c r="E33" s="3">
-        <v>25100</v>
+        <v>18200</v>
       </c>
       <c r="F33" s="3">
-        <v>19500</v>
+        <v>24300</v>
       </c>
       <c r="G33" s="3">
-        <v>15800</v>
+        <v>18900</v>
       </c>
       <c r="H33" s="3">
-        <v>9500</v>
+        <v>15400</v>
       </c>
       <c r="I33" s="3">
-        <v>8200</v>
+        <v>9200</v>
       </c>
       <c r="J33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K33" s="3">
         <v>7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5600</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,8 +2622,11 @@
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,71 +2699,74 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18800</v>
+        <v>23800</v>
       </c>
       <c r="E35" s="3">
-        <v>25100</v>
+        <v>18200</v>
       </c>
       <c r="F35" s="3">
-        <v>19500</v>
+        <v>24300</v>
       </c>
       <c r="G35" s="3">
-        <v>15800</v>
+        <v>18900</v>
       </c>
       <c r="H35" s="3">
-        <v>9500</v>
+        <v>15400</v>
       </c>
       <c r="I35" s="3">
-        <v>8200</v>
+        <v>9200</v>
       </c>
       <c r="J35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K35" s="3">
         <v>7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5600</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2697,76 +2776,79 @@
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2776,8 +2858,11 @@
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,68 +2918,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>139300</v>
+        <v>142400</v>
       </c>
       <c r="E41" s="3">
-        <v>100100</v>
+        <v>135100</v>
       </c>
       <c r="F41" s="3">
-        <v>85300</v>
+        <v>97000</v>
       </c>
       <c r="G41" s="3">
-        <v>96200</v>
+        <v>82700</v>
       </c>
       <c r="H41" s="3">
-        <v>102700</v>
+        <v>93300</v>
       </c>
       <c r="I41" s="3">
-        <v>85400</v>
+        <v>99600</v>
       </c>
       <c r="J41" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K41" s="3">
         <v>123600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>116000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>107700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>114100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>96400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>79000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>67400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>55200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>32700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21700</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,16 +2993,19 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>400</v>
+      </c>
+      <c r="E42" s="3">
         <v>500</v>
-      </c>
-      <c r="E42" s="3">
-        <v>700</v>
       </c>
       <c r="F42" s="3">
         <v>700</v>
@@ -2933,7 +3023,7 @@
         <v>700</v>
       </c>
       <c r="K42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L42" s="3">
         <v>800</v>
@@ -2941,8 +3031,8 @@
       <c r="M42" s="3">
         <v>800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
+      <c r="N42" s="3">
+        <v>800</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
@@ -2959,8 +3049,8 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2980,68 +3070,71 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>176900</v>
+        <v>190200</v>
       </c>
       <c r="E43" s="3">
-        <v>173700</v>
+        <v>171600</v>
       </c>
       <c r="F43" s="3">
-        <v>145500</v>
+        <v>168400</v>
       </c>
       <c r="G43" s="3">
-        <v>134900</v>
+        <v>141100</v>
       </c>
       <c r="H43" s="3">
-        <v>114800</v>
+        <v>130800</v>
       </c>
       <c r="I43" s="3">
-        <v>116300</v>
+        <v>111400</v>
       </c>
       <c r="J43" s="3">
+        <v>112800</v>
+      </c>
+      <c r="K43" s="3">
         <v>104300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>108700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>107000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>93700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>91600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>84800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>84900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>80800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>68600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>64900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>64400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>59300</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3147,11 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3105,17 +3201,17 @@
         <v>0</v>
       </c>
       <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
         <v>100</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
       <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
         <v>100</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3128,8 +3224,11 @@
       <c r="Z44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3202,68 +3301,71 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>316800</v>
+        <v>333100</v>
       </c>
       <c r="E46" s="3">
-        <v>274400</v>
+        <v>307100</v>
       </c>
       <c r="F46" s="3">
-        <v>231400</v>
+        <v>266100</v>
       </c>
       <c r="G46" s="3">
-        <v>231700</v>
+        <v>224400</v>
       </c>
       <c r="H46" s="3">
-        <v>218300</v>
+        <v>224700</v>
       </c>
       <c r="I46" s="3">
-        <v>202500</v>
+        <v>211700</v>
       </c>
       <c r="J46" s="3">
+        <v>196300</v>
+      </c>
+      <c r="K46" s="3">
         <v>228700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>225500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>215500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>208600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>188000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>163800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>152400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>136000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>88000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>77200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>97100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>81100</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3276,8 +3378,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3285,35 +3390,35 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
+        <v>200</v>
+      </c>
+      <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3323,14 +3428,14 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
@@ -3350,68 +3455,71 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>84100</v>
+        <v>82200</v>
       </c>
       <c r="E48" s="3">
-        <v>86100</v>
+        <v>81600</v>
       </c>
       <c r="F48" s="3">
-        <v>86000</v>
+        <v>83500</v>
       </c>
       <c r="G48" s="3">
-        <v>65300</v>
+        <v>83400</v>
       </c>
       <c r="H48" s="3">
-        <v>71800</v>
+        <v>63300</v>
       </c>
       <c r="I48" s="3">
-        <v>74600</v>
+        <v>69600</v>
       </c>
       <c r="J48" s="3">
+        <v>72400</v>
+      </c>
+      <c r="K48" s="3">
         <v>77900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>81500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>83000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>65700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10400</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3424,68 +3532,71 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>230500</v>
+        <v>239500</v>
       </c>
       <c r="E49" s="3">
-        <v>237100</v>
+        <v>223500</v>
       </c>
       <c r="F49" s="3">
-        <v>236600</v>
+        <v>229900</v>
       </c>
       <c r="G49" s="3">
-        <v>185900</v>
+        <v>229400</v>
       </c>
       <c r="H49" s="3">
-        <v>168000</v>
+        <v>180200</v>
       </c>
       <c r="I49" s="3">
-        <v>172900</v>
+        <v>162900</v>
       </c>
       <c r="J49" s="3">
+        <v>167700</v>
+      </c>
+      <c r="K49" s="3">
         <v>116800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>127400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>124000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>89100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>90200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>93200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>96100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>94900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>92900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>89600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>93700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>41900</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3498,8 +3609,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,68 +3763,71 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26100</v>
+        <v>21200</v>
       </c>
       <c r="E52" s="3">
-        <v>29200</v>
+        <v>25300</v>
       </c>
       <c r="F52" s="3">
-        <v>22800</v>
+        <v>28300</v>
       </c>
       <c r="G52" s="3">
-        <v>15800</v>
+        <v>22100</v>
       </c>
       <c r="H52" s="3">
-        <v>16500</v>
+        <v>15300</v>
       </c>
       <c r="I52" s="3">
-        <v>19300</v>
+        <v>16000</v>
       </c>
       <c r="J52" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K52" s="3">
         <v>16300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>3300</v>
       </c>
       <c r="Q52" s="3">
         <v>3300</v>
       </c>
       <c r="R52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S52" s="3">
         <v>3200</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1200</v>
       </c>
       <c r="T52" s="3">
         <v>1200</v>
       </c>
       <c r="U52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V52" s="3">
         <v>1100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3720,8 +3840,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,68 +3917,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>657700</v>
+        <v>676200</v>
       </c>
       <c r="E54" s="3">
-        <v>627100</v>
+        <v>637800</v>
       </c>
       <c r="F54" s="3">
-        <v>577300</v>
+        <v>608100</v>
       </c>
       <c r="G54" s="3">
-        <v>499400</v>
+        <v>559800</v>
       </c>
       <c r="H54" s="3">
-        <v>475300</v>
+        <v>484200</v>
       </c>
       <c r="I54" s="3">
-        <v>470200</v>
+        <v>460900</v>
       </c>
       <c r="J54" s="3">
+        <v>456000</v>
+      </c>
+      <c r="K54" s="3">
         <v>440400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>448000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>439300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>378300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>305800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>275800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>265000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>246400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>195200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>178800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>203400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>134500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +3994,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,68 +4054,69 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>114700</v>
+        <v>105100</v>
       </c>
       <c r="E57" s="3">
-        <v>104900</v>
+        <v>111300</v>
       </c>
       <c r="F57" s="3">
-        <v>95900</v>
+        <v>101700</v>
       </c>
       <c r="G57" s="3">
-        <v>79800</v>
+        <v>93000</v>
       </c>
       <c r="H57" s="3">
-        <v>77000</v>
+        <v>77300</v>
       </c>
       <c r="I57" s="3">
-        <v>80600</v>
+        <v>74700</v>
       </c>
       <c r="J57" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K57" s="3">
         <v>71500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>84200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>98900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>65600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>62500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>58600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>55300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>53900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>52000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>42500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>37200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>32700</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,68 +4129,71 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="E58" s="3">
-        <v>15900</v>
+        <v>14100</v>
       </c>
       <c r="F58" s="3">
-        <v>16500</v>
+        <v>15400</v>
       </c>
       <c r="G58" s="3">
-        <v>14800</v>
+        <v>16000</v>
       </c>
       <c r="H58" s="3">
-        <v>14800</v>
+        <v>14400</v>
       </c>
       <c r="I58" s="3">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="J58" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K58" s="3">
         <v>13600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11700</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
         <v>25500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>30500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>50800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>26800</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4072,68 +4206,71 @@
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16000</v>
+        <v>18100</v>
       </c>
       <c r="E59" s="3">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="F59" s="3">
-        <v>13000</v>
+        <v>21900</v>
       </c>
       <c r="G59" s="3">
-        <v>8900</v>
+        <v>12600</v>
       </c>
       <c r="H59" s="3">
-        <v>7000</v>
+        <v>8600</v>
       </c>
       <c r="I59" s="3">
-        <v>9800</v>
+        <v>6800</v>
       </c>
       <c r="J59" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K59" s="3">
         <v>8300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>23300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4146,68 +4283,71 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>145300</v>
+        <v>137200</v>
       </c>
       <c r="E60" s="3">
-        <v>143300</v>
+        <v>140900</v>
       </c>
       <c r="F60" s="3">
-        <v>125400</v>
+        <v>138900</v>
       </c>
       <c r="G60" s="3">
-        <v>103500</v>
+        <v>121600</v>
       </c>
       <c r="H60" s="3">
-        <v>98800</v>
+        <v>100400</v>
       </c>
       <c r="I60" s="3">
-        <v>104000</v>
+        <v>95800</v>
       </c>
       <c r="J60" s="3">
+        <v>100800</v>
+      </c>
+      <c r="K60" s="3">
         <v>93300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>108200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>119700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>85800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>74400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>65300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>64900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>61500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>92000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>83900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>111300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>60000</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,44 +4360,47 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>54500</v>
+        <v>52100</v>
       </c>
       <c r="E61" s="3">
-        <v>58000</v>
+        <v>52800</v>
       </c>
       <c r="F61" s="3">
-        <v>61200</v>
+        <v>56200</v>
       </c>
       <c r="G61" s="3">
-        <v>42200</v>
+        <v>59300</v>
       </c>
       <c r="H61" s="3">
-        <v>47700</v>
+        <v>40900</v>
       </c>
       <c r="I61" s="3">
-        <v>49500</v>
+        <v>46300</v>
       </c>
       <c r="J61" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K61" s="3">
         <v>51500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>53800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>53900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>40400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4274,13 +4417,13 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4294,68 +4437,71 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14400</v>
+        <v>19700</v>
       </c>
       <c r="E62" s="3">
-        <v>17600</v>
+        <v>14000</v>
       </c>
       <c r="F62" s="3">
-        <v>23900</v>
+        <v>17000</v>
       </c>
       <c r="G62" s="3">
-        <v>17800</v>
+        <v>23200</v>
       </c>
       <c r="H62" s="3">
-        <v>13000</v>
+        <v>17300</v>
       </c>
       <c r="I62" s="3">
-        <v>13300</v>
+        <v>12600</v>
       </c>
       <c r="J62" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K62" s="3">
         <v>7300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3800</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4368,8 +4514,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,68 +4745,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>214200</v>
+        <v>208900</v>
       </c>
       <c r="E66" s="3">
-        <v>218800</v>
+        <v>207700</v>
       </c>
       <c r="F66" s="3">
-        <v>210500</v>
+        <v>212200</v>
       </c>
       <c r="G66" s="3">
-        <v>163500</v>
+        <v>204100</v>
       </c>
       <c r="H66" s="3">
-        <v>159600</v>
+        <v>158500</v>
       </c>
       <c r="I66" s="3">
-        <v>166800</v>
+        <v>154700</v>
       </c>
       <c r="J66" s="3">
+        <v>161700</v>
+      </c>
+      <c r="K66" s="3">
         <v>152200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>171300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>180200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>129000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>77400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>68500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>65600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>105400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>98000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>125900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>63800</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4664,8 +4822,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,68 +5159,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>436800</v>
+        <v>457100</v>
       </c>
       <c r="E72" s="3">
-        <v>406800</v>
+        <v>423600</v>
       </c>
       <c r="F72" s="3">
-        <v>365300</v>
+        <v>394500</v>
       </c>
       <c r="G72" s="3">
-        <v>334400</v>
+        <v>354200</v>
       </c>
       <c r="H72" s="3">
-        <v>314400</v>
+        <v>324300</v>
       </c>
       <c r="I72" s="3">
-        <v>302900</v>
+        <v>304800</v>
       </c>
       <c r="J72" s="3">
+        <v>293700</v>
+      </c>
+      <c r="K72" s="3">
         <v>288300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>248800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>232200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>226700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>205700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>186900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>133700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>118200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>88000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>79000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>75700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>68800</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5062,8 +5236,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,68 +5467,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>443600</v>
+        <v>467300</v>
       </c>
       <c r="E76" s="3">
-        <v>408300</v>
+        <v>430100</v>
       </c>
       <c r="F76" s="3">
-        <v>366800</v>
+        <v>395900</v>
       </c>
       <c r="G76" s="3">
-        <v>335900</v>
+        <v>355700</v>
       </c>
       <c r="H76" s="3">
-        <v>315800</v>
+        <v>325700</v>
       </c>
       <c r="I76" s="3">
-        <v>303500</v>
+        <v>306200</v>
       </c>
       <c r="J76" s="3">
+        <v>294200</v>
+      </c>
+      <c r="K76" s="3">
         <v>288300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>276700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>259100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>249300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>228400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>207200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>196300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>180800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>89800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>80800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>77500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>70700</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5358,8 +5544,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,76 +5621,79 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5511,71 +5703,74 @@
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18800</v>
+        <v>23800</v>
       </c>
       <c r="E81" s="3">
-        <v>25100</v>
+        <v>18200</v>
       </c>
       <c r="F81" s="3">
-        <v>19500</v>
+        <v>24300</v>
       </c>
       <c r="G81" s="3">
-        <v>15800</v>
+        <v>18900</v>
       </c>
       <c r="H81" s="3">
-        <v>9500</v>
+        <v>15400</v>
       </c>
       <c r="I81" s="3">
-        <v>8200</v>
+        <v>9200</v>
       </c>
       <c r="J81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K81" s="3">
         <v>7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5600</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5585,8 +5780,11 @@
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,8 +5811,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5654,30 +5853,30 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3">
         <v>2300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3">
         <v>1700</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5687,8 +5886,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,71 +6271,74 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>42700</v>
+        <v>22200</v>
       </c>
       <c r="E89" s="3">
-        <v>24300</v>
+        <v>41400</v>
       </c>
       <c r="F89" s="3">
-        <v>42600</v>
+        <v>23600</v>
       </c>
       <c r="G89" s="3">
-        <v>14100</v>
+        <v>41300</v>
       </c>
       <c r="H89" s="3">
-        <v>24900</v>
+        <v>13700</v>
       </c>
       <c r="I89" s="3">
-        <v>26200</v>
+        <v>24100</v>
       </c>
       <c r="J89" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K89" s="3">
         <v>2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>17600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>14300</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6131,8 +6348,11 @@
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,71 +6379,72 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4700</v>
+        <v>-3300</v>
       </c>
       <c r="E91" s="3">
-        <v>-4300</v>
+        <v>-4500</v>
       </c>
       <c r="F91" s="3">
-        <v>-2900</v>
+        <v>-4200</v>
       </c>
       <c r="G91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="V91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>4300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6233,8 +6454,11 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,71 +6608,74 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4600</v>
+        <v>-14400</v>
       </c>
       <c r="E94" s="3">
-        <v>-4900</v>
+        <v>-4500</v>
       </c>
       <c r="F94" s="3">
-        <v>-49200</v>
+        <v>-4800</v>
       </c>
       <c r="G94" s="3">
-        <v>-17100</v>
+        <v>-47700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3600</v>
+        <v>-16600</v>
       </c>
       <c r="I94" s="3">
-        <v>-60700</v>
+        <v>-3500</v>
       </c>
       <c r="J94" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-34300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-37600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5000</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6455,8 +6685,11 @@
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6557,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,71 +7022,74 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K100" s="3">
+        <v>16700</v>
+      </c>
+      <c r="L100" s="3">
         <v>-4800</v>
       </c>
-      <c r="F100" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>16700</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>16900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>32700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>23800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-11900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3300</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6853,8 +7099,11 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6862,61 +7111,61 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>200</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-100</v>
       </c>
       <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>3</v>
+      <c r="W101" s="3">
+        <v>-100</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>3</v>
@@ -6927,71 +7176,74 @@
       <c r="Z101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>39200</v>
+        <v>7400</v>
       </c>
       <c r="E102" s="3">
-        <v>14800</v>
+        <v>38000</v>
       </c>
       <c r="F102" s="3">
-        <v>-10900</v>
+        <v>14400</v>
       </c>
       <c r="G102" s="3">
-        <v>-6600</v>
+        <v>-10600</v>
       </c>
       <c r="H102" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="K102" s="3">
         <v>17300</v>
       </c>
-      <c r="I102" s="3">
-        <v>-38200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>17300</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>35300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-18200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>12500</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6999,6 +7251,9 @@
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,103 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
@@ -770,74 +771,77 @@
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>200100</v>
+        <v>211300</v>
       </c>
       <c r="E8" s="3">
-        <v>186500</v>
+        <v>198200</v>
       </c>
       <c r="F8" s="3">
-        <v>174500</v>
+        <v>184700</v>
       </c>
       <c r="G8" s="3">
-        <v>158000</v>
+        <v>172800</v>
       </c>
       <c r="H8" s="3">
-        <v>132800</v>
+        <v>156500</v>
       </c>
       <c r="I8" s="3">
-        <v>124400</v>
+        <v>131500</v>
       </c>
       <c r="J8" s="3">
+        <v>123200</v>
+      </c>
+      <c r="K8" s="3">
         <v>112500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>110400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>122700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>117100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>112400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>105200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>97300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>94800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>87700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>79500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>201800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>65200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>62000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>56100</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,74 +851,77 @@
       <c r="AA8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>134600</v>
+        <v>143700</v>
       </c>
       <c r="E9" s="3">
-        <v>124900</v>
+        <v>133300</v>
       </c>
       <c r="F9" s="3">
-        <v>112100</v>
+        <v>123700</v>
       </c>
       <c r="G9" s="3">
-        <v>104400</v>
+        <v>111000</v>
       </c>
       <c r="H9" s="3">
-        <v>87300</v>
+        <v>103000</v>
       </c>
       <c r="I9" s="3">
-        <v>80700</v>
+        <v>86400</v>
       </c>
       <c r="J9" s="3">
+        <v>79900</v>
+      </c>
+      <c r="K9" s="3">
         <v>73600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>77400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>75200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>106700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>71900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>69600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>64000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>61300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>58000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>51800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>136200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>44400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>42200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>38000</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,74 +931,77 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>65500</v>
+        <v>67600</v>
       </c>
       <c r="E10" s="3">
-        <v>61600</v>
+        <v>64900</v>
       </c>
       <c r="F10" s="3">
-        <v>62400</v>
+        <v>61000</v>
       </c>
       <c r="G10" s="3">
-        <v>53600</v>
+        <v>61800</v>
       </c>
       <c r="H10" s="3">
-        <v>45500</v>
+        <v>53500</v>
       </c>
       <c r="I10" s="3">
-        <v>43800</v>
+        <v>45100</v>
       </c>
       <c r="J10" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K10" s="3">
         <v>38900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>40500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>29700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>27700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>65600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>20900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>19700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>18100</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1001,8 +1011,11 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,8 +1043,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1121,11 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,23 +1201,26 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1220,11 +1240,11 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-3000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1234,24 +1254,24 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1600</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="3">
         <v>500</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,53 +1281,56 @@
       <c r="AA14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>4000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3700</v>
       </c>
       <c r="F15" s="3">
         <v>3600</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1900</v>
+      <c r="G15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="J15" s="3">
         <v>2100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="K15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
         <v>2200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1900</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1300</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,8 +1340,8 @@
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1338,8 +1361,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,74 +1390,75 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>170100</v>
+        <v>180100</v>
       </c>
       <c r="E17" s="3">
-        <v>163500</v>
+        <v>168400</v>
       </c>
       <c r="F17" s="3">
-        <v>146200</v>
+        <v>161900</v>
       </c>
       <c r="G17" s="3">
-        <v>134700</v>
+        <v>144700</v>
       </c>
       <c r="H17" s="3">
-        <v>111500</v>
+        <v>133300</v>
       </c>
       <c r="I17" s="3">
-        <v>107900</v>
+        <v>110400</v>
       </c>
       <c r="J17" s="3">
+        <v>106800</v>
+      </c>
+      <c r="K17" s="3">
         <v>98700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>102000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>104000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>132800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>92500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>93300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>87400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>82900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>77400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>71200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>177300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>57200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>52900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>47800</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,74 +1468,77 @@
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>30000</v>
+        <v>31200</v>
       </c>
       <c r="E18" s="3">
-        <v>23000</v>
+        <v>29700</v>
       </c>
       <c r="F18" s="3">
-        <v>28300</v>
+        <v>22800</v>
       </c>
       <c r="G18" s="3">
-        <v>23400</v>
+        <v>28000</v>
       </c>
       <c r="H18" s="3">
-        <v>21300</v>
+        <v>23200</v>
       </c>
       <c r="I18" s="3">
-        <v>16600</v>
+        <v>21100</v>
       </c>
       <c r="J18" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K18" s="3">
         <v>13800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8200</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1518,8 +1548,11 @@
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,74 +1580,75 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1000</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1624,74 +1658,77 @@
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>31000</v>
+        <v>37500</v>
       </c>
       <c r="E21" s="3">
-        <v>22800</v>
+        <v>30700</v>
       </c>
       <c r="F21" s="3">
-        <v>37700</v>
+        <v>22600</v>
       </c>
       <c r="G21" s="3">
-        <v>24200</v>
+        <v>37400</v>
       </c>
       <c r="H21" s="3">
-        <v>18300</v>
+        <v>23100</v>
       </c>
       <c r="I21" s="3">
-        <v>13400</v>
+        <v>18100</v>
       </c>
       <c r="J21" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K21" s="3">
         <v>16600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-22900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>14400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>29000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8900</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1738,11 @@
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1778,74 +1818,77 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30600</v>
+        <v>38100</v>
       </c>
       <c r="E23" s="3">
-        <v>22600</v>
+        <v>30300</v>
       </c>
       <c r="F23" s="3">
-        <v>29500</v>
+        <v>22300</v>
       </c>
       <c r="G23" s="3">
-        <v>21900</v>
+        <v>29200</v>
       </c>
       <c r="H23" s="3">
-        <v>19500</v>
+        <v>21700</v>
       </c>
       <c r="I23" s="3">
-        <v>12500</v>
+        <v>19300</v>
       </c>
       <c r="J23" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K23" s="3">
         <v>10300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-23500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>23200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7200</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1855,74 +1898,77 @@
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E24" s="3">
         <v>6800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4300</v>
       </c>
-      <c r="F24" s="3">
-        <v>5200</v>
-      </c>
       <c r="G24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
-        <v>4200</v>
-      </c>
       <c r="I24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1600</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,8 +1978,11 @@
       <c r="AA24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2009,74 +2058,77 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>23800</v>
+        <v>31700</v>
       </c>
       <c r="E26" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>24100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L26" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M26" s="3">
+        <v>19400</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="O26" s="3">
+        <v>19800</v>
+      </c>
+      <c r="P26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>8400</v>
+      </c>
+      <c r="R26" s="3">
+        <v>9800</v>
+      </c>
+      <c r="S26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T26" s="3">
+        <v>6300</v>
+      </c>
+      <c r="U26" s="3">
         <v>18200</v>
       </c>
-      <c r="F26" s="3">
-        <v>24300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>18900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>15400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>9200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>7500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>19400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>19800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>11300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>8400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>9800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>2700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>6300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>18200</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5600</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,74 +2138,77 @@
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>23800</v>
+        <v>31700</v>
       </c>
       <c r="E27" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>24100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L27" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M27" s="3">
+        <v>19400</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="O27" s="3">
+        <v>19800</v>
+      </c>
+      <c r="P27" s="3">
+        <v>11300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="R27" s="3">
+        <v>9800</v>
+      </c>
+      <c r="S27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T27" s="3">
+        <v>6300</v>
+      </c>
+      <c r="U27" s="3">
         <v>18200</v>
       </c>
-      <c r="F27" s="3">
-        <v>24300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>18900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>15400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>9200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>7500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>19400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>19800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>11300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>8400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>9800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>2700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>6300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>18200</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5600</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2163,8 +2218,11 @@
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2240,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2317,8 +2378,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,74 +2538,77 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1000</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,74 +2618,77 @@
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>23800</v>
+        <v>31700</v>
       </c>
       <c r="E33" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>24100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L33" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M33" s="3">
+        <v>19400</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="O33" s="3">
+        <v>19800</v>
+      </c>
+      <c r="P33" s="3">
+        <v>11300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="R33" s="3">
+        <v>9800</v>
+      </c>
+      <c r="S33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T33" s="3">
+        <v>6300</v>
+      </c>
+      <c r="U33" s="3">
         <v>18200</v>
       </c>
-      <c r="F33" s="3">
-        <v>24300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>18900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>15400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>9200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>7500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>19400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>19800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>11300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>8400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>9800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>2700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>6300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>18200</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5600</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2625,8 +2698,11 @@
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,74 +2778,77 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>23800</v>
+        <v>31700</v>
       </c>
       <c r="E35" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>24100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L35" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M35" s="3">
+        <v>19400</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="O35" s="3">
+        <v>19800</v>
+      </c>
+      <c r="P35" s="3">
+        <v>11300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="R35" s="3">
+        <v>9800</v>
+      </c>
+      <c r="S35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T35" s="3">
+        <v>6300</v>
+      </c>
+      <c r="U35" s="3">
         <v>18200</v>
       </c>
-      <c r="F35" s="3">
-        <v>24300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>18900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>15400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>9200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>7500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>19400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>19800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>11300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>8400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>9800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>2700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>6300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>18200</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5600</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2779,79 +2858,82 @@
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2943,11 @@
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,71 +3005,72 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>142400</v>
+        <v>190700</v>
       </c>
       <c r="E41" s="3">
-        <v>135100</v>
+        <v>141000</v>
       </c>
       <c r="F41" s="3">
-        <v>97000</v>
+        <v>133700</v>
       </c>
       <c r="G41" s="3">
-        <v>82700</v>
+        <v>96100</v>
       </c>
       <c r="H41" s="3">
-        <v>93300</v>
+        <v>81900</v>
       </c>
       <c r="I41" s="3">
-        <v>99600</v>
+        <v>92300</v>
       </c>
       <c r="J41" s="3">
+        <v>98600</v>
+      </c>
+      <c r="K41" s="3">
         <v>82800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>123600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>116000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>107700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>114100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>96400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>79000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>67400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>55200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>32700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>21700</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2996,19 +3083,22 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>500</v>
+      </c>
+      <c r="E42" s="3">
         <v>400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>700</v>
       </c>
       <c r="G42" s="3">
         <v>700</v>
@@ -3026,7 +3116,7 @@
         <v>700</v>
       </c>
       <c r="L42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M42" s="3">
         <v>800</v>
@@ -3034,8 +3124,8 @@
       <c r="N42" s="3">
         <v>800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
+      <c r="O42" s="3">
+        <v>800</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
@@ -3052,8 +3142,8 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -3073,71 +3163,74 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>190200</v>
+        <v>193200</v>
       </c>
       <c r="E43" s="3">
-        <v>171600</v>
+        <v>188400</v>
       </c>
       <c r="F43" s="3">
-        <v>168400</v>
+        <v>169900</v>
       </c>
       <c r="G43" s="3">
-        <v>141100</v>
+        <v>166800</v>
       </c>
       <c r="H43" s="3">
-        <v>130800</v>
+        <v>139700</v>
       </c>
       <c r="I43" s="3">
-        <v>111400</v>
+        <v>129500</v>
       </c>
       <c r="J43" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K43" s="3">
         <v>112800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>104300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>108700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>107000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>93700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>91600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>84800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>84900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>80800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>68600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>64900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>64400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>59300</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3150,8 +3243,11 @@
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3204,17 +3300,17 @@
         <v>0</v>
       </c>
       <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
         <v>100</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
       <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
         <v>100</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3323,11 @@
       <c r="AA44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3304,71 +3403,74 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>333100</v>
+        <v>384400</v>
       </c>
       <c r="E46" s="3">
-        <v>307100</v>
+        <v>329800</v>
       </c>
       <c r="F46" s="3">
-        <v>266100</v>
+        <v>304100</v>
       </c>
       <c r="G46" s="3">
-        <v>224400</v>
+        <v>263500</v>
       </c>
       <c r="H46" s="3">
-        <v>224700</v>
+        <v>222200</v>
       </c>
       <c r="I46" s="3">
-        <v>211700</v>
+        <v>222500</v>
       </c>
       <c r="J46" s="3">
+        <v>209600</v>
+      </c>
+      <c r="K46" s="3">
         <v>196300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>228700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>225500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>215500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>208600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>188000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>163800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>152400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>136000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>88000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>77200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>97100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>81100</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,47 +3483,50 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>2700</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
       </c>
       <c r="F47" s="3">
+        <v>200</v>
+      </c>
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
+        <v>700</v>
+      </c>
+      <c r="K47" s="3">
+        <v>900</v>
+      </c>
+      <c r="L47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3">
-        <v>900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>800</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,14 +3536,14 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
+      <c r="U47" s="3">
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
@@ -3458,71 +3563,74 @@
       <c r="AA47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>82200</v>
+        <v>84400</v>
       </c>
       <c r="E48" s="3">
-        <v>81600</v>
+        <v>81400</v>
       </c>
       <c r="F48" s="3">
-        <v>83500</v>
+        <v>80800</v>
       </c>
       <c r="G48" s="3">
-        <v>83400</v>
+        <v>82700</v>
       </c>
       <c r="H48" s="3">
-        <v>63300</v>
+        <v>82600</v>
       </c>
       <c r="I48" s="3">
-        <v>69600</v>
+        <v>62700</v>
       </c>
       <c r="J48" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K48" s="3">
         <v>72400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>77900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>81500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>83000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>65700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10400</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3535,71 +3643,74 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>239500</v>
+        <v>236700</v>
       </c>
       <c r="E49" s="3">
-        <v>223500</v>
+        <v>237200</v>
       </c>
       <c r="F49" s="3">
-        <v>229900</v>
+        <v>221300</v>
       </c>
       <c r="G49" s="3">
-        <v>229400</v>
+        <v>227600</v>
       </c>
       <c r="H49" s="3">
-        <v>180200</v>
+        <v>220700</v>
       </c>
       <c r="I49" s="3">
-        <v>162900</v>
+        <v>178500</v>
       </c>
       <c r="J49" s="3">
+        <v>161300</v>
+      </c>
+      <c r="K49" s="3">
         <v>167700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>116800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>127400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>124000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>89100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>90200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>93200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>96100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>94900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>92900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>89600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>93700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>41900</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3723,11 @@
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,71 +3883,74 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21200</v>
+        <v>20200</v>
       </c>
       <c r="E52" s="3">
-        <v>25300</v>
+        <v>21000</v>
       </c>
       <c r="F52" s="3">
-        <v>28300</v>
+        <v>25100</v>
       </c>
       <c r="G52" s="3">
-        <v>22100</v>
+        <v>28000</v>
       </c>
       <c r="H52" s="3">
-        <v>15300</v>
+        <v>23500</v>
       </c>
       <c r="I52" s="3">
-        <v>16000</v>
+        <v>15200</v>
       </c>
       <c r="J52" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K52" s="3">
         <v>18700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6300</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>3300</v>
       </c>
       <c r="R52" s="3">
         <v>3300</v>
       </c>
       <c r="S52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T52" s="3">
         <v>3200</v>
-      </c>
-      <c r="T52" s="3">
-        <v>1200</v>
       </c>
       <c r="U52" s="3">
         <v>1200</v>
       </c>
       <c r="V52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W52" s="3">
         <v>1100</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3843,8 +3963,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,71 +4043,74 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>676200</v>
+        <v>728400</v>
       </c>
       <c r="E54" s="3">
-        <v>637800</v>
+        <v>669600</v>
       </c>
       <c r="F54" s="3">
-        <v>608100</v>
+        <v>631500</v>
       </c>
       <c r="G54" s="3">
-        <v>559800</v>
+        <v>602100</v>
       </c>
       <c r="H54" s="3">
-        <v>484200</v>
+        <v>549400</v>
       </c>
       <c r="I54" s="3">
-        <v>460900</v>
+        <v>479500</v>
       </c>
       <c r="J54" s="3">
+        <v>456400</v>
+      </c>
+      <c r="K54" s="3">
         <v>456000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>440400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>448000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>439300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>378300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>305800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>275800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>265000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>246400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>195200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>178800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>203400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>134500</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3997,8 +4123,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,71 +4185,72 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>105100</v>
+        <v>115100</v>
       </c>
       <c r="E57" s="3">
-        <v>111300</v>
+        <v>104100</v>
       </c>
       <c r="F57" s="3">
-        <v>101700</v>
+        <v>110200</v>
       </c>
       <c r="G57" s="3">
-        <v>93000</v>
+        <v>100700</v>
       </c>
       <c r="H57" s="3">
-        <v>77300</v>
+        <v>92000</v>
       </c>
       <c r="I57" s="3">
-        <v>74700</v>
+        <v>76600</v>
       </c>
       <c r="J57" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K57" s="3">
         <v>78200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>71500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>84200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>98900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>65600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>62500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>58600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>55300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>53900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>52000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>42500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>37200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>32700</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4132,8 +4263,11 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4141,62 +4275,62 @@
         <v>13900</v>
       </c>
       <c r="E58" s="3">
-        <v>14100</v>
+        <v>13800</v>
       </c>
       <c r="F58" s="3">
-        <v>15400</v>
+        <v>14000</v>
       </c>
       <c r="G58" s="3">
-        <v>16000</v>
+        <v>15200</v>
       </c>
       <c r="H58" s="3">
-        <v>14400</v>
+        <v>15900</v>
       </c>
       <c r="I58" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="J58" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K58" s="3">
         <v>13100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11700</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>25500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>30500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>50800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>26800</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4209,71 +4343,74 @@
       <c r="AA58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18100</v>
+        <v>21400</v>
       </c>
       <c r="E59" s="3">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="F59" s="3">
-        <v>21900</v>
+        <v>15300</v>
       </c>
       <c r="G59" s="3">
-        <v>12600</v>
+        <v>21600</v>
       </c>
       <c r="H59" s="3">
-        <v>8600</v>
+        <v>12500</v>
       </c>
       <c r="I59" s="3">
-        <v>6800</v>
+        <v>8500</v>
       </c>
       <c r="J59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K59" s="3">
         <v>9500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>23300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4286,71 +4423,74 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>137200</v>
+        <v>150400</v>
       </c>
       <c r="E60" s="3">
-        <v>140900</v>
+        <v>135800</v>
       </c>
       <c r="F60" s="3">
-        <v>138900</v>
+        <v>139500</v>
       </c>
       <c r="G60" s="3">
-        <v>121600</v>
+        <v>137600</v>
       </c>
       <c r="H60" s="3">
-        <v>100400</v>
+        <v>120400</v>
       </c>
       <c r="I60" s="3">
-        <v>95800</v>
+        <v>99400</v>
       </c>
       <c r="J60" s="3">
+        <v>94900</v>
+      </c>
+      <c r="K60" s="3">
         <v>100800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>93300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>108200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>119700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>85800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>74400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>65300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>64900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>61500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>92000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>83900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>111300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>60000</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,47 +4503,50 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>52100</v>
+        <v>51500</v>
       </c>
       <c r="E61" s="3">
-        <v>52800</v>
+        <v>51600</v>
       </c>
       <c r="F61" s="3">
-        <v>56200</v>
+        <v>52300</v>
       </c>
       <c r="G61" s="3">
-        <v>59300</v>
+        <v>55700</v>
       </c>
       <c r="H61" s="3">
-        <v>40900</v>
+        <v>58700</v>
       </c>
       <c r="I61" s="3">
-        <v>46300</v>
+        <v>40500</v>
       </c>
       <c r="J61" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K61" s="3">
         <v>48000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>51500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>53800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>53900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>40400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4420,13 +4563,13 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
@@ -4440,71 +4583,74 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19700</v>
+        <v>19600</v>
       </c>
       <c r="E62" s="3">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="F62" s="3">
-        <v>17000</v>
+        <v>13800</v>
       </c>
       <c r="G62" s="3">
-        <v>23200</v>
+        <v>16900</v>
       </c>
       <c r="H62" s="3">
-        <v>17300</v>
+        <v>23100</v>
       </c>
       <c r="I62" s="3">
-        <v>12600</v>
+        <v>17100</v>
       </c>
       <c r="J62" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K62" s="3">
         <v>12900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3800</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4517,8 +4663,11 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4671,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,71 +4903,74 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>208900</v>
+        <v>221500</v>
       </c>
       <c r="E66" s="3">
-        <v>207700</v>
+        <v>206900</v>
       </c>
       <c r="F66" s="3">
-        <v>212200</v>
+        <v>205600</v>
       </c>
       <c r="G66" s="3">
-        <v>204100</v>
+        <v>210100</v>
       </c>
       <c r="H66" s="3">
-        <v>158500</v>
+        <v>202200</v>
       </c>
       <c r="I66" s="3">
-        <v>154700</v>
+        <v>157000</v>
       </c>
       <c r="J66" s="3">
+        <v>153200</v>
+      </c>
+      <c r="K66" s="3">
         <v>161700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>152200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>171300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>180200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>129000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>77400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>68500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>68700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>65600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>105400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>98000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>125900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>63800</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4825,8 +4983,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,71 +5333,74 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>457100</v>
+        <v>495000</v>
       </c>
       <c r="E72" s="3">
-        <v>423600</v>
+        <v>452600</v>
       </c>
       <c r="F72" s="3">
-        <v>394500</v>
+        <v>419400</v>
       </c>
       <c r="G72" s="3">
-        <v>354200</v>
+        <v>390600</v>
       </c>
       <c r="H72" s="3">
-        <v>324300</v>
+        <v>345800</v>
       </c>
       <c r="I72" s="3">
-        <v>304800</v>
+        <v>321100</v>
       </c>
       <c r="J72" s="3">
+        <v>301800</v>
+      </c>
+      <c r="K72" s="3">
         <v>293700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>288300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>248800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>232200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>226700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>205700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>186900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>133700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>118200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>88000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>79000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>75700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>68800</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5239,8 +5413,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,71 +5653,74 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>467300</v>
+        <v>506800</v>
       </c>
       <c r="E76" s="3">
-        <v>430100</v>
+        <v>462700</v>
       </c>
       <c r="F76" s="3">
-        <v>395900</v>
+        <v>425900</v>
       </c>
       <c r="G76" s="3">
-        <v>355700</v>
+        <v>392000</v>
       </c>
       <c r="H76" s="3">
-        <v>325700</v>
+        <v>347200</v>
       </c>
       <c r="I76" s="3">
-        <v>306200</v>
+        <v>322500</v>
       </c>
       <c r="J76" s="3">
+        <v>303200</v>
+      </c>
+      <c r="K76" s="3">
         <v>294200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>288300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>276700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>259100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>249300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>228400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>207200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>196300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>180800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>89800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>80800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>77500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>70700</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5547,8 +5733,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,79 +5813,82 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5706,74 +5898,77 @@
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>23800</v>
+        <v>31700</v>
       </c>
       <c r="E81" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>24100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L81" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M81" s="3">
+        <v>19400</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="O81" s="3">
+        <v>19800</v>
+      </c>
+      <c r="P81" s="3">
+        <v>11300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="R81" s="3">
+        <v>9800</v>
+      </c>
+      <c r="S81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T81" s="3">
+        <v>6300</v>
+      </c>
+      <c r="U81" s="3">
         <v>18200</v>
       </c>
-      <c r="F81" s="3">
-        <v>24300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>18900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>15400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>9200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>7500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>19400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>19800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>11300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>8400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>9800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>2700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>6300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>18200</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5600</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5783,8 +5978,11 @@
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,8 +6010,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5856,30 +6055,30 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3">
         <v>2300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5800</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X83" s="3">
         <v>1700</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5889,8 +6088,11 @@
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,74 +6488,77 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>22200</v>
+        <v>55200</v>
       </c>
       <c r="E89" s="3">
-        <v>41400</v>
+        <v>21900</v>
       </c>
       <c r="F89" s="3">
-        <v>23600</v>
+        <v>41000</v>
       </c>
       <c r="G89" s="3">
-        <v>41300</v>
+        <v>23300</v>
       </c>
       <c r="H89" s="3">
-        <v>13700</v>
+        <v>40900</v>
       </c>
       <c r="I89" s="3">
-        <v>24100</v>
+        <v>13500</v>
       </c>
       <c r="J89" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K89" s="3">
         <v>25400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>17600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>26300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>14300</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
@@ -6351,8 +6568,11 @@
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,74 +6600,75 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2800</v>
-      </c>
       <c r="H91" s="3">
-        <v>-1700</v>
+        <v>-2000</v>
       </c>
       <c r="I91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>4300</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6457,8 +6678,11 @@
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,74 +6838,77 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14400</v>
+        <v>-4500</v>
       </c>
       <c r="E94" s="3">
-        <v>-4500</v>
+        <v>-14300</v>
       </c>
       <c r="F94" s="3">
-        <v>-4800</v>
+        <v>-4400</v>
       </c>
       <c r="G94" s="3">
-        <v>-47700</v>
+        <v>-4700</v>
       </c>
       <c r="H94" s="3">
-        <v>-16600</v>
+        <v>-46500</v>
       </c>
       <c r="I94" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-58800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-37600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5000</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6688,8 +6918,11 @@
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +6950,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6794,8 +7028,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,74 +7268,77 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>16700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>16900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>32700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-7000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>23800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-11900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3300</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7102,73 +7348,76 @@
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>200</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-100</v>
       </c>
       <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>3</v>
+      <c r="X101" s="3">
+        <v>-100</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>3</v>
@@ -7179,74 +7428,77 @@
       <c r="AA101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7400</v>
+        <v>49700</v>
       </c>
       <c r="E102" s="3">
-        <v>38000</v>
+        <v>7300</v>
       </c>
       <c r="F102" s="3">
-        <v>14400</v>
+        <v>37600</v>
       </c>
       <c r="G102" s="3">
-        <v>-10600</v>
+        <v>14200</v>
       </c>
       <c r="H102" s="3">
-        <v>-6400</v>
+        <v>-10500</v>
       </c>
       <c r="I102" s="3">
-        <v>16800</v>
+        <v>-6300</v>
       </c>
       <c r="J102" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-37000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>35300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-18200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-9000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>12500</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
@@ -7254,6 +7506,9 @@
         <v>3</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,382 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>211300</v>
+        <v>244700</v>
       </c>
       <c r="E8" s="3">
-        <v>198200</v>
+        <v>234000</v>
       </c>
       <c r="F8" s="3">
-        <v>184700</v>
+        <v>215100</v>
       </c>
       <c r="G8" s="3">
-        <v>172800</v>
+        <v>201800</v>
       </c>
       <c r="H8" s="3">
-        <v>156500</v>
+        <v>188100</v>
       </c>
       <c r="I8" s="3">
+        <v>175900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>159300</v>
+      </c>
+      <c r="K8" s="3">
         <v>131500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>123200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>112500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>110400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>122700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>117100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>112400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>105200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>97300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>94800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>87700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>79500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>201800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>65200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>62000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>56100</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>143700</v>
+        <v>158300</v>
       </c>
       <c r="E9" s="3">
-        <v>133300</v>
+        <v>153500</v>
       </c>
       <c r="F9" s="3">
-        <v>123700</v>
+        <v>146300</v>
       </c>
       <c r="G9" s="3">
-        <v>111000</v>
+        <v>135700</v>
       </c>
       <c r="H9" s="3">
-        <v>103000</v>
+        <v>125900</v>
       </c>
       <c r="I9" s="3">
+        <v>113000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>104900</v>
+      </c>
+      <c r="K9" s="3">
         <v>86400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>79900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>73600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>77400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>75200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>106700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>71900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>69600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>64000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>61300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>58000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>51800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>136200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>44400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>42200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>38000</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>67600</v>
+        <v>86400</v>
       </c>
       <c r="E10" s="3">
-        <v>64900</v>
+        <v>80400</v>
       </c>
       <c r="F10" s="3">
-        <v>61000</v>
+        <v>68900</v>
       </c>
       <c r="G10" s="3">
-        <v>61800</v>
+        <v>66100</v>
       </c>
       <c r="H10" s="3">
-        <v>53500</v>
+        <v>62100</v>
       </c>
       <c r="I10" s="3">
+        <v>62900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K10" s="3">
         <v>45100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>43400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>38900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>33000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>47500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>10500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>40500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>35600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>33300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>33500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>29700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>27700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>65600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>20900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>19700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>18100</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1069,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,8 +1151,14 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,29 +1237,35 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1243,111 +1282,117 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-3000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>1600</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="3">
         <v>500</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>4600</v>
       </c>
       <c r="E15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>4000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I15" s="3">
         <v>3600</v>
       </c>
-      <c r="G15" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>1800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
         <v>2200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1900</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3">
         <v>1300</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1364,8 +1409,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,168 +1442,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>180100</v>
+        <v>205600</v>
       </c>
       <c r="E17" s="3">
-        <v>168400</v>
+        <v>201500</v>
       </c>
       <c r="F17" s="3">
-        <v>161900</v>
+        <v>183400</v>
       </c>
       <c r="G17" s="3">
-        <v>144700</v>
+        <v>171500</v>
       </c>
       <c r="H17" s="3">
-        <v>133300</v>
+        <v>164900</v>
       </c>
       <c r="I17" s="3">
+        <v>147400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>135700</v>
+      </c>
+      <c r="K17" s="3">
         <v>110400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>106800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>98700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>102000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>104000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>132800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>92500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>93300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>87400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>82900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>77400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>71200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>177300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>57200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>52900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>47800</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>31200</v>
+        <v>39100</v>
       </c>
       <c r="E18" s="3">
-        <v>29700</v>
+        <v>32500</v>
       </c>
       <c r="F18" s="3">
-        <v>22800</v>
+        <v>31800</v>
       </c>
       <c r="G18" s="3">
-        <v>28000</v>
+        <v>30300</v>
       </c>
       <c r="H18" s="3">
         <v>23200</v>
       </c>
       <c r="I18" s="3">
+        <v>28500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K18" s="3">
         <v>21100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>16400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>13800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>8400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>18800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-15600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>19900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>11900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>9900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>12000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>10300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>8400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>24500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>8000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>9000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>8200</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1581,168 +1646,182 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6800</v>
+        <v>-14900</v>
       </c>
       <c r="E20" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-7900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-6800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>37500</v>
+        <v>25000</v>
       </c>
       <c r="E21" s="3">
-        <v>30700</v>
+        <v>55200</v>
       </c>
       <c r="F21" s="3">
-        <v>22600</v>
+        <v>38100</v>
       </c>
       <c r="G21" s="3">
-        <v>37400</v>
+        <v>31300</v>
       </c>
       <c r="H21" s="3">
-        <v>23100</v>
+        <v>23000</v>
       </c>
       <c r="I21" s="3">
+        <v>38000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K21" s="3">
         <v>18100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>13300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>16600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>8500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>24700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-22900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>29500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>14400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>11600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>12400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>4600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>11000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>29000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>7900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>9000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>8900</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1821,159 +1900,171 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>38100</v>
+        <v>24200</v>
       </c>
       <c r="E23" s="3">
-        <v>30300</v>
+        <v>46000</v>
       </c>
       <c r="F23" s="3">
-        <v>22300</v>
+        <v>38700</v>
       </c>
       <c r="G23" s="3">
-        <v>29200</v>
+        <v>30900</v>
       </c>
       <c r="H23" s="3">
-        <v>21700</v>
+        <v>22700</v>
       </c>
       <c r="I23" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K23" s="3">
         <v>19300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>12400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>10300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>8200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>24400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-23500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>23800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>14300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>10100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>12400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>8600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>23200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>7900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>8400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>7200</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="E24" s="3">
-        <v>6800</v>
+        <v>8200</v>
       </c>
       <c r="F24" s="3">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="G24" s="3">
-        <v>5100</v>
+        <v>6900</v>
       </c>
       <c r="H24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N24" s="3">
+        <v>800</v>
+      </c>
+      <c r="O24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="S24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
-        <v>4900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>4000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2600</v>
-      </c>
-      <c r="S24" s="3">
-        <v>800</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>2300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>5000</v>
-      </c>
-      <c r="V24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="W24" s="3">
-        <v>1800</v>
       </c>
       <c r="X24" s="3">
         <v>1600</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>3</v>
+      <c r="Y24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>1600</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>3</v>
@@ -1981,8 +2072,14 @@
       <c r="AB24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2061,168 +2158,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>31700</v>
+        <v>17900</v>
       </c>
       <c r="E26" s="3">
-        <v>23500</v>
+        <v>37800</v>
       </c>
       <c r="F26" s="3">
-        <v>18000</v>
+        <v>32200</v>
       </c>
       <c r="G26" s="3">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="H26" s="3">
-        <v>18700</v>
+        <v>18400</v>
       </c>
       <c r="I26" s="3">
+        <v>24500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K26" s="3">
         <v>15200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>19400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-18800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>19800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>11300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>8400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>9800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>6300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>18200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>6200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>6600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>5600</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>31700</v>
+        <v>17900</v>
       </c>
       <c r="E27" s="3">
-        <v>23500</v>
+        <v>37800</v>
       </c>
       <c r="F27" s="3">
-        <v>18000</v>
+        <v>32200</v>
       </c>
       <c r="G27" s="3">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="H27" s="3">
-        <v>18700</v>
+        <v>18400</v>
       </c>
       <c r="I27" s="3">
+        <v>24500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K27" s="3">
         <v>15200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>19400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-18800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>19800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>11300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>8400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>9800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>6300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>18200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>6200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>6600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>5600</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2301,8 +2416,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2381,8 +2502,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2588,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,168 +2674,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6800</v>
+        <v>14900</v>
       </c>
       <c r="E32" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>7900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>6800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>1000</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>31700</v>
+        <v>17900</v>
       </c>
       <c r="E33" s="3">
-        <v>23500</v>
+        <v>37800</v>
       </c>
       <c r="F33" s="3">
-        <v>18000</v>
+        <v>32200</v>
       </c>
       <c r="G33" s="3">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="H33" s="3">
-        <v>18700</v>
+        <v>18400</v>
       </c>
       <c r="I33" s="3">
+        <v>24500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K33" s="3">
         <v>15200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>7900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>19400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-18800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>19800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>11300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>8400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>9800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>6300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>18200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>6200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>6600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>5600</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,173 +2932,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>31700</v>
+        <v>17900</v>
       </c>
       <c r="E35" s="3">
-        <v>23500</v>
+        <v>37800</v>
       </c>
       <c r="F35" s="3">
-        <v>18000</v>
+        <v>32200</v>
       </c>
       <c r="G35" s="3">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="H35" s="3">
-        <v>18700</v>
+        <v>18400</v>
       </c>
       <c r="I35" s="3">
+        <v>24500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K35" s="3">
         <v>15200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>7900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>19400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-18800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>19800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>11300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>8400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>9800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>6300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>18200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>6200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>6600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>5600</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3145,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,77 +3177,79 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>190700</v>
+        <v>221000</v>
       </c>
       <c r="E41" s="3">
-        <v>141000</v>
+        <v>217500</v>
       </c>
       <c r="F41" s="3">
-        <v>133700</v>
+        <v>194100</v>
       </c>
       <c r="G41" s="3">
-        <v>96100</v>
+        <v>143600</v>
       </c>
       <c r="H41" s="3">
-        <v>81900</v>
+        <v>136200</v>
       </c>
       <c r="I41" s="3">
+        <v>97800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>83300</v>
+      </c>
+      <c r="K41" s="3">
         <v>92300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>98600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>82800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>123600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>116000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>107700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>114100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>96400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>79000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>67400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>55200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>19500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>12200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>32700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>21700</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3086,13 +3259,19 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
         <v>400</v>
@@ -3101,10 +3280,10 @@
         <v>500</v>
       </c>
       <c r="G42" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="H42" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I42" s="3">
         <v>700</v>
@@ -3119,19 +3298,19 @@
         <v>700</v>
       </c>
       <c r="M42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O42" s="3">
         <v>800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
+      <c r="P42" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>800</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
@@ -3145,11 +3324,11 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3166,77 +3345,83 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>193200</v>
+        <v>210000</v>
       </c>
       <c r="E43" s="3">
-        <v>188400</v>
+        <v>231000</v>
       </c>
       <c r="F43" s="3">
-        <v>169900</v>
+        <v>196700</v>
       </c>
       <c r="G43" s="3">
-        <v>166800</v>
+        <v>191800</v>
       </c>
       <c r="H43" s="3">
-        <v>139700</v>
+        <v>173000</v>
       </c>
       <c r="I43" s="3">
+        <v>169800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>142200</v>
+      </c>
+      <c r="K43" s="3">
         <v>129500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>110300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>112800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>104300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>108700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>107000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>93700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>91600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>84800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>84900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>80800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>68600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>64900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>64400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>59300</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3246,8 +3431,14 @@
       <c r="AB43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3303,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3311,11 +3502,11 @@
       <c r="W44" s="3">
         <v>100</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>3</v>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>100</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>3</v>
@@ -3326,8 +3517,14 @@
       <c r="AB44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3406,77 +3603,83 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>384400</v>
+        <v>431300</v>
       </c>
       <c r="E46" s="3">
-        <v>329800</v>
+        <v>448900</v>
       </c>
       <c r="F46" s="3">
-        <v>304100</v>
+        <v>391400</v>
       </c>
       <c r="G46" s="3">
-        <v>263500</v>
+        <v>335800</v>
       </c>
       <c r="H46" s="3">
-        <v>222200</v>
+        <v>309600</v>
       </c>
       <c r="I46" s="3">
+        <v>268300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>226200</v>
+      </c>
+      <c r="K46" s="3">
         <v>222500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>209600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>196300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>228700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>225500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>215500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>208600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>188000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>163800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>152400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>136000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>88000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>77200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>97100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>81100</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3486,70 +3689,76 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F47" s="3">
         <v>2700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>3</v>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>3</v>
@@ -3566,77 +3775,83 @@
       <c r="AB47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>84400</v>
+        <v>103500</v>
       </c>
       <c r="E48" s="3">
-        <v>81400</v>
+        <v>98900</v>
       </c>
       <c r="F48" s="3">
-        <v>80800</v>
+        <v>86000</v>
       </c>
       <c r="G48" s="3">
-        <v>82700</v>
+        <v>82800</v>
       </c>
       <c r="H48" s="3">
-        <v>82600</v>
+        <v>82200</v>
       </c>
       <c r="I48" s="3">
+        <v>84200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>84100</v>
+      </c>
+      <c r="K48" s="3">
         <v>62700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>68900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>72400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>77900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>81500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>83000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>65700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>14500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>12500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>13200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>12200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>11100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>10800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>11400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>10400</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3646,77 +3861,83 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>236700</v>
+        <v>291900</v>
       </c>
       <c r="E49" s="3">
-        <v>237200</v>
+        <v>249200</v>
       </c>
       <c r="F49" s="3">
-        <v>221300</v>
+        <v>241000</v>
       </c>
       <c r="G49" s="3">
-        <v>227600</v>
+        <v>241500</v>
       </c>
       <c r="H49" s="3">
-        <v>220700</v>
+        <v>225300</v>
       </c>
       <c r="I49" s="3">
+        <v>231700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>224700</v>
+      </c>
+      <c r="K49" s="3">
         <v>178500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>161300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>167700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>116800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>127400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>124000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>89100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>90200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>93200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>96100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>94900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>92900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>89600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>93700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>41900</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3726,8 +3947,14 @@
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +4033,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,77 +4119,83 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20200</v>
+        <v>16100</v>
       </c>
       <c r="E52" s="3">
-        <v>21000</v>
+        <v>23400</v>
       </c>
       <c r="F52" s="3">
-        <v>25100</v>
+        <v>20500</v>
       </c>
       <c r="G52" s="3">
-        <v>28000</v>
+        <v>21400</v>
       </c>
       <c r="H52" s="3">
-        <v>23500</v>
+        <v>25500</v>
       </c>
       <c r="I52" s="3">
+        <v>28500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K52" s="3">
         <v>15200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>15900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>18700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>16300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>12400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>15600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>13400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>13100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>6300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>3300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>3200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1100</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3966,8 +4205,14 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,77 +4291,83 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>728400</v>
+        <v>844400</v>
       </c>
       <c r="E54" s="3">
-        <v>669600</v>
+        <v>823700</v>
       </c>
       <c r="F54" s="3">
-        <v>631500</v>
+        <v>741600</v>
       </c>
       <c r="G54" s="3">
-        <v>602100</v>
+        <v>681700</v>
       </c>
       <c r="H54" s="3">
-        <v>549400</v>
+        <v>643000</v>
       </c>
       <c r="I54" s="3">
+        <v>613000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>559300</v>
+      </c>
+      <c r="K54" s="3">
         <v>479500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>456400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>456000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>440400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>448000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>439300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>378300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>305800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>275800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>265000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>246400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>195200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>178800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>203400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>134500</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4126,8 +4377,14 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4413,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,8 +4445,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4195,68 +4456,68 @@
         <v>115100</v>
       </c>
       <c r="E57" s="3">
-        <v>104100</v>
+        <v>121900</v>
       </c>
       <c r="F57" s="3">
-        <v>110200</v>
+        <v>117200</v>
       </c>
       <c r="G57" s="3">
-        <v>100700</v>
+        <v>106000</v>
       </c>
       <c r="H57" s="3">
-        <v>92000</v>
+        <v>112200</v>
       </c>
       <c r="I57" s="3">
+        <v>102500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>93600</v>
+      </c>
+      <c r="K57" s="3">
         <v>76600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>73900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>78200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>71500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>84200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>98900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>65600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>62500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>58600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>55300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>53900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>52000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>42500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>37200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>32700</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4266,77 +4527,83 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13900</v>
+        <v>16400</v>
       </c>
       <c r="E58" s="3">
-        <v>13800</v>
+        <v>15400</v>
       </c>
       <c r="F58" s="3">
+        <v>14200</v>
+      </c>
+      <c r="G58" s="3">
         <v>14000</v>
       </c>
-      <c r="G58" s="3">
-        <v>15200</v>
-      </c>
       <c r="H58" s="3">
-        <v>15900</v>
+        <v>14300</v>
       </c>
       <c r="I58" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K58" s="3">
         <v>14300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>14200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>13100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>13600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>14300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>15600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>11700</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>25500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>30500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>50800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>26800</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4346,77 +4613,83 @@
       <c r="AB58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21400</v>
+        <v>24400</v>
       </c>
       <c r="E59" s="3">
-        <v>18000</v>
+        <v>30600</v>
       </c>
       <c r="F59" s="3">
-        <v>15300</v>
+        <v>21800</v>
       </c>
       <c r="G59" s="3">
-        <v>21600</v>
+        <v>18300</v>
       </c>
       <c r="H59" s="3">
-        <v>12500</v>
+        <v>15600</v>
       </c>
       <c r="I59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K59" s="3">
         <v>8500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>9500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>8300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>8500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>11900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>6700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>9500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>7600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>14400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>10900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>23300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>500</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4426,77 +4699,83 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>150400</v>
+        <v>155900</v>
       </c>
       <c r="E60" s="3">
-        <v>135800</v>
+        <v>167900</v>
       </c>
       <c r="F60" s="3">
-        <v>139500</v>
+        <v>153100</v>
       </c>
       <c r="G60" s="3">
-        <v>137600</v>
+        <v>138300</v>
       </c>
       <c r="H60" s="3">
-        <v>120400</v>
+        <v>142000</v>
       </c>
       <c r="I60" s="3">
+        <v>140100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>122500</v>
+      </c>
+      <c r="K60" s="3">
         <v>99400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>94900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>100800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>93300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>108200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>119700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>85800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>74400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>65300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>64900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>61500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>92000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>83900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>111300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>60000</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4506,53 +4785,59 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>61200</v>
+      </c>
+      <c r="F61" s="3">
+        <v>52500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>52500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>53200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>56700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K61" s="3">
+        <v>40500</v>
+      </c>
+      <c r="L61" s="3">
+        <v>45800</v>
+      </c>
+      <c r="M61" s="3">
+        <v>48000</v>
+      </c>
+      <c r="N61" s="3">
         <v>51500</v>
       </c>
-      <c r="E61" s="3">
-        <v>51600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>52300</v>
-      </c>
-      <c r="G61" s="3">
-        <v>55700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>58700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>40500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>45800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>48000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>51500</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>53800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>53900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>40400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4566,17 +4851,17 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>100</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4586,77 +4871,83 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19600</v>
+        <v>15500</v>
       </c>
       <c r="E62" s="3">
-        <v>19500</v>
+        <v>16800</v>
       </c>
       <c r="F62" s="3">
-        <v>13800</v>
+        <v>19900</v>
       </c>
       <c r="G62" s="3">
-        <v>16900</v>
+        <v>19800</v>
       </c>
       <c r="H62" s="3">
-        <v>23100</v>
+        <v>14100</v>
       </c>
       <c r="I62" s="3">
+        <v>17200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K62" s="3">
         <v>17100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>12500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>12900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>7300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>9400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>3800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>4100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>13400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>14100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>14500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>3800</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4666,8 +4957,14 @@
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +5043,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4826,8 +5129,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,77 +5215,83 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>221500</v>
+        <v>235700</v>
       </c>
       <c r="E66" s="3">
-        <v>206900</v>
+        <v>245900</v>
       </c>
       <c r="F66" s="3">
-        <v>205600</v>
+        <v>225500</v>
       </c>
       <c r="G66" s="3">
-        <v>210100</v>
+        <v>210600</v>
       </c>
       <c r="H66" s="3">
-        <v>202200</v>
+        <v>209300</v>
       </c>
       <c r="I66" s="3">
+        <v>213900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>205800</v>
+      </c>
+      <c r="K66" s="3">
         <v>157000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>153200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>161700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>152200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>171300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>180200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>129000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>77400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>68500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>68700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>65600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>105400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>98000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>125900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>63800</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4986,8 +5301,14 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5337,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5419,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5505,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,8 +5591,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,77 +5677,83 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>495000</v>
+        <v>582000</v>
       </c>
       <c r="E72" s="3">
-        <v>452600</v>
+        <v>565700</v>
       </c>
       <c r="F72" s="3">
-        <v>419400</v>
+        <v>503900</v>
       </c>
       <c r="G72" s="3">
-        <v>390600</v>
+        <v>460800</v>
       </c>
       <c r="H72" s="3">
-        <v>345800</v>
+        <v>427000</v>
       </c>
       <c r="I72" s="3">
+        <v>397700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>352100</v>
+      </c>
+      <c r="K72" s="3">
         <v>321100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>301800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>293700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>288300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>248800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>232200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>226700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>205700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>186900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>133700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>118200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>88000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>79000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>75700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>68800</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5416,8 +5763,14 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5849,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5935,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,77 +6021,83 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>506800</v>
+        <v>608700</v>
       </c>
       <c r="E76" s="3">
-        <v>462700</v>
+        <v>577800</v>
       </c>
       <c r="F76" s="3">
-        <v>425900</v>
+        <v>516000</v>
       </c>
       <c r="G76" s="3">
-        <v>392000</v>
+        <v>471100</v>
       </c>
       <c r="H76" s="3">
-        <v>347200</v>
+        <v>433600</v>
       </c>
       <c r="I76" s="3">
+        <v>399100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>353500</v>
+      </c>
+      <c r="K76" s="3">
         <v>322500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>303200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>294200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>288300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>276700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>259100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>249300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>228400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>207200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>196300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>180800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>89800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>80800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>77500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>70700</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5736,8 +6107,14 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,173 +6193,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>31700</v>
+        <v>17900</v>
       </c>
       <c r="E81" s="3">
-        <v>23500</v>
+        <v>37800</v>
       </c>
       <c r="F81" s="3">
-        <v>18000</v>
+        <v>32200</v>
       </c>
       <c r="G81" s="3">
-        <v>24100</v>
+        <v>24000</v>
       </c>
       <c r="H81" s="3">
-        <v>18700</v>
+        <v>18400</v>
       </c>
       <c r="I81" s="3">
+        <v>24500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K81" s="3">
         <v>15200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>7900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>19400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-18800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>19800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>11300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>8400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>9800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>6300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>18200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>6200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>6600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>5600</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,8 +6406,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6058,41 +6455,47 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3">
         <v>2300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>5800</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z83" s="3">
         <v>1700</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6574,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6660,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6746,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6832,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,88 +6918,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>55200</v>
+        <v>48800</v>
       </c>
       <c r="E89" s="3">
-        <v>21900</v>
+        <v>30100</v>
       </c>
       <c r="F89" s="3">
-        <v>41000</v>
+        <v>56200</v>
       </c>
       <c r="G89" s="3">
-        <v>23300</v>
+        <v>22300</v>
       </c>
       <c r="H89" s="3">
-        <v>40900</v>
+        <v>41700</v>
       </c>
       <c r="I89" s="3">
+        <v>23700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K89" s="3">
         <v>13500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>23900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>25400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>15800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>15100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>21000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>15200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>16800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>12700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>17600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>26300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>11200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>5000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>14300</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,88 +7040,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4400</v>
+        <v>-4900</v>
       </c>
       <c r="E91" s="3">
-        <v>-3300</v>
+        <v>-4100</v>
       </c>
       <c r="F91" s="3">
         <v>-4500</v>
       </c>
       <c r="G91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1600</v>
       </c>
       <c r="J91" s="3">
         <v>-2000</v>
       </c>
       <c r="K91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-4500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-4800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-2100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>4300</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +7208,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,88 +7294,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-46500</v>
-      </c>
       <c r="I94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-16400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-58800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-34300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-5500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-3500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-37600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-24100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-2100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7416,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7031,8 +7498,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7584,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7670,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,244 +7756,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-4100</v>
-      </c>
       <c r="I100" s="3">
-        <v>-3200</v>
+        <v>-4700</v>
       </c>
       <c r="J100" s="3">
-        <v>-3500</v>
+        <v>-4200</v>
       </c>
       <c r="K100" s="3">
         <v>-3200</v>
       </c>
       <c r="L100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N100" s="3">
         <v>16700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-4800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>16900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>32700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-6900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-7000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>23800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-11900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>3300</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>700</v>
+      </c>
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-4100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
-      </c>
-      <c r="R101" s="3">
-        <v>100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>2300</v>
       </c>
       <c r="T101" s="3">
         <v>100</v>
       </c>
       <c r="U101" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="V101" s="3">
+        <v>100</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>49700</v>
+        <v>3500</v>
       </c>
       <c r="E102" s="3">
-        <v>7300</v>
+        <v>23400</v>
       </c>
       <c r="F102" s="3">
-        <v>37600</v>
+        <v>50600</v>
       </c>
       <c r="G102" s="3">
-        <v>14200</v>
+        <v>7400</v>
       </c>
       <c r="H102" s="3">
-        <v>-10500</v>
+        <v>38300</v>
       </c>
       <c r="I102" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>16600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-37000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>17300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>10900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-6300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>18400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>14900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>11000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>12300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>35300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>7200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-18200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>11000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-9000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>12500</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -787,25 +787,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>244700</v>
+        <v>254600</v>
       </c>
       <c r="E8" s="3">
-        <v>234000</v>
+        <v>243400</v>
       </c>
       <c r="F8" s="3">
-        <v>215100</v>
+        <v>223800</v>
       </c>
       <c r="G8" s="3">
-        <v>201800</v>
+        <v>209900</v>
       </c>
       <c r="H8" s="3">
-        <v>188100</v>
+        <v>195700</v>
       </c>
       <c r="I8" s="3">
-        <v>175900</v>
+        <v>183000</v>
       </c>
       <c r="J8" s="3">
-        <v>159300</v>
+        <v>165800</v>
       </c>
       <c r="K8" s="3">
         <v>131500</v>
@@ -873,25 +873,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>158300</v>
+        <v>164700</v>
       </c>
       <c r="E9" s="3">
-        <v>153500</v>
+        <v>159800</v>
       </c>
       <c r="F9" s="3">
-        <v>146300</v>
+        <v>152200</v>
       </c>
       <c r="G9" s="3">
-        <v>135700</v>
+        <v>141200</v>
       </c>
       <c r="H9" s="3">
-        <v>125900</v>
+        <v>131000</v>
       </c>
       <c r="I9" s="3">
-        <v>113000</v>
+        <v>117600</v>
       </c>
       <c r="J9" s="3">
-        <v>104900</v>
+        <v>109100</v>
       </c>
       <c r="K9" s="3">
         <v>86400</v>
@@ -959,25 +959,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>86400</v>
+        <v>89900</v>
       </c>
       <c r="E10" s="3">
-        <v>80400</v>
+        <v>83700</v>
       </c>
       <c r="F10" s="3">
-        <v>68900</v>
+        <v>71700</v>
       </c>
       <c r="G10" s="3">
-        <v>66100</v>
+        <v>68700</v>
       </c>
       <c r="H10" s="3">
-        <v>62100</v>
+        <v>64600</v>
       </c>
       <c r="I10" s="3">
-        <v>62900</v>
+        <v>65400</v>
       </c>
       <c r="J10" s="3">
-        <v>54500</v>
+        <v>56700</v>
       </c>
       <c r="K10" s="3">
         <v>45100</v>
@@ -1249,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E14" s="3">
         <v>1600</v>
@@ -1335,22 +1335,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E15" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="H15" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="I15" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1450,25 +1450,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>205600</v>
+        <v>214000</v>
       </c>
       <c r="E17" s="3">
-        <v>201500</v>
+        <v>209600</v>
       </c>
       <c r="F17" s="3">
-        <v>183400</v>
+        <v>190800</v>
       </c>
       <c r="G17" s="3">
+        <v>178400</v>
+      </c>
+      <c r="H17" s="3">
         <v>171500</v>
       </c>
-      <c r="H17" s="3">
-        <v>164900</v>
-      </c>
       <c r="I17" s="3">
-        <v>147400</v>
+        <v>153300</v>
       </c>
       <c r="J17" s="3">
-        <v>135700</v>
+        <v>141200</v>
       </c>
       <c r="K17" s="3">
         <v>110400</v>
@@ -1536,25 +1536,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>39100</v>
+        <v>40600</v>
       </c>
       <c r="E18" s="3">
-        <v>32500</v>
+        <v>33800</v>
       </c>
       <c r="F18" s="3">
-        <v>31800</v>
+        <v>33100</v>
       </c>
       <c r="G18" s="3">
-        <v>30300</v>
+        <v>31500</v>
       </c>
       <c r="H18" s="3">
-        <v>23200</v>
+        <v>24100</v>
       </c>
       <c r="I18" s="3">
-        <v>28500</v>
+        <v>29700</v>
       </c>
       <c r="J18" s="3">
-        <v>23600</v>
+        <v>24500</v>
       </c>
       <c r="K18" s="3">
         <v>21100</v>
@@ -1654,13 +1654,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14900</v>
+        <v>-15500</v>
       </c>
       <c r="E20" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="F20" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="G20" s="3">
         <v>600</v>
@@ -1740,25 +1740,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="E21" s="3">
-        <v>55200</v>
+        <v>57400</v>
       </c>
       <c r="F21" s="3">
-        <v>38100</v>
+        <v>39700</v>
       </c>
       <c r="G21" s="3">
-        <v>31300</v>
+        <v>32500</v>
       </c>
       <c r="H21" s="3">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="I21" s="3">
-        <v>38000</v>
+        <v>39600</v>
       </c>
       <c r="J21" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="K21" s="3">
         <v>18100</v>
@@ -1912,25 +1912,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24200</v>
+        <v>25200</v>
       </c>
       <c r="E23" s="3">
-        <v>46000</v>
+        <v>47900</v>
       </c>
       <c r="F23" s="3">
-        <v>38700</v>
+        <v>40300</v>
       </c>
       <c r="G23" s="3">
+        <v>32100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>23700</v>
+      </c>
+      <c r="I23" s="3">
         <v>30900</v>
       </c>
-      <c r="H23" s="3">
-        <v>22700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>29700</v>
-      </c>
       <c r="J23" s="3">
-        <v>22100</v>
+        <v>23000</v>
       </c>
       <c r="K23" s="3">
         <v>19300</v>
@@ -1998,25 +1998,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="E24" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="F24" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="G24" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="H24" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="I24" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J24" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K24" s="3">
         <v>4100</v>
@@ -2170,25 +2170,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="E26" s="3">
-        <v>37800</v>
+        <v>39400</v>
       </c>
       <c r="F26" s="3">
-        <v>32200</v>
+        <v>33500</v>
       </c>
       <c r="G26" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="H26" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="I26" s="3">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="J26" s="3">
-        <v>19000</v>
+        <v>19800</v>
       </c>
       <c r="K26" s="3">
         <v>15200</v>
@@ -2256,25 +2256,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="E27" s="3">
-        <v>37800</v>
+        <v>39400</v>
       </c>
       <c r="F27" s="3">
-        <v>32200</v>
+        <v>33500</v>
       </c>
       <c r="G27" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="H27" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="I27" s="3">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="J27" s="3">
-        <v>19000</v>
+        <v>19800</v>
       </c>
       <c r="K27" s="3">
         <v>15200</v>
@@ -2686,13 +2686,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14900</v>
+        <v>15500</v>
       </c>
       <c r="E32" s="3">
-        <v>-13500</v>
+        <v>-14000</v>
       </c>
       <c r="F32" s="3">
-        <v>-7000</v>
+        <v>-7300</v>
       </c>
       <c r="G32" s="3">
         <v>-600</v>
@@ -2772,25 +2772,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="E33" s="3">
-        <v>37800</v>
+        <v>39400</v>
       </c>
       <c r="F33" s="3">
-        <v>32200</v>
+        <v>33500</v>
       </c>
       <c r="G33" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="H33" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="I33" s="3">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="J33" s="3">
-        <v>19000</v>
+        <v>19800</v>
       </c>
       <c r="K33" s="3">
         <v>15200</v>
@@ -2944,25 +2944,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="E35" s="3">
-        <v>37800</v>
+        <v>39400</v>
       </c>
       <c r="F35" s="3">
-        <v>32200</v>
+        <v>33500</v>
       </c>
       <c r="G35" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="H35" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="I35" s="3">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="J35" s="3">
-        <v>19000</v>
+        <v>19800</v>
       </c>
       <c r="K35" s="3">
         <v>15200</v>
@@ -3185,25 +3185,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>221000</v>
+        <v>229900</v>
       </c>
       <c r="E41" s="3">
-        <v>217500</v>
+        <v>226300</v>
       </c>
       <c r="F41" s="3">
-        <v>194100</v>
+        <v>202000</v>
       </c>
       <c r="G41" s="3">
-        <v>143600</v>
+        <v>149400</v>
       </c>
       <c r="H41" s="3">
-        <v>136200</v>
+        <v>141700</v>
       </c>
       <c r="I41" s="3">
-        <v>97800</v>
+        <v>101800</v>
       </c>
       <c r="J41" s="3">
-        <v>83300</v>
+        <v>86700</v>
       </c>
       <c r="K41" s="3">
         <v>92300</v>
@@ -3283,7 +3283,7 @@
         <v>400</v>
       </c>
       <c r="H42" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I42" s="3">
         <v>700</v>
@@ -3357,25 +3357,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>210000</v>
+        <v>218500</v>
       </c>
       <c r="E43" s="3">
-        <v>231000</v>
+        <v>240300</v>
       </c>
       <c r="F43" s="3">
-        <v>196700</v>
+        <v>204700</v>
       </c>
       <c r="G43" s="3">
-        <v>191800</v>
+        <v>199600</v>
       </c>
       <c r="H43" s="3">
-        <v>173000</v>
+        <v>180000</v>
       </c>
       <c r="I43" s="3">
-        <v>169800</v>
+        <v>176700</v>
       </c>
       <c r="J43" s="3">
-        <v>142200</v>
+        <v>148000</v>
       </c>
       <c r="K43" s="3">
         <v>129500</v>
@@ -3615,25 +3615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>431300</v>
+        <v>448700</v>
       </c>
       <c r="E46" s="3">
-        <v>448900</v>
+        <v>467100</v>
       </c>
       <c r="F46" s="3">
-        <v>391400</v>
+        <v>407200</v>
       </c>
       <c r="G46" s="3">
-        <v>335800</v>
+        <v>349400</v>
       </c>
       <c r="H46" s="3">
-        <v>309600</v>
+        <v>322200</v>
       </c>
       <c r="I46" s="3">
-        <v>268300</v>
+        <v>279100</v>
       </c>
       <c r="J46" s="3">
-        <v>226200</v>
+        <v>235400</v>
       </c>
       <c r="K46" s="3">
         <v>222500</v>
@@ -3704,10 +3704,10 @@
         <v>1700</v>
       </c>
       <c r="E47" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="F47" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
@@ -3719,7 +3719,7 @@
         <v>300</v>
       </c>
       <c r="J47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K47" s="3">
         <v>600</v>
@@ -3787,25 +3787,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>103500</v>
+        <v>107700</v>
       </c>
       <c r="E48" s="3">
-        <v>98900</v>
+        <v>102900</v>
       </c>
       <c r="F48" s="3">
-        <v>86000</v>
+        <v>89400</v>
       </c>
       <c r="G48" s="3">
-        <v>82800</v>
+        <v>86200</v>
       </c>
       <c r="H48" s="3">
-        <v>82200</v>
+        <v>85600</v>
       </c>
       <c r="I48" s="3">
-        <v>84200</v>
+        <v>87600</v>
       </c>
       <c r="J48" s="3">
-        <v>84100</v>
+        <v>87500</v>
       </c>
       <c r="K48" s="3">
         <v>62700</v>
@@ -3873,25 +3873,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>291900</v>
+        <v>303700</v>
       </c>
       <c r="E49" s="3">
-        <v>249200</v>
+        <v>259300</v>
       </c>
       <c r="F49" s="3">
-        <v>241000</v>
+        <v>250800</v>
       </c>
       <c r="G49" s="3">
-        <v>241500</v>
+        <v>251300</v>
       </c>
       <c r="H49" s="3">
-        <v>225300</v>
+        <v>234500</v>
       </c>
       <c r="I49" s="3">
-        <v>231700</v>
+        <v>241100</v>
       </c>
       <c r="J49" s="3">
-        <v>224700</v>
+        <v>233800</v>
       </c>
       <c r="K49" s="3">
         <v>178500</v>
@@ -4131,25 +4131,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="E52" s="3">
-        <v>23400</v>
+        <v>24300</v>
       </c>
       <c r="F52" s="3">
-        <v>20500</v>
+        <v>21400</v>
       </c>
       <c r="G52" s="3">
-        <v>21400</v>
+        <v>22300</v>
       </c>
       <c r="H52" s="3">
-        <v>25500</v>
+        <v>26600</v>
       </c>
       <c r="I52" s="3">
-        <v>28500</v>
+        <v>29700</v>
       </c>
       <c r="J52" s="3">
-        <v>23900</v>
+        <v>24900</v>
       </c>
       <c r="K52" s="3">
         <v>15200</v>
@@ -4303,25 +4303,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>844400</v>
+        <v>878600</v>
       </c>
       <c r="E54" s="3">
-        <v>823700</v>
+        <v>857100</v>
       </c>
       <c r="F54" s="3">
-        <v>741600</v>
+        <v>771600</v>
       </c>
       <c r="G54" s="3">
-        <v>681700</v>
+        <v>709300</v>
       </c>
       <c r="H54" s="3">
-        <v>643000</v>
+        <v>669000</v>
       </c>
       <c r="I54" s="3">
-        <v>613000</v>
+        <v>637900</v>
       </c>
       <c r="J54" s="3">
-        <v>559300</v>
+        <v>582000</v>
       </c>
       <c r="K54" s="3">
         <v>479500</v>
@@ -4453,25 +4453,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>115100</v>
+        <v>119700</v>
       </c>
       <c r="E57" s="3">
+        <v>126900</v>
+      </c>
+      <c r="F57" s="3">
         <v>121900</v>
       </c>
-      <c r="F57" s="3">
-        <v>117200</v>
-      </c>
       <c r="G57" s="3">
-        <v>106000</v>
+        <v>110300</v>
       </c>
       <c r="H57" s="3">
-        <v>112200</v>
+        <v>116700</v>
       </c>
       <c r="I57" s="3">
-        <v>102500</v>
+        <v>106700</v>
       </c>
       <c r="J57" s="3">
-        <v>93600</v>
+        <v>97400</v>
       </c>
       <c r="K57" s="3">
         <v>76600</v>
@@ -4539,25 +4539,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16400</v>
+        <v>17100</v>
       </c>
       <c r="E58" s="3">
-        <v>15400</v>
+        <v>16100</v>
       </c>
       <c r="F58" s="3">
-        <v>14200</v>
+        <v>14800</v>
       </c>
       <c r="G58" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="H58" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="I58" s="3">
-        <v>15500</v>
+        <v>16100</v>
       </c>
       <c r="J58" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="K58" s="3">
         <v>14300</v>
@@ -4625,25 +4625,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24400</v>
+        <v>25400</v>
       </c>
       <c r="E59" s="3">
-        <v>30600</v>
+        <v>31800</v>
       </c>
       <c r="F59" s="3">
-        <v>21800</v>
+        <v>22700</v>
       </c>
       <c r="G59" s="3">
-        <v>18300</v>
+        <v>19000</v>
       </c>
       <c r="H59" s="3">
-        <v>15600</v>
+        <v>16200</v>
       </c>
       <c r="I59" s="3">
-        <v>22000</v>
+        <v>22900</v>
       </c>
       <c r="J59" s="3">
-        <v>12700</v>
+        <v>13300</v>
       </c>
       <c r="K59" s="3">
         <v>8500</v>
@@ -4711,25 +4711,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>155900</v>
+        <v>162200</v>
       </c>
       <c r="E60" s="3">
-        <v>167900</v>
+        <v>174700</v>
       </c>
       <c r="F60" s="3">
-        <v>153100</v>
+        <v>159300</v>
       </c>
       <c r="G60" s="3">
-        <v>138300</v>
+        <v>143900</v>
       </c>
       <c r="H60" s="3">
-        <v>142000</v>
+        <v>147800</v>
       </c>
       <c r="I60" s="3">
-        <v>140100</v>
+        <v>145700</v>
       </c>
       <c r="J60" s="3">
-        <v>122500</v>
+        <v>127500</v>
       </c>
       <c r="K60" s="3">
         <v>99400</v>
@@ -4797,25 +4797,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>64300</v>
+        <v>66900</v>
       </c>
       <c r="E61" s="3">
-        <v>61200</v>
+        <v>63700</v>
       </c>
       <c r="F61" s="3">
-        <v>52500</v>
+        <v>54600</v>
       </c>
       <c r="G61" s="3">
-        <v>52500</v>
+        <v>54600</v>
       </c>
       <c r="H61" s="3">
-        <v>53200</v>
+        <v>55400</v>
       </c>
       <c r="I61" s="3">
-        <v>56700</v>
+        <v>59000</v>
       </c>
       <c r="J61" s="3">
-        <v>59800</v>
+        <v>62200</v>
       </c>
       <c r="K61" s="3">
         <v>40500</v>
@@ -4883,25 +4883,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15500</v>
+        <v>16100</v>
       </c>
       <c r="E62" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="F62" s="3">
-        <v>19900</v>
+        <v>20700</v>
       </c>
       <c r="G62" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="H62" s="3">
-        <v>14100</v>
+        <v>14700</v>
       </c>
       <c r="I62" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="J62" s="3">
-        <v>23500</v>
+        <v>24400</v>
       </c>
       <c r="K62" s="3">
         <v>17100</v>
@@ -5227,25 +5227,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>235700</v>
+        <v>245300</v>
       </c>
       <c r="E66" s="3">
-        <v>245900</v>
+        <v>255800</v>
       </c>
       <c r="F66" s="3">
-        <v>225500</v>
+        <v>234700</v>
       </c>
       <c r="G66" s="3">
-        <v>210600</v>
+        <v>219200</v>
       </c>
       <c r="H66" s="3">
-        <v>209300</v>
+        <v>217800</v>
       </c>
       <c r="I66" s="3">
-        <v>213900</v>
+        <v>222600</v>
       </c>
       <c r="J66" s="3">
-        <v>205800</v>
+        <v>214200</v>
       </c>
       <c r="K66" s="3">
         <v>157000</v>
@@ -5689,25 +5689,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>582000</v>
+        <v>605600</v>
       </c>
       <c r="E72" s="3">
-        <v>565700</v>
+        <v>588700</v>
       </c>
       <c r="F72" s="3">
-        <v>503900</v>
+        <v>524400</v>
       </c>
       <c r="G72" s="3">
-        <v>460800</v>
+        <v>479500</v>
       </c>
       <c r="H72" s="3">
-        <v>427000</v>
+        <v>444300</v>
       </c>
       <c r="I72" s="3">
-        <v>397700</v>
+        <v>413800</v>
       </c>
       <c r="J72" s="3">
-        <v>352100</v>
+        <v>366300</v>
       </c>
       <c r="K72" s="3">
         <v>321100</v>
@@ -6033,25 +6033,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>608700</v>
+        <v>633400</v>
       </c>
       <c r="E76" s="3">
-        <v>577800</v>
+        <v>601200</v>
       </c>
       <c r="F76" s="3">
-        <v>516000</v>
+        <v>536900</v>
       </c>
       <c r="G76" s="3">
-        <v>471100</v>
+        <v>490100</v>
       </c>
       <c r="H76" s="3">
-        <v>433600</v>
+        <v>451200</v>
       </c>
       <c r="I76" s="3">
-        <v>399100</v>
+        <v>415300</v>
       </c>
       <c r="J76" s="3">
-        <v>353500</v>
+        <v>367800</v>
       </c>
       <c r="K76" s="3">
         <v>322500</v>
@@ -6296,25 +6296,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="E81" s="3">
-        <v>37800</v>
+        <v>39400</v>
       </c>
       <c r="F81" s="3">
-        <v>32200</v>
+        <v>33500</v>
       </c>
       <c r="G81" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="H81" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="I81" s="3">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="J81" s="3">
-        <v>19000</v>
+        <v>19800</v>
       </c>
       <c r="K81" s="3">
         <v>15200</v>
@@ -6930,25 +6930,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>48800</v>
+        <v>50700</v>
       </c>
       <c r="E89" s="3">
-        <v>30100</v>
+        <v>31300</v>
       </c>
       <c r="F89" s="3">
-        <v>56200</v>
+        <v>58500</v>
       </c>
       <c r="G89" s="3">
-        <v>22300</v>
+        <v>23200</v>
       </c>
       <c r="H89" s="3">
-        <v>41700</v>
+        <v>43400</v>
       </c>
       <c r="I89" s="3">
-        <v>23700</v>
+        <v>24700</v>
       </c>
       <c r="J89" s="3">
-        <v>41600</v>
+        <v>43300</v>
       </c>
       <c r="K89" s="3">
         <v>13500</v>
@@ -7048,25 +7048,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4900</v>
+        <v>-4100</v>
       </c>
       <c r="E91" s="3">
-        <v>-4100</v>
+        <v>-3400</v>
       </c>
       <c r="F91" s="3">
-        <v>-4500</v>
+        <v>-3800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3300</v>
+        <v>-2800</v>
       </c>
       <c r="H91" s="3">
-        <v>-4600</v>
+        <v>-3800</v>
       </c>
       <c r="I91" s="3">
-        <v>-4200</v>
+        <v>-3600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2000</v>
+        <v>-1700</v>
       </c>
       <c r="K91" s="3">
         <v>-1600</v>
@@ -7306,25 +7306,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-43100</v>
+        <v>-44800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="G94" s="3">
-        <v>-14600</v>
+        <v>-15100</v>
       </c>
       <c r="H94" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="I94" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="J94" s="3">
-        <v>-47300</v>
+        <v>-49200</v>
       </c>
       <c r="K94" s="3">
         <v>-16400</v>
@@ -7768,25 +7768,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="E100" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G100" s="3">
         <v>-400</v>
       </c>
       <c r="H100" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I100" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="J100" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K100" s="3">
         <v>-3200</v>
@@ -7860,7 +7860,7 @@
         <v>700</v>
       </c>
       <c r="F101" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -7869,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -7940,25 +7940,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E102" s="3">
-        <v>23400</v>
+        <v>24300</v>
       </c>
       <c r="F102" s="3">
-        <v>50600</v>
+        <v>52600</v>
       </c>
       <c r="G102" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="H102" s="3">
-        <v>38300</v>
+        <v>39900</v>
       </c>
       <c r="I102" s="3">
-        <v>14500</v>
+        <v>15100</v>
       </c>
       <c r="J102" s="3">
-        <v>-10700</v>
+        <v>-11100</v>
       </c>
       <c r="K102" s="3">
         <v>-6300</v>

--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,114 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
@@ -781,83 +782,86 @@
       <c r="AD7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>254600</v>
+        <v>257900</v>
       </c>
       <c r="E8" s="3">
-        <v>243400</v>
+        <v>260000</v>
       </c>
       <c r="F8" s="3">
-        <v>223800</v>
+        <v>248600</v>
       </c>
       <c r="G8" s="3">
-        <v>209900</v>
+        <v>228600</v>
       </c>
       <c r="H8" s="3">
-        <v>195700</v>
+        <v>214400</v>
       </c>
       <c r="I8" s="3">
-        <v>183000</v>
+        <v>199900</v>
       </c>
       <c r="J8" s="3">
+        <v>186900</v>
+      </c>
+      <c r="K8" s="3">
         <v>165800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>131500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>123200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>112500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>110400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>122700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>117100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>112400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>105200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>97300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>94800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>87700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>79500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>201800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>65200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>62000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>56100</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB8" s="3" t="s">
         <v>3</v>
       </c>
@@ -867,83 +871,86 @@
       <c r="AD8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>164700</v>
+        <v>176000</v>
       </c>
       <c r="E9" s="3">
-        <v>159800</v>
+        <v>168200</v>
       </c>
       <c r="F9" s="3">
-        <v>152200</v>
+        <v>163200</v>
       </c>
       <c r="G9" s="3">
-        <v>141200</v>
+        <v>155400</v>
       </c>
       <c r="H9" s="3">
-        <v>131000</v>
+        <v>144200</v>
       </c>
       <c r="I9" s="3">
-        <v>117600</v>
+        <v>133800</v>
       </c>
       <c r="J9" s="3">
+        <v>120100</v>
+      </c>
+      <c r="K9" s="3">
         <v>109100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>86400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>79900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>73600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>77400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>75200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>106700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>71900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>69600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>64000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>61300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>58000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>51800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>136200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>44400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>42200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>38000</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
@@ -953,83 +960,86 @@
       <c r="AD9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>89900</v>
+        <v>81900</v>
       </c>
       <c r="E10" s="3">
-        <v>83700</v>
+        <v>91800</v>
       </c>
       <c r="F10" s="3">
-        <v>71700</v>
+        <v>85500</v>
       </c>
       <c r="G10" s="3">
-        <v>68700</v>
+        <v>73200</v>
       </c>
       <c r="H10" s="3">
-        <v>64600</v>
+        <v>70200</v>
       </c>
       <c r="I10" s="3">
-        <v>65400</v>
+        <v>66000</v>
       </c>
       <c r="J10" s="3">
+        <v>66800</v>
+      </c>
+      <c r="K10" s="3">
         <v>56700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>45100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>43400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>47500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>40500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>33300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>33500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>29700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>27700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>65600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>20900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>19700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>18100</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1039,8 +1049,11 @@
       <c r="AD10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1071,8 +1084,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1157,8 +1171,11 @@
       <c r="AD12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1243,83 +1260,86 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2900</v>
+        <v>-4300</v>
       </c>
       <c r="E14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>800</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>1600</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="3">
         <v>500</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1329,62 +1349,65 @@
       <c r="AD14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E15" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4200</v>
+        <v>4900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I15" s="3">
         <v>3900</v>
       </c>
-      <c r="I15" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="J15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>1800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2100</v>
       </c>
       <c r="M15" s="3">
         <v>2100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="N15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
         <v>2200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1900</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3">
         <v>1300</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1394,8 +1417,8 @@
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1415,8 +1438,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1444,83 +1470,84 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>214000</v>
+        <v>219800</v>
       </c>
       <c r="E17" s="3">
-        <v>209600</v>
+        <v>218500</v>
       </c>
       <c r="F17" s="3">
-        <v>190800</v>
+        <v>214100</v>
       </c>
       <c r="G17" s="3">
-        <v>178400</v>
+        <v>194900</v>
       </c>
       <c r="H17" s="3">
-        <v>171500</v>
+        <v>182200</v>
       </c>
       <c r="I17" s="3">
-        <v>153300</v>
+        <v>175200</v>
       </c>
       <c r="J17" s="3">
+        <v>156600</v>
+      </c>
+      <c r="K17" s="3">
         <v>141200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>110400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>106800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>98700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>102000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>104000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>132800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>92500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>93300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>87400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>82900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>77400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>71200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>177300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>57200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>52900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>47800</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,83 +1557,86 @@
       <c r="AD17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>40600</v>
+        <v>38100</v>
       </c>
       <c r="E18" s="3">
+        <v>41500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>34600</v>
+      </c>
+      <c r="G18" s="3">
         <v>33800</v>
       </c>
-      <c r="F18" s="3">
-        <v>33100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>31500</v>
-      </c>
       <c r="H18" s="3">
-        <v>24100</v>
+        <v>32200</v>
       </c>
       <c r="I18" s="3">
-        <v>29700</v>
+        <v>24700</v>
       </c>
       <c r="J18" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K18" s="3">
         <v>24500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>12000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>24500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>8000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>9000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>8200</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1646,11 @@
       <c r="AD18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1648,83 +1681,84 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15500</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
-        <v>14000</v>
+        <v>-15800</v>
       </c>
       <c r="F20" s="3">
-        <v>7300</v>
+        <v>14300</v>
       </c>
       <c r="G20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
-        <v>1200</v>
-      </c>
       <c r="J20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,83 +1768,86 @@
       <c r="AD20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>26000</v>
+        <v>38700</v>
       </c>
       <c r="E21" s="3">
-        <v>57400</v>
+        <v>26500</v>
       </c>
       <c r="F21" s="3">
-        <v>39700</v>
+        <v>58600</v>
       </c>
       <c r="G21" s="3">
-        <v>32500</v>
+        <v>40500</v>
       </c>
       <c r="H21" s="3">
-        <v>24000</v>
+        <v>33200</v>
       </c>
       <c r="I21" s="3">
-        <v>39600</v>
+        <v>24500</v>
       </c>
       <c r="J21" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K21" s="3">
         <v>24500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>29500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>14400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>11600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>11000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>29000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>8900</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,8 +1857,11 @@
       <c r="AD21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1906,83 +1946,86 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25200</v>
+        <v>38500</v>
       </c>
       <c r="E23" s="3">
-        <v>47900</v>
+        <v>25700</v>
       </c>
       <c r="F23" s="3">
-        <v>40300</v>
+        <v>48900</v>
       </c>
       <c r="G23" s="3">
-        <v>32100</v>
+        <v>41200</v>
       </c>
       <c r="H23" s="3">
-        <v>23700</v>
+        <v>32800</v>
       </c>
       <c r="I23" s="3">
-        <v>30900</v>
+        <v>24200</v>
       </c>
       <c r="J23" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K23" s="3">
         <v>23000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>23200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>8400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>7200</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,83 +2035,86 @@
       <c r="AD23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6500</v>
+        <v>7600</v>
       </c>
       <c r="E24" s="3">
-        <v>8500</v>
+        <v>6700</v>
       </c>
       <c r="F24" s="3">
-        <v>6800</v>
+        <v>8700</v>
       </c>
       <c r="G24" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="H24" s="3">
-        <v>4600</v>
+        <v>7300</v>
       </c>
       <c r="I24" s="3">
-        <v>5400</v>
+        <v>4700</v>
       </c>
       <c r="J24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K24" s="3">
         <v>3200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1600</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB24" s="3" t="s">
         <v>3</v>
       </c>
@@ -2078,8 +2124,11 @@
       <c r="AD24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2164,83 +2213,86 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18600</v>
+        <v>30900</v>
       </c>
       <c r="E26" s="3">
-        <v>39400</v>
+        <v>19000</v>
       </c>
       <c r="F26" s="3">
-        <v>33500</v>
+        <v>40200</v>
       </c>
       <c r="G26" s="3">
-        <v>24900</v>
+        <v>34300</v>
       </c>
       <c r="H26" s="3">
-        <v>19100</v>
+        <v>25500</v>
       </c>
       <c r="I26" s="3">
-        <v>25500</v>
+        <v>19500</v>
       </c>
       <c r="J26" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K26" s="3">
         <v>19800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>18200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>6600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5600</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,83 +2302,86 @@
       <c r="AD26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18600</v>
+        <v>30900</v>
       </c>
       <c r="E27" s="3">
-        <v>39400</v>
+        <v>19000</v>
       </c>
       <c r="F27" s="3">
-        <v>33500</v>
+        <v>40200</v>
       </c>
       <c r="G27" s="3">
-        <v>24900</v>
+        <v>34300</v>
       </c>
       <c r="H27" s="3">
-        <v>19100</v>
+        <v>25500</v>
       </c>
       <c r="I27" s="3">
-        <v>25500</v>
+        <v>19500</v>
       </c>
       <c r="J27" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K27" s="3">
         <v>19800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>18200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5600</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,8 +2391,11 @@
       <c r="AD27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2422,8 +2480,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2508,8 +2569,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2594,8 +2658,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2680,83 +2747,86 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15500</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
-        <v>-14000</v>
+        <v>15800</v>
       </c>
       <c r="F32" s="3">
-        <v>-7300</v>
+        <v>-14300</v>
       </c>
       <c r="G32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1200</v>
-      </c>
       <c r="J32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1000</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,83 +2836,86 @@
       <c r="AD32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18600</v>
+        <v>30900</v>
       </c>
       <c r="E33" s="3">
-        <v>39400</v>
+        <v>19000</v>
       </c>
       <c r="F33" s="3">
-        <v>33500</v>
+        <v>40200</v>
       </c>
       <c r="G33" s="3">
-        <v>24900</v>
+        <v>34300</v>
       </c>
       <c r="H33" s="3">
-        <v>19100</v>
+        <v>25500</v>
       </c>
       <c r="I33" s="3">
-        <v>25500</v>
+        <v>19500</v>
       </c>
       <c r="J33" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K33" s="3">
         <v>19800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>18200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>6600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5600</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2852,8 +2925,11 @@
       <c r="AD33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2938,83 +3014,86 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18600</v>
+        <v>30900</v>
       </c>
       <c r="E35" s="3">
-        <v>39400</v>
+        <v>19000</v>
       </c>
       <c r="F35" s="3">
-        <v>33500</v>
+        <v>40200</v>
       </c>
       <c r="G35" s="3">
-        <v>24900</v>
+        <v>34300</v>
       </c>
       <c r="H35" s="3">
-        <v>19100</v>
+        <v>25500</v>
       </c>
       <c r="I35" s="3">
-        <v>25500</v>
+        <v>19500</v>
       </c>
       <c r="J35" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K35" s="3">
         <v>19800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>18200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>6600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5600</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
@@ -3024,88 +3103,91 @@
       <c r="AD35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
@@ -3115,8 +3197,11 @@
       <c r="AD38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3147,8 +3232,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3179,80 +3265,81 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>229900</v>
+        <v>252400</v>
       </c>
       <c r="E41" s="3">
-        <v>226300</v>
+        <v>234900</v>
       </c>
       <c r="F41" s="3">
-        <v>202000</v>
+        <v>231100</v>
       </c>
       <c r="G41" s="3">
-        <v>149400</v>
+        <v>206300</v>
       </c>
       <c r="H41" s="3">
-        <v>141700</v>
+        <v>152600</v>
       </c>
       <c r="I41" s="3">
-        <v>101800</v>
+        <v>144700</v>
       </c>
       <c r="J41" s="3">
+        <v>104000</v>
+      </c>
+      <c r="K41" s="3">
         <v>86700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>92300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>82800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>123600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>116000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>107700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>114100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>96400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>79000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>67400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>55200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>32700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>21700</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3265,28 +3352,31 @@
       <c r="AD41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>200</v>
+      </c>
+      <c r="E42" s="3">
         <v>300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>700</v>
       </c>
       <c r="J42" s="3">
         <v>700</v>
@@ -3304,7 +3394,7 @@
         <v>700</v>
       </c>
       <c r="O42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P42" s="3">
         <v>800</v>
@@ -3312,8 +3402,8 @@
       <c r="Q42" s="3">
         <v>800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
+      <c r="R42" s="3">
+        <v>800</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
@@ -3330,8 +3420,8 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3351,80 +3441,83 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>218500</v>
+        <v>233500</v>
       </c>
       <c r="E43" s="3">
-        <v>240300</v>
+        <v>223200</v>
       </c>
       <c r="F43" s="3">
-        <v>204700</v>
+        <v>245500</v>
       </c>
       <c r="G43" s="3">
-        <v>199600</v>
+        <v>209100</v>
       </c>
       <c r="H43" s="3">
-        <v>180000</v>
+        <v>203800</v>
       </c>
       <c r="I43" s="3">
-        <v>176700</v>
+        <v>183800</v>
       </c>
       <c r="J43" s="3">
+        <v>180400</v>
+      </c>
+      <c r="K43" s="3">
         <v>148000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>129500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>110300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>112800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>104300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>108700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>107000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>93700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>91600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>84800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>84900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>80800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>68600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>64900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>64400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>59300</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3437,8 +3530,11 @@
       <c r="AD43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3500,17 +3596,17 @@
         <v>0</v>
       </c>
       <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
         <v>100</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
-      </c>
       <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
         <v>100</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3523,8 +3619,11 @@
       <c r="AD44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3609,80 +3708,83 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>448700</v>
+        <v>486100</v>
       </c>
       <c r="E46" s="3">
-        <v>467100</v>
+        <v>458300</v>
       </c>
       <c r="F46" s="3">
-        <v>407200</v>
+        <v>477100</v>
       </c>
       <c r="G46" s="3">
-        <v>349400</v>
+        <v>415900</v>
       </c>
       <c r="H46" s="3">
-        <v>322200</v>
+        <v>356800</v>
       </c>
       <c r="I46" s="3">
-        <v>279100</v>
+        <v>329100</v>
       </c>
       <c r="J46" s="3">
+        <v>285100</v>
+      </c>
+      <c r="K46" s="3">
         <v>235400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>222500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>209600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>196300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>228700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>225500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>215500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>208600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>188000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>163800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>152400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>136000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>88000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>77200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>97100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>81100</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3695,56 +3797,59 @@
       <c r="AD46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="E47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F47" s="3">
         <v>3500</v>
       </c>
-      <c r="F47" s="3">
-        <v>2800</v>
-      </c>
       <c r="G47" s="3">
-        <v>200</v>
+        <v>2900</v>
       </c>
       <c r="H47" s="3">
         <v>200</v>
       </c>
       <c r="I47" s="3">
+        <v>200</v>
+      </c>
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3754,14 +3859,14 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>3</v>
+      <c r="X47" s="3">
+        <v>0</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>3</v>
@@ -3781,80 +3886,83 @@
       <c r="AD47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>107700</v>
+        <v>108000</v>
       </c>
       <c r="E48" s="3">
-        <v>102900</v>
+        <v>110000</v>
       </c>
       <c r="F48" s="3">
-        <v>89400</v>
+        <v>105100</v>
       </c>
       <c r="G48" s="3">
-        <v>86200</v>
+        <v>91300</v>
       </c>
       <c r="H48" s="3">
-        <v>85600</v>
+        <v>88000</v>
       </c>
       <c r="I48" s="3">
-        <v>87600</v>
+        <v>87400</v>
       </c>
       <c r="J48" s="3">
+        <v>89500</v>
+      </c>
+      <c r="K48" s="3">
         <v>87500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>68900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>72400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>77900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>81500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>83000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>65700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>10400</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,80 +3975,83 @@
       <c r="AD48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>303700</v>
+        <v>301500</v>
       </c>
       <c r="E49" s="3">
-        <v>259300</v>
+        <v>310200</v>
       </c>
       <c r="F49" s="3">
-        <v>250800</v>
+        <v>264800</v>
       </c>
       <c r="G49" s="3">
-        <v>251300</v>
+        <v>256100</v>
       </c>
       <c r="H49" s="3">
-        <v>234500</v>
+        <v>256600</v>
       </c>
       <c r="I49" s="3">
-        <v>241100</v>
+        <v>239500</v>
       </c>
       <c r="J49" s="3">
+        <v>246300</v>
+      </c>
+      <c r="K49" s="3">
         <v>233800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>178500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>161300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>167700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>116800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>127400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>124000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>89100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>90200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>93200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>96100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>94900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>92900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>89600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>93700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>41900</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3953,8 +4064,11 @@
       <c r="AD49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4039,8 +4153,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4125,80 +4242,83 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="E52" s="3">
-        <v>24300</v>
+        <v>17100</v>
       </c>
       <c r="F52" s="3">
-        <v>21400</v>
+        <v>24900</v>
       </c>
       <c r="G52" s="3">
-        <v>22300</v>
+        <v>21800</v>
       </c>
       <c r="H52" s="3">
-        <v>26600</v>
+        <v>22700</v>
       </c>
       <c r="I52" s="3">
-        <v>29700</v>
+        <v>27100</v>
       </c>
       <c r="J52" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K52" s="3">
         <v>24900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6300</v>
-      </c>
-      <c r="T52" s="3">
-        <v>3300</v>
       </c>
       <c r="U52" s="3">
         <v>3300</v>
       </c>
       <c r="V52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="W52" s="3">
         <v>3200</v>
-      </c>
-      <c r="W52" s="3">
-        <v>1200</v>
       </c>
       <c r="X52" s="3">
         <v>1200</v>
       </c>
       <c r="Y52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1100</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4211,8 +4331,11 @@
       <c r="AD52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4297,80 +4420,83 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>878600</v>
+        <v>915100</v>
       </c>
       <c r="E54" s="3">
-        <v>857100</v>
+        <v>897400</v>
       </c>
       <c r="F54" s="3">
-        <v>771600</v>
+        <v>875400</v>
       </c>
       <c r="G54" s="3">
-        <v>709300</v>
+        <v>788100</v>
       </c>
       <c r="H54" s="3">
-        <v>669000</v>
+        <v>724400</v>
       </c>
       <c r="I54" s="3">
-        <v>637900</v>
+        <v>683300</v>
       </c>
       <c r="J54" s="3">
+        <v>651500</v>
+      </c>
+      <c r="K54" s="3">
         <v>582000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>479500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>456400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>456000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>440400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>448000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>439300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>378300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>305800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>275800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>265000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>246400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>195200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>178800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>203400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>134500</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4383,8 +4509,11 @@
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4415,8 +4544,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4447,80 +4577,81 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>119700</v>
+        <v>117400</v>
       </c>
       <c r="E57" s="3">
-        <v>126900</v>
+        <v>122300</v>
       </c>
       <c r="F57" s="3">
-        <v>121900</v>
+        <v>129600</v>
       </c>
       <c r="G57" s="3">
-        <v>110300</v>
+        <v>124500</v>
       </c>
       <c r="H57" s="3">
-        <v>116700</v>
+        <v>112600</v>
       </c>
       <c r="I57" s="3">
-        <v>106700</v>
+        <v>119200</v>
       </c>
       <c r="J57" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K57" s="3">
         <v>97400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>76600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>73900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>78200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>71500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>84200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>98900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>65600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>62500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>58600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>55300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>53900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>52000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>42500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>37200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>32700</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4533,80 +4664,83 @@
       <c r="AD57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17100</v>
+        <v>17600</v>
       </c>
       <c r="E58" s="3">
-        <v>16100</v>
+        <v>17400</v>
       </c>
       <c r="F58" s="3">
-        <v>14800</v>
+        <v>16400</v>
       </c>
       <c r="G58" s="3">
-        <v>14600</v>
+        <v>15100</v>
       </c>
       <c r="H58" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="I58" s="3">
-        <v>16100</v>
+        <v>15200</v>
       </c>
       <c r="J58" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K58" s="3">
         <v>16800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11700</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
       <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
         <v>25500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>30500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>50800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>26800</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4619,80 +4753,83 @@
       <c r="AD58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25400</v>
+        <v>19800</v>
       </c>
       <c r="E59" s="3">
-        <v>31800</v>
+        <v>26000</v>
       </c>
       <c r="F59" s="3">
-        <v>22700</v>
+        <v>32500</v>
       </c>
       <c r="G59" s="3">
-        <v>19000</v>
+        <v>23100</v>
       </c>
       <c r="H59" s="3">
-        <v>16200</v>
+        <v>19400</v>
       </c>
       <c r="I59" s="3">
-        <v>22900</v>
+        <v>16600</v>
       </c>
       <c r="J59" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K59" s="3">
         <v>13300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>23300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4705,80 +4842,83 @@
       <c r="AD59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>162200</v>
+        <v>154800</v>
       </c>
       <c r="E60" s="3">
-        <v>174700</v>
+        <v>165700</v>
       </c>
       <c r="F60" s="3">
-        <v>159300</v>
+        <v>178400</v>
       </c>
       <c r="G60" s="3">
-        <v>143900</v>
+        <v>162700</v>
       </c>
       <c r="H60" s="3">
-        <v>147800</v>
+        <v>147000</v>
       </c>
       <c r="I60" s="3">
-        <v>145700</v>
+        <v>150900</v>
       </c>
       <c r="J60" s="3">
+        <v>148800</v>
+      </c>
+      <c r="K60" s="3">
         <v>127500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>99400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>94900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>93300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>108200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>119700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>85800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>74400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>65300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>64900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>61500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>92000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>83900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>111300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>60000</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4791,56 +4931,59 @@
       <c r="AD60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>66900</v>
+        <v>63600</v>
       </c>
       <c r="E61" s="3">
-        <v>63700</v>
+        <v>68400</v>
       </c>
       <c r="F61" s="3">
-        <v>54600</v>
+        <v>65000</v>
       </c>
       <c r="G61" s="3">
-        <v>54600</v>
+        <v>55800</v>
       </c>
       <c r="H61" s="3">
-        <v>55400</v>
+        <v>55800</v>
       </c>
       <c r="I61" s="3">
-        <v>59000</v>
+        <v>56600</v>
       </c>
       <c r="J61" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K61" s="3">
         <v>62200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>40500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>45800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>48000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>51500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>53800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>53900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>40400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4857,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>100</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
@@ -4877,80 +5020,83 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16100</v>
+        <v>15300</v>
       </c>
       <c r="E62" s="3">
-        <v>17400</v>
+        <v>16400</v>
       </c>
       <c r="F62" s="3">
-        <v>20700</v>
+        <v>17800</v>
       </c>
       <c r="G62" s="3">
-        <v>20600</v>
+        <v>21200</v>
       </c>
       <c r="H62" s="3">
-        <v>14700</v>
+        <v>21100</v>
       </c>
       <c r="I62" s="3">
-        <v>17900</v>
+        <v>15000</v>
       </c>
       <c r="J62" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K62" s="3">
         <v>24400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>14100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>14500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3800</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4963,8 +5109,11 @@
       <c r="AD62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5049,8 +5198,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5135,8 +5287,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5221,80 +5376,83 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>245300</v>
+        <v>233600</v>
       </c>
       <c r="E66" s="3">
-        <v>255800</v>
+        <v>250500</v>
       </c>
       <c r="F66" s="3">
-        <v>234700</v>
+        <v>261300</v>
       </c>
       <c r="G66" s="3">
-        <v>219200</v>
+        <v>239700</v>
       </c>
       <c r="H66" s="3">
-        <v>217800</v>
+        <v>223800</v>
       </c>
       <c r="I66" s="3">
-        <v>222600</v>
+        <v>222500</v>
       </c>
       <c r="J66" s="3">
+        <v>227300</v>
+      </c>
+      <c r="K66" s="3">
         <v>214200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>157000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>153200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>161700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>152200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>171300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>180200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>129000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>77400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>68500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>68700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>65600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>105400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>98000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>125900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>63800</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5307,8 +5465,11 @@
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5339,8 +5500,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5425,8 +5587,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5511,8 +5676,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5597,8 +5765,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5683,80 +5854,83 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>605600</v>
+        <v>663100</v>
       </c>
       <c r="E72" s="3">
-        <v>588700</v>
+        <v>618500</v>
       </c>
       <c r="F72" s="3">
-        <v>524400</v>
+        <v>601200</v>
       </c>
       <c r="G72" s="3">
-        <v>479500</v>
+        <v>535500</v>
       </c>
       <c r="H72" s="3">
-        <v>444300</v>
+        <v>489700</v>
       </c>
       <c r="I72" s="3">
-        <v>413800</v>
+        <v>453800</v>
       </c>
       <c r="J72" s="3">
+        <v>422600</v>
+      </c>
+      <c r="K72" s="3">
         <v>366300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>321100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>301800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>293700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>288300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>248800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>232200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>226700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>205700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>186900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>133700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>118200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>88000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>79000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>75700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>68800</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5769,8 +5943,11 @@
       <c r="AD72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5855,8 +6032,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5941,8 +6121,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6027,80 +6210,83 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>633400</v>
+        <v>681500</v>
       </c>
       <c r="E76" s="3">
-        <v>601200</v>
+        <v>646900</v>
       </c>
       <c r="F76" s="3">
-        <v>536900</v>
+        <v>614100</v>
       </c>
       <c r="G76" s="3">
-        <v>490100</v>
+        <v>548400</v>
       </c>
       <c r="H76" s="3">
-        <v>451200</v>
+        <v>500600</v>
       </c>
       <c r="I76" s="3">
-        <v>415300</v>
+        <v>460800</v>
       </c>
       <c r="J76" s="3">
+        <v>424100</v>
+      </c>
+      <c r="K76" s="3">
         <v>367800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>322500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>303200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>294200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>288300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>276700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>259100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>249300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>228400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>207200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>196300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>180800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>89800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>80800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>77500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>70700</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6113,8 +6299,11 @@
       <c r="AD76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6199,88 +6388,91 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
@@ -6290,83 +6482,86 @@
       <c r="AD80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18600</v>
+        <v>30900</v>
       </c>
       <c r="E81" s="3">
-        <v>39400</v>
+        <v>19000</v>
       </c>
       <c r="F81" s="3">
-        <v>33500</v>
+        <v>40200</v>
       </c>
       <c r="G81" s="3">
-        <v>24900</v>
+        <v>34300</v>
       </c>
       <c r="H81" s="3">
-        <v>19100</v>
+        <v>25500</v>
       </c>
       <c r="I81" s="3">
-        <v>25500</v>
+        <v>19500</v>
       </c>
       <c r="J81" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K81" s="3">
         <v>19800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>18200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>6600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5600</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
@@ -6376,8 +6571,11 @@
       <c r="AD81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6408,8 +6606,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6461,30 +6660,30 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3">
         <v>2300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5800</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA83" s="3">
         <v>1700</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
@@ -6494,8 +6693,11 @@
       <c r="AD83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6580,8 +6782,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6666,8 +6871,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6752,8 +6960,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6838,8 +7049,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6924,83 +7138,86 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50700</v>
+        <v>31800</v>
       </c>
       <c r="E89" s="3">
-        <v>31300</v>
+        <v>51800</v>
       </c>
       <c r="F89" s="3">
-        <v>58500</v>
+        <v>32000</v>
       </c>
       <c r="G89" s="3">
-        <v>23200</v>
+        <v>59700</v>
       </c>
       <c r="H89" s="3">
-        <v>43400</v>
+        <v>23700</v>
       </c>
       <c r="I89" s="3">
-        <v>24700</v>
+        <v>44300</v>
       </c>
       <c r="J89" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K89" s="3">
         <v>43300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>23900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>15200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>12700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>17600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>26300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>11200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>14300</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
@@ -7010,8 +7227,11 @@
       <c r="AD89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7042,83 +7262,84 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>4300</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
@@ -7128,8 +7349,11 @@
       <c r="AD91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7214,8 +7438,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7300,83 +7527,86 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-44800</v>
+        <v>-8100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3800</v>
+        <v>-45800</v>
       </c>
       <c r="F94" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="T94" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="W94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="X94" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-5000</v>
       </c>
-      <c r="J94" s="3">
-        <v>-49200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-16400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-58800</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-34300</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-37600</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
@@ -7386,8 +7616,11 @@
       <c r="AD94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7418,8 +7651,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7504,8 +7738,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7590,8 +7827,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7676,8 +7916,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7762,83 +8005,86 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
-        <v>-3900</v>
-      </c>
       <c r="F100" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="O100" s="3">
+        <v>16700</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>16900</v>
+      </c>
+      <c r="R100" s="3">
         <v>-2200</v>
       </c>
-      <c r="G100" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>16700</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="P100" s="3">
-        <v>16900</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>2100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>32700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-7000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>23800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3300</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7848,82 +8094,85 @@
       <c r="AD100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>200</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>-100</v>
       </c>
       <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>3</v>
+      <c r="AA101" s="3">
+        <v>-100</v>
       </c>
       <c r="AB101" s="3" t="s">
         <v>3</v>
@@ -7934,83 +8183,86 @@
       <c r="AD101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3600</v>
+        <v>17600</v>
       </c>
       <c r="E102" s="3">
-        <v>24300</v>
+        <v>3700</v>
       </c>
       <c r="F102" s="3">
-        <v>52600</v>
+        <v>24800</v>
       </c>
       <c r="G102" s="3">
-        <v>7700</v>
+        <v>53700</v>
       </c>
       <c r="H102" s="3">
-        <v>39900</v>
+        <v>7900</v>
       </c>
       <c r="I102" s="3">
-        <v>15100</v>
+        <v>40700</v>
       </c>
       <c r="J102" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-37000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>35300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-18200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>12500</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
@@ -8018,6 +8270,9 @@
         <v>3</v>
       </c>
       <c r="AD102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DAVA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>DAVA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,395 +665,421 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>257900</v>
+        <v>233700</v>
       </c>
       <c r="E8" s="3">
-        <v>260000</v>
+        <v>235500</v>
       </c>
       <c r="F8" s="3">
-        <v>248600</v>
+        <v>252500</v>
       </c>
       <c r="G8" s="3">
-        <v>228600</v>
+        <v>254600</v>
       </c>
       <c r="H8" s="3">
-        <v>214400</v>
+        <v>243400</v>
       </c>
       <c r="I8" s="3">
+        <v>223800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>209900</v>
+      </c>
+      <c r="K8" s="3">
         <v>199900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>186900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>165800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>131500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>123200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>112500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>110400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>122700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>117100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>112400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>105200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>97300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>94800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>87700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>79500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>201800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>65200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>62000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>56100</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>176000</v>
+        <v>166200</v>
       </c>
       <c r="E9" s="3">
-        <v>168200</v>
+        <v>161600</v>
       </c>
       <c r="F9" s="3">
-        <v>163200</v>
+        <v>172300</v>
       </c>
       <c r="G9" s="3">
-        <v>155400</v>
+        <v>164700</v>
       </c>
       <c r="H9" s="3">
-        <v>144200</v>
+        <v>159700</v>
       </c>
       <c r="I9" s="3">
+        <v>152200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>141200</v>
+      </c>
+      <c r="K9" s="3">
         <v>133800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>120100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>109100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>86400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>79900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>73600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>77400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>75200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>106700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>71900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>69600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>64000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>61300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>58000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>51800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>136200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>44400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>42200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>38000</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>81900</v>
+        <v>67500</v>
       </c>
       <c r="E10" s="3">
-        <v>91800</v>
+        <v>73900</v>
       </c>
       <c r="F10" s="3">
-        <v>85500</v>
+        <v>80200</v>
       </c>
       <c r="G10" s="3">
-        <v>73200</v>
+        <v>89900</v>
       </c>
       <c r="H10" s="3">
-        <v>70200</v>
+        <v>83700</v>
       </c>
       <c r="I10" s="3">
+        <v>71700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K10" s="3">
         <v>66000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>66800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>56700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>45100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>43400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>38900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>33000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>47500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>10500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>40500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>35600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>33300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>33500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>29700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>27700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>65600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>20900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>19700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>18100</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1085,8 +1111,10 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1174,8 +1202,14 @@
       <c r="AE12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,38 +1297,44 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-4300</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="F14" s="3">
-        <v>1700</v>
+        <v>-4200</v>
       </c>
       <c r="G14" s="3">
-        <v>-1400</v>
+        <v>2900</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="I14" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1311,120 +1351,126 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-3000</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1600</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="3">
         <v>500</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E15" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>4900</v>
       </c>
-      <c r="F15" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>4800</v>
       </c>
       <c r="H15" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K15" s="3">
         <v>3900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>3900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
         <v>1800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3">
         <v>2200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>1900</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="3">
         <v>1300</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1441,8 +1487,14 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1471,186 +1523,200 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>219800</v>
+        <v>213800</v>
       </c>
       <c r="E17" s="3">
-        <v>218500</v>
+        <v>207300</v>
       </c>
       <c r="F17" s="3">
-        <v>214100</v>
+        <v>215200</v>
       </c>
       <c r="G17" s="3">
-        <v>194900</v>
+        <v>213900</v>
       </c>
       <c r="H17" s="3">
-        <v>182200</v>
+        <v>209600</v>
       </c>
       <c r="I17" s="3">
+        <v>190700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K17" s="3">
         <v>175200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>156600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>141200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>110400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>106800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>98700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>102000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>104000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>132800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>92500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>93300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>87400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>82900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>77400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>71200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>177300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>57200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>52900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>47800</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>38100</v>
+        <v>20000</v>
       </c>
       <c r="E18" s="3">
-        <v>41500</v>
+        <v>28200</v>
       </c>
       <c r="F18" s="3">
-        <v>34600</v>
+        <v>37300</v>
       </c>
       <c r="G18" s="3">
+        <v>40600</v>
+      </c>
+      <c r="H18" s="3">
         <v>33800</v>
       </c>
-      <c r="H18" s="3">
-        <v>32200</v>
-      </c>
       <c r="I18" s="3">
+        <v>33100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K18" s="3">
         <v>24700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>30300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>24500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>21100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>16400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>13800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>8400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>18800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-15600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>19900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>11900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>9900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>12000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>10300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>8400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>24500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>8000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>9000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>8200</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1682,186 +1748,200 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>14300</v>
-      </c>
       <c r="G20" s="3">
-        <v>7400</v>
+        <v>-15500</v>
       </c>
       <c r="H20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-7900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-6800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>38700</v>
+        <v>33200</v>
       </c>
       <c r="E21" s="3">
-        <v>26500</v>
+        <v>30700</v>
       </c>
       <c r="F21" s="3">
-        <v>58600</v>
+        <v>37900</v>
       </c>
       <c r="G21" s="3">
-        <v>40500</v>
+        <v>26000</v>
       </c>
       <c r="H21" s="3">
-        <v>33200</v>
+        <v>57400</v>
       </c>
       <c r="I21" s="3">
-        <v>24500</v>
+        <v>39700</v>
       </c>
       <c r="J21" s="3">
-        <v>40400</v>
+        <v>32500</v>
       </c>
       <c r="K21" s="3">
         <v>24500</v>
       </c>
       <c r="L21" s="3">
+        <v>40400</v>
+      </c>
+      <c r="M21" s="3">
+        <v>24500</v>
+      </c>
+      <c r="N21" s="3">
         <v>18100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>13300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>16600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>8500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>24700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-22900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>29500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>14400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>11600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>12400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>4600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>11000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>29000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>7900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>9000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>8900</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1949,177 +2029,189 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>38500</v>
+        <v>21500</v>
       </c>
       <c r="E23" s="3">
-        <v>25700</v>
+        <v>30900</v>
       </c>
       <c r="F23" s="3">
-        <v>48900</v>
+        <v>37700</v>
       </c>
       <c r="G23" s="3">
-        <v>41200</v>
+        <v>25100</v>
       </c>
       <c r="H23" s="3">
-        <v>32800</v>
+        <v>47800</v>
       </c>
       <c r="I23" s="3">
+        <v>40300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K23" s="3">
         <v>24200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>31600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>23000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>19300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>12400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>10300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>8200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>24400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-23500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>23800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>14300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>10100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>12400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>3500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>8600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>23200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>7900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>8400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>7200</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7600</v>
+        <v>6100</v>
       </c>
       <c r="E24" s="3">
-        <v>6700</v>
+        <v>2300</v>
       </c>
       <c r="F24" s="3">
-        <v>8700</v>
+        <v>7500</v>
       </c>
       <c r="G24" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="H24" s="3">
-        <v>7300</v>
+        <v>8500</v>
       </c>
       <c r="I24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K24" s="3">
         <v>4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>4100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>2600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>2300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>5000</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>1800</v>
       </c>
       <c r="AA24" s="3">
         <v>1600</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC24" s="3" t="s">
-        <v>3</v>
+      <c r="AB24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>1600</v>
       </c>
       <c r="AD24" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2219,14 @@
       <c r="AE24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2216,186 +2314,204 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>30900</v>
+        <v>15300</v>
       </c>
       <c r="E26" s="3">
-        <v>19000</v>
+        <v>28600</v>
       </c>
       <c r="F26" s="3">
-        <v>40200</v>
+        <v>30200</v>
       </c>
       <c r="G26" s="3">
-        <v>34300</v>
+        <v>18600</v>
       </c>
       <c r="H26" s="3">
-        <v>25500</v>
+        <v>39400</v>
       </c>
       <c r="I26" s="3">
+        <v>33500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K26" s="3">
         <v>19500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>26000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>19800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>15200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>9100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>7900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>19400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-18800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>19800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>11300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>8400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>9800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>2700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>6300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>18200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>6200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>6600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>5600</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>30900</v>
+        <v>15300</v>
       </c>
       <c r="E27" s="3">
-        <v>19000</v>
+        <v>28600</v>
       </c>
       <c r="F27" s="3">
-        <v>40200</v>
+        <v>30200</v>
       </c>
       <c r="G27" s="3">
-        <v>34300</v>
+        <v>18600</v>
       </c>
       <c r="H27" s="3">
-        <v>25500</v>
+        <v>39400</v>
       </c>
       <c r="I27" s="3">
+        <v>33500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K27" s="3">
         <v>19500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>26000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>19800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>15200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>9100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>7900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>7500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>19400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-18800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>19800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>11300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>8400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>9800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>2700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>6300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>18200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>6200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>6600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>5600</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2483,8 +2599,14 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2572,8 +2694,14 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2661,8 +2789,14 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2750,186 +2884,204 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
-        <v>15800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-14300</v>
-      </c>
       <c r="G32" s="3">
-        <v>-7400</v>
+        <v>15500</v>
       </c>
       <c r="H32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>7900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>6800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>1000</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>30900</v>
+        <v>15300</v>
       </c>
       <c r="E33" s="3">
-        <v>19000</v>
+        <v>28600</v>
       </c>
       <c r="F33" s="3">
-        <v>40200</v>
+        <v>30200</v>
       </c>
       <c r="G33" s="3">
-        <v>34300</v>
+        <v>18600</v>
       </c>
       <c r="H33" s="3">
-        <v>25500</v>
+        <v>39400</v>
       </c>
       <c r="I33" s="3">
+        <v>33500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K33" s="3">
         <v>19500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>26000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>19800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>15200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>9100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>7900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>7500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>19400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-18800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>19800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>11300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>8400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>9800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>2700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>6300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>18200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>6200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>6600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>5600</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3017,191 +3169,209 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>30900</v>
+        <v>15300</v>
       </c>
       <c r="E35" s="3">
-        <v>19000</v>
+        <v>28600</v>
       </c>
       <c r="F35" s="3">
-        <v>40200</v>
+        <v>30200</v>
       </c>
       <c r="G35" s="3">
-        <v>34300</v>
+        <v>18600</v>
       </c>
       <c r="H35" s="3">
-        <v>25500</v>
+        <v>39400</v>
       </c>
       <c r="I35" s="3">
+        <v>33500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K35" s="3">
         <v>19500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>26000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>19800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>15200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>9100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>7900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>7500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>19400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-18800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>19800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>11300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>8400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>9800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>2700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>6300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>18200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>6200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>6600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>5600</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AE38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3233,8 +3403,10 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3266,86 +3438,88 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>252400</v>
+        <v>208700</v>
       </c>
       <c r="E41" s="3">
-        <v>234900</v>
+        <v>204300</v>
       </c>
       <c r="F41" s="3">
-        <v>231100</v>
+        <v>247100</v>
       </c>
       <c r="G41" s="3">
-        <v>206300</v>
+        <v>229900</v>
       </c>
       <c r="H41" s="3">
-        <v>152600</v>
+        <v>226300</v>
       </c>
       <c r="I41" s="3">
+        <v>202000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>149400</v>
+      </c>
+      <c r="K41" s="3">
         <v>144700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>104000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>86700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>92300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>98600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>82800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>123600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>116000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>107700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>114100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>96400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>79000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>67400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>55200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>19500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>12200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>32700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>21700</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,34 +3529,40 @@
       <c r="AE41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>100</v>
+      </c>
+      <c r="F42" s="3">
         <v>200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>300</v>
-      </c>
-      <c r="F42" s="3">
-        <v>400</v>
-      </c>
-      <c r="G42" s="3">
-        <v>500</v>
       </c>
       <c r="H42" s="3">
         <v>400</v>
       </c>
       <c r="I42" s="3">
+        <v>500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>400</v>
+      </c>
+      <c r="K42" s="3">
         <v>600</v>
-      </c>
-      <c r="J42" s="3">
-        <v>700</v>
-      </c>
-      <c r="K42" s="3">
-        <v>700</v>
       </c>
       <c r="L42" s="3">
         <v>700</v>
@@ -3397,19 +3577,19 @@
         <v>700</v>
       </c>
       <c r="P42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R42" s="3">
         <v>800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
+      <c r="S42" s="3">
+        <v>800</v>
+      </c>
+      <c r="T42" s="3">
+        <v>800</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
@@ -3423,11 +3603,11 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3444,86 +3624,92 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>233500</v>
+        <v>237300</v>
       </c>
       <c r="E43" s="3">
-        <v>223200</v>
+        <v>225700</v>
       </c>
       <c r="F43" s="3">
-        <v>245500</v>
+        <v>228500</v>
       </c>
       <c r="G43" s="3">
-        <v>209100</v>
+        <v>218500</v>
       </c>
       <c r="H43" s="3">
-        <v>203800</v>
+        <v>240300</v>
       </c>
       <c r="I43" s="3">
+        <v>204700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>199500</v>
+      </c>
+      <c r="K43" s="3">
         <v>183800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>180400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>148000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>129500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>110300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>112800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>104300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>108700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>107000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>93700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>91600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>84800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>84900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>80800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>68600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>64900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>64400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>59300</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3533,8 +3719,14 @@
       <c r="AE43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3599,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
@@ -3607,11 +3799,11 @@
       <c r="Z44" s="3">
         <v>100</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB44" s="3" t="s">
-        <v>3</v>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>100</v>
       </c>
       <c r="AC44" s="3" t="s">
         <v>3</v>
@@ -3622,8 +3814,14 @@
       <c r="AE44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3711,86 +3909,92 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>486100</v>
+        <v>446100</v>
       </c>
       <c r="E46" s="3">
-        <v>458300</v>
+        <v>430100</v>
       </c>
       <c r="F46" s="3">
-        <v>477100</v>
+        <v>475800</v>
       </c>
       <c r="G46" s="3">
-        <v>415900</v>
+        <v>448700</v>
       </c>
       <c r="H46" s="3">
-        <v>356800</v>
+        <v>467000</v>
       </c>
       <c r="I46" s="3">
+        <v>407100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>349300</v>
+      </c>
+      <c r="K46" s="3">
         <v>329100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>285100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>235400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>222500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>209600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>196300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>228700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>225500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>215500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>208600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>188000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>163800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>152400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>136000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>88000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>77200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>97100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>81100</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3800,79 +4004,85 @@
       <c r="AE46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F47" s="3">
         <v>2500</v>
       </c>
-      <c r="E47" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H47" s="3">
         <v>3500</v>
       </c>
-      <c r="G47" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1500</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z47" s="3" t="s">
-        <v>3</v>
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>3</v>
@@ -3889,86 +4099,92 @@
       <c r="AE47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>108000</v>
+        <v>111200</v>
       </c>
       <c r="E48" s="3">
-        <v>110000</v>
+        <v>112900</v>
       </c>
       <c r="F48" s="3">
-        <v>105100</v>
+        <v>105700</v>
       </c>
       <c r="G48" s="3">
-        <v>91300</v>
+        <v>107700</v>
       </c>
       <c r="H48" s="3">
-        <v>88000</v>
+        <v>102900</v>
       </c>
       <c r="I48" s="3">
+        <v>89400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K48" s="3">
         <v>87400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>89500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>87500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>62700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>68900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>72400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>77900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>81500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>83000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>65700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>14500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>12500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>13200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>12200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>11100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>10800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>11400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>10400</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3978,86 +4194,92 @@
       <c r="AE48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>301500</v>
+        <v>403500</v>
       </c>
       <c r="E49" s="3">
-        <v>310200</v>
+        <v>380900</v>
       </c>
       <c r="F49" s="3">
-        <v>264800</v>
+        <v>295100</v>
       </c>
       <c r="G49" s="3">
-        <v>256100</v>
+        <v>303700</v>
       </c>
       <c r="H49" s="3">
-        <v>256600</v>
+        <v>259200</v>
       </c>
       <c r="I49" s="3">
+        <v>250700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>251200</v>
+      </c>
+      <c r="K49" s="3">
         <v>239500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>246300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>233800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>178500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>161300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>167700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>116800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>127400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>124000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>89100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>90200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>93200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>96100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>94900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>92900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>89600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>93700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>41900</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC49" s="3" t="s">
         <v>3</v>
       </c>
@@ -4067,8 +4289,14 @@
       <c r="AE49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4156,8 +4384,14 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4245,86 +4479,92 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17100</v>
+        <v>25600</v>
       </c>
       <c r="E52" s="3">
-        <v>17100</v>
+        <v>25000</v>
       </c>
       <c r="F52" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>16700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>24300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>21400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K52" s="3">
+        <v>27100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>30300</v>
+      </c>
+      <c r="M52" s="3">
         <v>24900</v>
       </c>
-      <c r="G52" s="3">
-        <v>21800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>22700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>27100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>30300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>24900</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>15200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>15900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>18700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>16300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>12400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>15600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>13400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>13100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>6300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>3300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>3300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>3200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1100</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
@@ -4334,8 +4574,14 @@
       <c r="AE52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4423,86 +4669,92 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>915100</v>
+        <v>990300</v>
       </c>
       <c r="E54" s="3">
-        <v>897400</v>
+        <v>955400</v>
       </c>
       <c r="F54" s="3">
-        <v>875400</v>
+        <v>895800</v>
       </c>
       <c r="G54" s="3">
-        <v>788100</v>
+        <v>878500</v>
       </c>
       <c r="H54" s="3">
-        <v>724400</v>
+        <v>856900</v>
       </c>
       <c r="I54" s="3">
+        <v>771500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>709200</v>
+      </c>
+      <c r="K54" s="3">
         <v>683300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>651500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>582000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>479500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>456400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>456000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>440400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>448000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>439300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>378300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>305800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>275800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>265000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>246400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>195200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>178800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>203400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>134500</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4512,8 +4764,14 @@
       <c r="AE54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4545,8 +4803,10 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4578,86 +4838,88 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>117400</v>
+        <v>104100</v>
       </c>
       <c r="E57" s="3">
-        <v>122300</v>
+        <v>113100</v>
       </c>
       <c r="F57" s="3">
-        <v>129600</v>
+        <v>114900</v>
       </c>
       <c r="G57" s="3">
-        <v>124500</v>
+        <v>119700</v>
       </c>
       <c r="H57" s="3">
-        <v>112600</v>
+        <v>126800</v>
       </c>
       <c r="I57" s="3">
+        <v>121900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>110200</v>
+      </c>
+      <c r="K57" s="3">
         <v>119200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>109000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>97400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>76600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>73900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>78200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>71500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>84200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>98900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>65600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>62500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>58600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>55300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>53900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>52000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>42500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>37200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>32700</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,86 +4929,92 @@
       <c r="AE57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="E58" s="3">
-        <v>17400</v>
+        <v>18100</v>
       </c>
       <c r="F58" s="3">
-        <v>16400</v>
+        <v>17200</v>
       </c>
       <c r="G58" s="3">
-        <v>15100</v>
+        <v>17100</v>
       </c>
       <c r="H58" s="3">
-        <v>14900</v>
+        <v>16100</v>
       </c>
       <c r="I58" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K58" s="3">
         <v>15200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>16500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>16800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>14300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>14200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>13100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>13600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>14300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>15600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>11700</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>25500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>30500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>50800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>26800</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4756,86 +5024,92 @@
       <c r="AE58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19800</v>
+        <v>20200</v>
       </c>
       <c r="E59" s="3">
-        <v>26000</v>
+        <v>18400</v>
       </c>
       <c r="F59" s="3">
-        <v>32500</v>
+        <v>19400</v>
       </c>
       <c r="G59" s="3">
-        <v>23100</v>
+        <v>25400</v>
       </c>
       <c r="H59" s="3">
-        <v>19400</v>
+        <v>31800</v>
       </c>
       <c r="I59" s="3">
+        <v>22700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K59" s="3">
         <v>16600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>23400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>13300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>8500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>8300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>9600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>8500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>11900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>6700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>9500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>7600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>14400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>10900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>23300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>500</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4845,86 +5119,92 @@
       <c r="AE59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>154800</v>
+        <v>142600</v>
       </c>
       <c r="E60" s="3">
-        <v>165700</v>
+        <v>149600</v>
       </c>
       <c r="F60" s="3">
-        <v>178400</v>
+        <v>151500</v>
       </c>
       <c r="G60" s="3">
-        <v>162700</v>
+        <v>162200</v>
       </c>
       <c r="H60" s="3">
-        <v>147000</v>
+        <v>174700</v>
       </c>
       <c r="I60" s="3">
+        <v>159300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>143900</v>
+      </c>
+      <c r="K60" s="3">
         <v>150900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>148800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>127500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>99400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>94900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>100800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>93300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>108200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>119700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>85800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>74400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>65300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>64900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>61500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>92000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>83900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>111300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>60000</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4934,62 +5214,68 @@
       <c r="AE60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>63600</v>
+        <v>67300</v>
       </c>
       <c r="E61" s="3">
-        <v>68400</v>
+        <v>67500</v>
       </c>
       <c r="F61" s="3">
-        <v>65000</v>
+        <v>62300</v>
       </c>
       <c r="G61" s="3">
-        <v>55800</v>
+        <v>66900</v>
       </c>
       <c r="H61" s="3">
-        <v>55800</v>
+        <v>63700</v>
       </c>
       <c r="I61" s="3">
+        <v>54600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K61" s="3">
         <v>56600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>60300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>62200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>40500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>45800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>48000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>51500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>53800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>53900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>40400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -5003,17 +5289,17 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>100</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
@@ -5023,86 +5309,92 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15300</v>
+        <v>36900</v>
       </c>
       <c r="E62" s="3">
-        <v>16400</v>
+        <v>29500</v>
       </c>
       <c r="F62" s="3">
-        <v>17800</v>
+        <v>14900</v>
       </c>
       <c r="G62" s="3">
-        <v>21200</v>
+        <v>16100</v>
       </c>
       <c r="H62" s="3">
-        <v>21100</v>
+        <v>17400</v>
       </c>
       <c r="I62" s="3">
+        <v>20700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K62" s="3">
         <v>15000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>18200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>24400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>17100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>12500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>12900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>7300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>9400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>6600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>3300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>3800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>4100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>13400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>14100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>14500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>3800</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5404,14 @@
       <c r="AE62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5201,8 +5499,14 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5290,8 +5594,14 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5379,86 +5689,92 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>233600</v>
+        <v>246900</v>
       </c>
       <c r="E66" s="3">
-        <v>250500</v>
+        <v>246600</v>
       </c>
       <c r="F66" s="3">
-        <v>261300</v>
+        <v>228700</v>
       </c>
       <c r="G66" s="3">
-        <v>239700</v>
+        <v>245200</v>
       </c>
       <c r="H66" s="3">
-        <v>223800</v>
+        <v>255800</v>
       </c>
       <c r="I66" s="3">
+        <v>234600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>219100</v>
+      </c>
+      <c r="K66" s="3">
         <v>222500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>227300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>214200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>157000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>153200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>161700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>152200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>171300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>180200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>129000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>77400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>68500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>68700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>65600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>105400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>98000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>125900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>63800</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5468,8 +5784,14 @@
       <c r="AE66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5501,8 +5823,10 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5590,8 +5914,14 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5679,8 +6009,14 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5768,8 +6104,14 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5857,86 +6199,92 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>663100</v>
+        <v>723900</v>
       </c>
       <c r="E72" s="3">
-        <v>618500</v>
+        <v>689200</v>
       </c>
       <c r="F72" s="3">
-        <v>601200</v>
+        <v>649100</v>
       </c>
       <c r="G72" s="3">
-        <v>535500</v>
+        <v>605500</v>
       </c>
       <c r="H72" s="3">
-        <v>489700</v>
+        <v>588600</v>
       </c>
       <c r="I72" s="3">
+        <v>524300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>479400</v>
+      </c>
+      <c r="K72" s="3">
         <v>453800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>422600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>366300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>321100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>301800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>293700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>288300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>248800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>232200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>226700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>205700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>186900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>133700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>118200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>88000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>79000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>75700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>68800</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5946,8 +6294,14 @@
       <c r="AE72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6035,8 +6389,14 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6124,8 +6484,14 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6213,86 +6579,92 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>681500</v>
+        <v>743400</v>
       </c>
       <c r="E76" s="3">
-        <v>646900</v>
+        <v>708800</v>
       </c>
       <c r="F76" s="3">
-        <v>614100</v>
+        <v>667100</v>
       </c>
       <c r="G76" s="3">
-        <v>548400</v>
+        <v>633300</v>
       </c>
       <c r="H76" s="3">
-        <v>500600</v>
+        <v>601200</v>
       </c>
       <c r="I76" s="3">
+        <v>536800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>490000</v>
+      </c>
+      <c r="K76" s="3">
         <v>460800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>424100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>367800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>322500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>303200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>294200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>288300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>276700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>259100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>249300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>228400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>207200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>196300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>180800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>89800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>80800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>77500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>70700</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6302,8 +6674,14 @@
       <c r="AE76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6391,191 +6769,209 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AD80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AE80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>30900</v>
+        <v>15300</v>
       </c>
       <c r="E81" s="3">
-        <v>19000</v>
+        <v>28600</v>
       </c>
       <c r="F81" s="3">
-        <v>40200</v>
+        <v>30200</v>
       </c>
       <c r="G81" s="3">
-        <v>34300</v>
+        <v>18600</v>
       </c>
       <c r="H81" s="3">
-        <v>25500</v>
+        <v>39400</v>
       </c>
       <c r="I81" s="3">
+        <v>33500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K81" s="3">
         <v>19500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>26000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>19800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>15200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>9100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>7900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>7500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>19400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-18800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>19800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>11300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>8400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>9800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>2700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>6300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>18200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>6200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>6600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>5600</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6607,8 +7003,10 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6663,41 +7061,47 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y83" s="3">
         <v>2300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>5800</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC83" s="3">
         <v>1700</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6785,8 +7189,14 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6874,8 +7284,14 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6963,8 +7379,14 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7052,8 +7474,14 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7141,97 +7569,109 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>31800</v>
+        <v>20600</v>
       </c>
       <c r="E89" s="3">
-        <v>51800</v>
+        <v>41300</v>
       </c>
       <c r="F89" s="3">
-        <v>32000</v>
+        <v>31100</v>
       </c>
       <c r="G89" s="3">
-        <v>59700</v>
+        <v>50700</v>
       </c>
       <c r="H89" s="3">
-        <v>23700</v>
+        <v>31300</v>
       </c>
       <c r="I89" s="3">
+        <v>58400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K89" s="3">
         <v>44300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>25200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>43300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>13500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>23900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>25400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>15800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>15100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>21000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>15200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>16800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>12700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>2700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>17600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>26300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>11200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>5000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>14300</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7263,97 +7703,105 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2800</v>
       </c>
       <c r="I91" s="3">
         <v>-3800</v>
       </c>
       <c r="J91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-4500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-3100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-2700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-2500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-2300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>4300</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7441,8 +7889,14 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7530,97 +7984,109 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8100</v>
+        <v>-12500</v>
       </c>
       <c r="E94" s="3">
-        <v>-45800</v>
+        <v>-81000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3900</v>
+        <v>-7900</v>
       </c>
       <c r="G94" s="3">
-        <v>-4900</v>
+        <v>-44800</v>
       </c>
       <c r="H94" s="3">
-        <v>-15500</v>
+        <v>-3800</v>
       </c>
       <c r="I94" s="3">
         <v>-4800</v>
       </c>
       <c r="J94" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-49200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-16400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-58800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-34300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-3500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-37600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-24100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7652,8 +8118,10 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7741,8 +8209,14 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,8 +8304,14 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7919,8 +8399,14 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8008,271 +8494,295 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="E100" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-2300</v>
-      </c>
       <c r="H100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-4300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-3500</v>
       </c>
       <c r="N100" s="3">
         <v>-3200</v>
       </c>
       <c r="O100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="Q100" s="3">
         <v>16700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>16900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>2100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>32700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-6900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>23800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-11900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>3300</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-900</v>
+        <v>1200</v>
       </c>
       <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>2100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-4100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>2600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
-      </c>
-      <c r="U101" s="3">
-        <v>100</v>
-      </c>
-      <c r="V101" s="3">
-        <v>2300</v>
       </c>
       <c r="W101" s="3">
         <v>100</v>
       </c>
       <c r="X101" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="Y101" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-100</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17600</v>
+        <v>4300</v>
       </c>
       <c r="E102" s="3">
-        <v>3700</v>
+        <v>-42800</v>
       </c>
       <c r="F102" s="3">
-        <v>24800</v>
+        <v>17200</v>
       </c>
       <c r="G102" s="3">
-        <v>53700</v>
+        <v>3600</v>
       </c>
       <c r="H102" s="3">
-        <v>7900</v>
+        <v>24300</v>
       </c>
       <c r="I102" s="3">
+        <v>52600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K102" s="3">
         <v>40700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>15400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-11100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>16600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-37000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>17300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>10900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-6300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>18400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>14900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>11000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>12300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>35300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>7200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-18200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>11000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>12500</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AE102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
